--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>STT</t>
   </si>
@@ -136,9 +136,6 @@
     <t>Quốc</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>TOEIC A</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>Học Suất Sáng</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -332,12 +332,6 @@
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,32 +417,38 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -771,21 +771,21 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="35" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="32" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="32" customWidth="1"/>
-    <col min="9" max="9" width="13" style="32" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="32" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="32" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="13" style="30" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="30" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" customWidth="1"/>
     <col min="13" max="13" width="14.140625" customWidth="1"/>
     <col min="21" max="21" width="17.7109375" customWidth="1"/>
@@ -794,56 +794,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="2" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
       <c r="U1" s="37" t="s">
         <v>15</v>
       </c>
@@ -861,38 +861,38 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="3" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="U2" s="37"/>
@@ -901,399 +901,413 @@
       <c r="X2" s="37"/>
       <c r="Y2" s="37"/>
     </row>
-    <row r="3" spans="1:25" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="13">
         <v>43152</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="26" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="25"/>
+      <c r="I4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="13">
         <v>43153</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27" t="s">
+      <c r="H5" s="25"/>
+      <c r="I5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="13">
         <v>43153</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="26" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27" t="s">
+      <c r="G6" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="26">
         <v>43157</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="26" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27" t="s">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="26">
         <v>43158</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="26" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27" t="s">
+      <c r="H8" s="25"/>
+      <c r="I8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="26">
         <v>43158</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="26" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="27" t="s">
+      <c r="G9" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="H9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="26">
         <v>43155</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="27">
+      <c r="M9" s="24"/>
+      <c r="N9" s="25">
         <v>4</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="25">
         <v>11</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="25">
         <v>4</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="25">
         <v>8</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="25">
         <v>15</v>
       </c>
-      <c r="S9" s="27">
+      <c r="S9" s="25">
         <v>4</v>
       </c>
-      <c r="T9" s="27">
+      <c r="T9" s="25">
         <v>13</v>
       </c>
-      <c r="U9" s="27">
+      <c r="U9" s="25">
         <f>SUM(N9:Q9)</f>
         <v>27</v>
       </c>
-      <c r="V9" s="27">
+      <c r="V9" s="25">
         <f>SUM(R9:T9)</f>
         <v>32</v>
       </c>
-      <c r="W9" s="27">
+      <c r="W9" s="25">
         <v>115</v>
       </c>
-      <c r="X9" s="27">
+      <c r="X9" s="25">
         <v>100</v>
       </c>
-      <c r="Y9" s="27">
+      <c r="Y9" s="25">
         <f>W9+X9</f>
         <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
+      <c r="A10" s="36">
         <v>8</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="40" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27" t="s">
+      <c r="J10" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="26">
+        <v>43157</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="28">
-        <v>43157</v>
-      </c>
-      <c r="L10" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
+      <c r="B11" s="29"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
+      <c r="B12" s="29"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
+      <c r="B13" s="29"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
+      <c r="B14" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="M1:M2"/>
@@ -1302,18 +1316,6 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -432,23 +432,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -768,10 +768,10 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,86 +794,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="40" t="s">
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="37" t="s">
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="W1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="X1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Y1" s="40" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -895,11 +895,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1152,18 +1152,45 @@
       <c r="M8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
+      <c r="N8" s="25">
+        <v>2</v>
+      </c>
+      <c r="O8" s="25">
+        <v>8</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>4</v>
+      </c>
+      <c r="R8" s="25">
+        <v>14</v>
+      </c>
+      <c r="S8" s="25">
+        <v>2</v>
+      </c>
+      <c r="T8" s="25">
+        <v>1</v>
+      </c>
+      <c r="U8" s="25">
+        <f>SUM(N8:Q8)</f>
+        <v>14</v>
+      </c>
+      <c r="V8" s="25">
+        <f>SUM(R8:T8)</f>
+        <v>17</v>
+      </c>
+      <c r="W8" s="25">
+        <v>45</v>
+      </c>
+      <c r="X8" s="25">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="25">
+        <f>W8+X8</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
@@ -1296,6 +1323,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1308,14 +1343,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>STT</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Dương Thị Hoàng Anh</t>
+  </si>
+  <si>
+    <t>0969176761</t>
+  </si>
+  <si>
+    <t>TOEIC B</t>
   </si>
 </sst>
 </file>
@@ -330,7 +339,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -432,22 +441,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -768,10 +781,10 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y11" sqref="Y11"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,86 +807,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="42" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="40" t="s">
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="V1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="W1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="40" t="s">
+      <c r="X1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="40" t="s">
+      <c r="Y1" s="37" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -895,11 +908,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1310,7 +1323,49 @@
       <c r="Y10" s="24"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
+      <c r="A11" s="36">
+        <v>9</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="26">
+        <v>43160</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="29"/>
@@ -1323,14 +1378,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1343,6 +1390,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>STT</t>
   </si>
@@ -161,6 +161,21 @@
   </si>
   <si>
     <t>TOEIC B</t>
+  </si>
+  <si>
+    <t>Trần Thị Điểm</t>
+  </si>
+  <si>
+    <t>0932413516</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ánh</t>
+  </si>
+  <si>
+    <t>01635997580</t>
+  </si>
+  <si>
+    <t>Bạn Bè</t>
   </si>
 </sst>
 </file>
@@ -441,26 +456,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -784,7 +799,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,86 +822,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="40" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="37" t="s">
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="W1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="X1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Y1" s="42" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -908,11 +923,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1326,12 +1341,12 @@
       <c r="A11" s="36">
         <v>9</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="38" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="24"/>
@@ -1368,16 +1383,108 @@
       <c r="Y11" s="24"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
+      <c r="A12" s="36">
+        <v>10</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="26">
+        <v>43162</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
+      <c r="A13" s="36">
+        <v>11</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="26">
+        <v>43162</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1390,14 +1497,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>STT</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t>Bạn Bè</t>
+  </si>
+  <si>
+    <t>Lê Thị Chinh</t>
+  </si>
+  <si>
+    <t>0981343293</t>
+  </si>
+  <si>
+    <t>Ngày 11/03 tới nộp tiền</t>
   </si>
 </sst>
 </file>
@@ -433,9 +442,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -460,23 +466,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -799,23 +808,23 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="A1:Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="34" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="13" style="30" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="30" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="13" style="29" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="29" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.7109375" customWidth="1"/>
     <col min="22" max="22" width="16.7109375" customWidth="1"/>
     <col min="25" max="25" width="13.140625" customWidth="1"/>
@@ -834,7 +843,7 @@
       <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="39" t="s">
@@ -852,7 +861,7 @@
       <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="43" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="39" t="s">
@@ -861,30 +870,30 @@
       <c r="M1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="44" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="42" t="s">
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="42" t="s">
+      <c r="X1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="42" t="s">
+      <c r="Y1" s="38" t="s">
         <v>19</v>
       </c>
     </row>
@@ -893,13 +902,13 @@
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="41"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="1" t="s">
@@ -923,11 +932,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -938,7 +947,7 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="33"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="12" t="s">
         <v>29</v>
       </c>
@@ -966,11 +975,11 @@
       <c r="R3" s="20"/>
       <c r="S3" s="21"/>
       <c r="T3" s="22"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
@@ -981,7 +990,7 @@
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="25"/>
-      <c r="E4" s="34"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="24" t="s">
         <v>31</v>
       </c>
@@ -1024,7 +1033,7 @@
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
-      <c r="E5" s="34"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="24" t="s">
         <v>33</v>
       </c>
@@ -1067,7 +1076,7 @@
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="25"/>
-      <c r="E6" s="34"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="24" t="s">
         <v>34</v>
       </c>
@@ -1112,11 +1121,11 @@
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
-      <c r="E7" s="34"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="25"/>
@@ -1157,11 +1166,11 @@
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="34"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="25"/>
@@ -1229,11 +1238,11 @@
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="34"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="31" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="25" t="s">
@@ -1293,7 +1302,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="35">
         <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -1301,7 +1310,7 @@
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="33" t="s">
         <v>41</v>
       </c>
       <c r="F10" s="24"/>
@@ -1318,10 +1327,10 @@
       <c r="K10" s="26">
         <v>43157</v>
       </c>
-      <c r="L10" s="36" t="s">
+      <c r="L10" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="44" t="s">
         <v>43</v>
       </c>
       <c r="N10" s="24"/>
@@ -1338,15 +1347,15 @@
       <c r="Y10" s="24"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="A11" s="35">
         <v>9</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="37" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="24"/>
@@ -1365,7 +1374,7 @@
       <c r="K11" s="26">
         <v>43160</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="35" t="s">
         <v>28</v>
       </c>
       <c r="M11" s="24"/>
@@ -1383,7 +1392,7 @@
       <c r="Y11" s="24"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+      <c r="A12" s="35">
         <v>10</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -1391,7 +1400,7 @@
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="33" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="24"/>
@@ -1410,7 +1419,7 @@
       <c r="K12" s="26">
         <v>43162</v>
       </c>
-      <c r="L12" s="36" t="s">
+      <c r="L12" s="35" t="s">
         <v>28</v>
       </c>
       <c r="M12" s="24"/>
@@ -1428,7 +1437,7 @@
       <c r="Y12" s="24"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
+      <c r="A13" s="35">
         <v>11</v>
       </c>
       <c r="B13" s="28" t="s">
@@ -1436,7 +1445,7 @@
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="33" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="24"/>
@@ -1455,7 +1464,7 @@
       <c r="K13" s="26">
         <v>43162</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="35" t="s">
         <v>28</v>
       </c>
       <c r="M13" s="24"/>
@@ -1473,18 +1482,48 @@
       <c r="Y13" s="24"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
+      <c r="A14" s="35">
+        <v>12</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26">
+        <v>43164</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1497,6 +1536,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>STT</t>
   </si>
@@ -185,6 +185,15 @@
   </si>
   <si>
     <t>Ngày 11/03 tới nộp tiền</t>
+  </si>
+  <si>
+    <t>Hà Văn Luýt</t>
+  </si>
+  <si>
+    <t>0868696543</t>
+  </si>
+  <si>
+    <t>Linh</t>
   </si>
 </sst>
 </file>
@@ -326,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -349,6 +358,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -363,7 +383,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,26 +486,35 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -802,13 +831,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="A1:Y14"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +872,7 @@
       <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="39" t="s">
@@ -861,7 +890,7 @@
       <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="41" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="39" t="s">
@@ -870,30 +899,30 @@
       <c r="M1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="41" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="38" t="s">
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="X1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="Y1" s="42" t="s">
         <v>19</v>
       </c>
     </row>
@@ -902,13 +931,13 @@
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
-      <c r="E2" s="42"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="43"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="1" t="s">
@@ -932,11 +961,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1330,7 +1359,7 @@
       <c r="L10" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="44" t="s">
+      <c r="M10" s="38" t="s">
         <v>43</v>
       </c>
       <c r="N10" s="24"/>
@@ -1499,7 +1528,9 @@
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
+      <c r="J14" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="K14" s="26">
         <v>43164</v>
       </c>
@@ -1522,8 +1553,45 @@
       <c r="X14" s="24"/>
       <c r="Y14" s="24"/>
     </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="45">
+        <v>13</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="47">
+        <v>43166</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1536,14 +1604,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
   <si>
     <t>STT</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>Linh</t>
+  </si>
+  <si>
+    <t>Dì Lan</t>
+  </si>
+  <si>
+    <t>Hậu</t>
   </si>
 </sst>
 </file>
@@ -335,7 +341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -358,17 +364,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -383,7 +378,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -489,32 +484,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -831,13 +820,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +838,7 @@
     <col min="6" max="6" width="20.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="29" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="13" style="29" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="29" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" style="29" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="29" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" customWidth="1"/>
@@ -860,86 +849,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="44" t="s">
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="42" t="s">
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="42" t="s">
+      <c r="X1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="42" t="s">
+      <c r="Y1" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -961,11 +950,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1554,19 +1543,22 @@
       <c r="Y14" s="24"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="A15" s="35">
         <v>13</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="F15" s="24"/>
+      <c r="G15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="25" t="s">
         <v>44</v>
       </c>
       <c r="I15" s="25" t="s">
@@ -1575,23 +1567,119 @@
       <c r="J15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="47">
+      <c r="K15" s="26">
         <v>43166</v>
       </c>
-      <c r="L15" s="45" t="s">
+      <c r="L15" s="35" t="s">
         <v>58</v>
       </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
+        <v>14</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26">
+        <v>43192</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1604,6 +1692,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
   <si>
     <t>STT</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Hậu</t>
+  </si>
+  <si>
+    <t>0943764868</t>
   </si>
 </sst>
 </file>
@@ -484,26 +487,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -826,7 +829,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +864,7 @@
       <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="40" t="s">
@@ -879,7 +882,7 @@
       <c r="J1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="42" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="40" t="s">
@@ -888,30 +891,30 @@
       <c r="M1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="42" t="s">
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="39" t="s">
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="W1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="X1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="Y1" s="43" t="s">
         <v>19</v>
       </c>
     </row>
@@ -920,13 +923,13 @@
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
-      <c r="E2" s="43"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="44"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="1" t="s">
@@ -950,11 +953,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1546,7 +1549,7 @@
       <c r="A15" s="35">
         <v>13</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="39" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="24"/>
@@ -1591,12 +1594,14 @@
       <c r="A16" s="35">
         <v>14</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="39" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
-      <c r="E16" s="33"/>
+      <c r="E16" s="33" t="s">
+        <v>61</v>
+      </c>
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -1626,7 +1631,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
-      <c r="B17" s="45"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="24"/>
       <c r="D17" s="25"/>
       <c r="E17" s="33"/>
@@ -1680,6 +1685,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1692,14 +1705,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TOEIC Tháng 12" sheetId="2" r:id="rId1"/>
+    <sheet name="TOEIC tháng 3" sheetId="2" r:id="rId1"/>
+    <sheet name="TOEIC tháng 5" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TOEIC Tháng 12'!$A$1:$Y$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TOEIC tháng 3'!$A$1:$Y$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="71">
   <si>
     <t>STT</t>
   </si>
@@ -203,6 +204,33 @@
   </si>
   <si>
     <t>0943764868</t>
+  </si>
+  <si>
+    <t>Truyền</t>
+  </si>
+  <si>
+    <t>Truyền Candy</t>
+  </si>
+  <si>
+    <t>TOEIC Tháng 5</t>
+  </si>
+  <si>
+    <t>Đỗ Ngoan</t>
+  </si>
+  <si>
+    <t>Mỹ Linh</t>
+  </si>
+  <si>
+    <t>fb cá nhân</t>
+  </si>
+  <si>
+    <t>Trần Thị Tuyến</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOEIC </t>
   </si>
 </sst>
 </file>
@@ -344,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -367,6 +395,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -381,7 +435,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,23 +544,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -825,11 +902,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,86 +929,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="45" t="s">
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="43" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="Y1" s="40" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -953,11 +1030,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1685,14 +1762,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1705,8 +1774,750 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="29" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+    </row>
+    <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="13">
+        <v>43206</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="13">
+        <v>43206</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="13">
+        <v>43206</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="26">
+        <v>43206</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25">
+        <v>2</v>
+      </c>
+      <c r="O8" s="25">
+        <v>8</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>4</v>
+      </c>
+      <c r="R8" s="25">
+        <v>14</v>
+      </c>
+      <c r="S8" s="25">
+        <v>2</v>
+      </c>
+      <c r="T8" s="25">
+        <v>1</v>
+      </c>
+      <c r="U8" s="25">
+        <f>SUM(N8:Q8)</f>
+        <v>14</v>
+      </c>
+      <c r="V8" s="25">
+        <f>SUM(R8:T8)</f>
+        <v>17</v>
+      </c>
+      <c r="W8" s="25">
+        <v>45</v>
+      </c>
+      <c r="X8" s="25">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="25">
+        <f>W8+X8</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25">
+        <v>4</v>
+      </c>
+      <c r="O9" s="25">
+        <v>11</v>
+      </c>
+      <c r="P9" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>8</v>
+      </c>
+      <c r="R9" s="25">
+        <v>15</v>
+      </c>
+      <c r="S9" s="25">
+        <v>4</v>
+      </c>
+      <c r="T9" s="25">
+        <v>13</v>
+      </c>
+      <c r="U9" s="25">
+        <f>SUM(N9:Q9)</f>
+        <v>27</v>
+      </c>
+      <c r="V9" s="25">
+        <f>SUM(R9:T9)</f>
+        <v>32</v>
+      </c>
+      <c r="W9" s="25">
+        <v>115</v>
+      </c>
+      <c r="X9" s="25">
+        <v>100</v>
+      </c>
+      <c r="Y9" s="25">
+        <f>W9+X9</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
+        <v>8</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="35">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
+        <v>10</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
+        <v>11</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="35">
+        <v>12</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="35">
+        <v>13</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
+        <v>14</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="72">
   <si>
     <t>STT</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t xml:space="preserve">TOEIC </t>
+  </si>
+  <si>
+    <t>Trương Thị Bích Việt</t>
   </si>
 </sst>
 </file>
@@ -544,45 +547,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -929,86 +932,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="43" t="s">
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="40" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="V1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="W1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="40" t="s">
+      <c r="X1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="40" t="s">
+      <c r="Y1" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="44"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="45"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1030,11 +1033,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1762,6 +1765,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1774,14 +1785,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1794,7 +1797,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
+      <selection pane="topRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,7 +1832,7 @@
       <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="49" t="s">
@@ -1847,7 +1850,7 @@
       <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="51" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="49" t="s">
@@ -1856,30 +1859,30 @@
       <c r="M1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="47" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="48" t="s">
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="V1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="W1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="X1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="Y1" s="42" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1888,13 +1891,13 @@
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
-      <c r="E2" s="52"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
-      <c r="K2" s="54"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
       <c r="N2" s="1" t="s">
@@ -1918,11 +1921,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2104,17 +2107,31 @@
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="D7" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E7" s="33"/>
       <c r="F7" s="24"/>
-      <c r="G7" s="31"/>
+      <c r="G7" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="14"/>
+      <c r="I7" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="26">
+        <v>43206</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="M7" s="24"/>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
@@ -2504,6 +2521,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -2511,12 +2534,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="74">
   <si>
     <t>STT</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>Trương Thị Bích Việt</t>
+  </si>
+  <si>
+    <t>Nhật Kỳ</t>
+  </si>
+  <si>
+    <t>0981696463</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1803,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I8" sqref="I8"/>
+      <selection pane="topRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,17 +2156,31 @@
       <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="24"/>
+      <c r="E8" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>72</v>
+      </c>
       <c r="G8" s="31"/>
       <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="14"/>
+      <c r="I8" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="26">
+        <v>43208</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="M8" s="24"/>
       <c r="N8" s="25">
         <v>2</v>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="78">
   <si>
     <t>STT</t>
   </si>
@@ -240,6 +240,18 @@
   </si>
   <si>
     <t>0981696463</t>
+  </si>
+  <si>
+    <t>Lê Văn Đức</t>
+  </si>
+  <si>
+    <t>0989270424</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Ngọc Khuê</t>
   </si>
 </sst>
 </file>
@@ -558,40 +570,40 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,86 +950,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="46" t="s">
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="46" t="s">
+      <c r="V1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="46" t="s">
+      <c r="W1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="46" t="s">
+      <c r="X1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="46" t="s">
+      <c r="Y1" s="43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1039,11 +1051,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1771,14 +1783,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1791,6 +1795,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1803,7 +1815,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <selection pane="topRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,7 +1850,7 @@
       <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="49" t="s">
@@ -1856,7 +1868,7 @@
       <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="53" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="49" t="s">
@@ -1897,13 +1909,13 @@
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
-      <c r="E2" s="54"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
-      <c r="K2" s="52"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
       <c r="N2" s="1" t="s">
@@ -2226,17 +2238,33 @@
       <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="33"/>
+      <c r="D9" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>75</v>
+      </c>
       <c r="F9" s="24"/>
-      <c r="G9" s="31"/>
+      <c r="G9" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="14"/>
+      <c r="I9" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="26">
+        <v>43211</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="M9" s="24"/>
       <c r="N9" s="25">
         <v>4</v>
@@ -2282,19 +2310,31 @@
       <c r="A10" s="35">
         <v>8</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="28" t="s">
+        <v>77</v>
+      </c>
       <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E10" s="33"/>
-      <c r="F10" s="24"/>
+      <c r="F10" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="35"/>
+        <v>27</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="26">
+        <v>43213</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>28</v>
+      </c>
       <c r="M10" s="38"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
@@ -2541,12 +2581,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -2554,6 +2588,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Ngọc Khuê</t>
+  </si>
+  <si>
+    <t>Nguyễn Linh</t>
   </si>
 </sst>
 </file>
@@ -570,23 +573,23 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -594,16 +597,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -950,86 +953,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="46" t="s">
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="43" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="Y1" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1051,11 +1054,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1783,6 +1786,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1795,14 +1806,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1815,7 +1818,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I11" sqref="I11"/>
+      <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,7 +1853,7 @@
       <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="49" t="s">
@@ -1868,7 +1871,7 @@
       <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="51" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="49" t="s">
@@ -1909,13 +1912,13 @@
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
-      <c r="E2" s="52"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
-      <c r="K2" s="54"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
       <c r="N2" s="1" t="s">
@@ -2137,7 +2140,9 @@
       <c r="G7" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I7" s="25" t="s">
         <v>67</v>
       </c>
@@ -2353,17 +2358,31 @@
       <c r="A11" s="35">
         <v>9</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="36" t="s">
+        <v>78</v>
+      </c>
       <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="D11" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E11" s="37"/>
-      <c r="F11" s="24"/>
+      <c r="F11" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="35"/>
+      <c r="I11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="26">
+        <v>43217</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>60</v>
+      </c>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
@@ -2581,6 +2600,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -2588,12 +2613,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -573,40 +573,40 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -953,86 +953,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="46" t="s">
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="46" t="s">
+      <c r="V1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="46" t="s">
+      <c r="W1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="46" t="s">
+      <c r="X1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="46" t="s">
+      <c r="Y1" s="43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1054,11 +1054,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1786,14 +1786,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1806,6 +1798,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1818,7 +1818,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H7" sqref="H7"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,7 +1853,7 @@
       <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="49" t="s">
@@ -1871,7 +1871,7 @@
       <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="53" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="49" t="s">
@@ -1912,13 +1912,13 @@
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
-      <c r="E2" s="54"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
-      <c r="K2" s="52"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
       <c r="N2" s="1" t="s">
@@ -2257,7 +2257,9 @@
       <c r="G9" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I9" s="25" t="s">
         <v>42</v>
       </c>
@@ -2600,12 +2602,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -2613,6 +2609,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="83">
   <si>
     <t>STT</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>Nguyễn Linh</t>
+  </si>
+  <si>
+    <t>Đức Lê</t>
+  </si>
+  <si>
+    <t>Đức</t>
+  </si>
+  <si>
+    <t>Cao Bích Ngọc</t>
+  </si>
+  <si>
+    <t>Tiny Tiny</t>
   </si>
 </sst>
 </file>
@@ -573,23 +585,23 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -597,16 +609,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -953,86 +965,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="46" t="s">
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="43" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="Y1" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1054,11 +1066,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1786,6 +1798,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1798,14 +1818,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1817,8 +1829,8 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,7 +1865,7 @@
       <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="49" t="s">
@@ -1871,7 +1883,7 @@
       <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="51" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="49" t="s">
@@ -1912,13 +1924,13 @@
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
-      <c r="E2" s="52"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
-      <c r="K2" s="54"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
       <c r="N2" s="1" t="s">
@@ -2403,19 +2415,31 @@
       <c r="A12" s="35">
         <v>10</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="D12" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="E12" s="33"/>
-      <c r="F12" s="24"/>
+      <c r="F12" s="24" t="s">
+        <v>79</v>
+      </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="35"/>
+        <v>27</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="26">
+        <v>43219</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>28</v>
+      </c>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -2434,17 +2458,31 @@
       <c r="A13" s="35">
         <v>11</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
+      <c r="D13" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E13" s="33"/>
-      <c r="F13" s="24"/>
+      <c r="F13" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="35"/>
+      <c r="I13" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="26">
+        <v>43220</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>28</v>
+      </c>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
@@ -2463,17 +2501,29 @@
       <c r="A14" s="35">
         <v>12</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="C14" s="24"/>
       <c r="D14" s="25"/>
       <c r="E14" s="33"/>
-      <c r="F14" s="24"/>
+      <c r="F14" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="35"/>
+      <c r="I14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="26">
+        <v>43222</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>60</v>
+      </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
@@ -2602,6 +2652,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -2609,12 +2665,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="86">
   <si>
     <t>STT</t>
   </si>
@@ -267,6 +267,15 @@
   </si>
   <si>
     <t>Tiny Tiny</t>
+  </si>
+  <si>
+    <t>Nguyễn Đăng Phước</t>
+  </si>
+  <si>
+    <t>0981434879</t>
+  </si>
+  <si>
+    <t>Gọi lại Khóa Tháng 7</t>
   </si>
 </sst>
 </file>
@@ -585,40 +594,40 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,86 +974,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="46" t="s">
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="46" t="s">
+      <c r="V1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="46" t="s">
+      <c r="W1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="46" t="s">
+      <c r="X1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="46" t="s">
+      <c r="Y1" s="43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1066,11 +1075,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1798,14 +1807,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1818,6 +1819,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1829,8 +1838,8 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L13" sqref="L13"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,7 +1874,7 @@
       <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="49" t="s">
@@ -1883,7 +1892,7 @@
       <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="53" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="49" t="s">
@@ -1924,13 +1933,13 @@
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
-      <c r="E2" s="54"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
-      <c r="K2" s="52"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
       <c r="N2" s="1" t="s">
@@ -2542,18 +2551,34 @@
       <c r="A15" s="35">
         <v>13</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="39" t="s">
+        <v>83</v>
+      </c>
       <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="33"/>
+      <c r="D15" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="24"/>
+      <c r="I15" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="26">
+        <v>43223</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -2652,12 +2677,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -2665,6 +2684,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -594,23 +594,23 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,16 +618,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -974,86 +974,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="46" t="s">
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="43" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="Y1" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1075,11 +1075,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1807,6 +1807,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1819,14 +1827,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1839,7 +1839,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H15" sqref="H15"/>
+      <selection pane="topRight" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,7 +1874,7 @@
       <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="49" t="s">
@@ -1892,7 +1892,7 @@
       <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="51" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="49" t="s">
@@ -1933,13 +1933,13 @@
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
-      <c r="E2" s="52"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
-      <c r="K2" s="54"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
       <c r="N2" s="1" t="s">
@@ -2364,18 +2364,42 @@
         <v>28</v>
       </c>
       <c r="M10" s="38"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
+      <c r="N10" s="25">
+        <v>1</v>
+      </c>
+      <c r="O10" s="25">
+        <v>6</v>
+      </c>
+      <c r="P10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>2</v>
+      </c>
+      <c r="R10" s="25">
+        <v>6</v>
+      </c>
+      <c r="S10" s="25">
+        <v>0</v>
+      </c>
+      <c r="T10" s="25">
+        <v>9</v>
+      </c>
+      <c r="U10" s="25">
+        <v>9</v>
+      </c>
+      <c r="V10" s="25">
+        <v>15</v>
+      </c>
+      <c r="W10" s="25">
+        <v>20</v>
+      </c>
+      <c r="X10" s="25">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="25">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
@@ -2677,6 +2701,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -2684,12 +2714,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="95">
   <si>
     <t>STT</t>
   </si>
@@ -276,6 +276,34 @@
   </si>
   <si>
     <t>Gọi lại Khóa Tháng 7</t>
+  </si>
+  <si>
+    <t>Ngày test 
+đầu vào</t>
+  </si>
+  <si>
+    <t>26/04/2018</t>
+  </si>
+  <si>
+    <t>Nguyễn Chí Tài</t>
+  </si>
+  <si>
+    <t>Lê Lâm</t>
+  </si>
+  <si>
+    <t>01263636567</t>
+  </si>
+  <si>
+    <t>Pre-Toeic</t>
+  </si>
+  <si>
+    <t>ĐHKH</t>
+  </si>
+  <si>
+    <t>23/04/2018</t>
+  </si>
+  <si>
+    <t>01208130055</t>
   </si>
 </sst>
 </file>
@@ -480,7 +508,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -594,41 +622,44 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -974,86 +1005,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="46" t="s">
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="46" t="s">
+      <c r="V1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="46" t="s">
+      <c r="W1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="46" t="s">
+      <c r="X1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="46" t="s">
+      <c r="Y1" s="43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1075,11 +1106,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1807,14 +1838,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1827,6 +1850,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1835,11 +1866,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U12" sqref="U12"/>
+      <selection pane="topRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,12 +1887,13 @@
     <col min="11" max="11" width="17.7109375" style="29" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" customWidth="1"/>
     <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="22" style="29" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -1874,7 +1906,7 @@
       <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="49" t="s">
@@ -1892,7 +1924,7 @@
       <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="53" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="49" t="s">
@@ -1901,75 +1933,79 @@
       <c r="M1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="40"/>
       <c r="P1" s="40"/>
       <c r="Q1" s="40"/>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="40"/>
+      <c r="S1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="41"/>
       <c r="T1" s="41"/>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="41"/>
+      <c r="V1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="W1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="X1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="42" t="s">
+      <c r="Y1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="42" t="s">
+      <c r="Z1" s="42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50"/>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
-      <c r="E2" s="54"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
-      <c r="K2" s="52"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="42"/>
       <c r="V2" s="42"/>
       <c r="W2" s="42"/>
       <c r="X2" s="42"/>
       <c r="Y2" s="42"/>
-    </row>
-    <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z2" s="42"/>
+    </row>
+    <row r="3" spans="1:26" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1999,21 +2035,23 @@
         <v>58</v>
       </c>
       <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="30"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="22"/>
       <c r="V3" s="30"/>
       <c r="W3" s="30"/>
       <c r="X3" s="30"/>
       <c r="Y3" s="30"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3" s="30"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
+        <f>1+A3</f>
         <v>2</v>
       </c>
       <c r="B4" s="28" t="s">
@@ -2054,9 +2092,11 @@
       <c r="W4" s="25"/>
       <c r="X4" s="25"/>
       <c r="Y4" s="25"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="Z4" s="25"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <f t="shared" ref="A5:A20" si="0">1+A4</f>
         <v>3</v>
       </c>
       <c r="B5" s="28" t="s">
@@ -2099,9 +2139,11 @@
       <c r="W5" s="25"/>
       <c r="X5" s="25"/>
       <c r="Y5" s="25"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5" s="25"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -2144,9 +2186,11 @@
       <c r="W6" s="25"/>
       <c r="X6" s="25"/>
       <c r="Y6" s="25"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="Z6" s="25"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="28" t="s">
@@ -2189,9 +2233,11 @@
       <c r="W7" s="25"/>
       <c r="X7" s="25"/>
       <c r="Y7" s="25"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z7" s="25"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="28" t="s">
@@ -2220,244 +2266,228 @@
         <v>58</v>
       </c>
       <c r="M8" s="24"/>
-      <c r="N8" s="25">
-        <v>2</v>
-      </c>
-      <c r="O8" s="25">
-        <v>8</v>
-      </c>
-      <c r="P8" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>4</v>
-      </c>
-      <c r="R8" s="25">
-        <v>14</v>
-      </c>
-      <c r="S8" s="25">
-        <v>2</v>
-      </c>
-      <c r="T8" s="25">
-        <v>1</v>
-      </c>
-      <c r="U8" s="25">
-        <f>SUM(N8:Q8)</f>
-        <v>14</v>
-      </c>
-      <c r="V8" s="25">
-        <f>SUM(R8:T8)</f>
-        <v>17</v>
-      </c>
-      <c r="W8" s="25">
-        <v>45</v>
-      </c>
-      <c r="X8" s="25">
-        <v>15</v>
-      </c>
-      <c r="Y8" s="25">
-        <f>W8+X8</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>7</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="25" t="s">
         <v>76</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>44</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="H9" s="25"/>
       <c r="I9" s="25" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="J9" s="25" t="s">
         <v>64</v>
       </c>
       <c r="K9" s="26">
-        <v>43211</v>
+        <v>43210</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="M9" s="24"/>
-      <c r="N9" s="25">
-        <v>4</v>
+      <c r="N9" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="O9" s="25">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P9" s="25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="25">
         <v>8</v>
       </c>
       <c r="R9" s="25">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="S9" s="25">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T9" s="25">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="U9" s="25">
-        <f>SUM(N9:Q9)</f>
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="V9" s="25">
-        <f>SUM(R9:T9)</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W9" s="25">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="X9" s="25">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="Y9" s="25">
-        <f>W9+X9</f>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
+        <v>50</v>
+      </c>
+      <c r="Z9" s="25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="25"/>
+        <v>76</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="31" t="s">
+        <v>91</v>
+      </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>64</v>
       </c>
       <c r="K10" s="26">
-        <v>43213</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="25">
-        <v>1</v>
+        <v>43210</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="O10" s="25">
+        <v>0</v>
+      </c>
+      <c r="P10" s="25">
         <v>6</v>
       </c>
-      <c r="P10" s="25">
-        <v>0</v>
-      </c>
       <c r="Q10" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R10" s="25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S10" s="25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T10" s="25">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U10" s="25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V10" s="25">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W10" s="25">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="X10" s="25">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="Y10" s="25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
-        <v>9</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>78</v>
+        <v>70</v>
+      </c>
+      <c r="Z10" s="25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <f>1+A8</f>
+        <v>7</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>74</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+        <v>76</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I11" s="25" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>64</v>
       </c>
       <c r="K11" s="26">
-        <v>43217</v>
-      </c>
-      <c r="L11" s="35" t="s">
+        <v>43211</v>
+      </c>
+      <c r="L11" s="14" t="s">
         <v>60</v>
       </c>
       <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
-        <v>10</v>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -2468,39 +2498,67 @@
         <v>64</v>
       </c>
       <c r="K12" s="26">
-        <v>43219</v>
+        <v>43213</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
-        <v>11</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>81</v>
+      <c r="M12" s="38"/>
+      <c r="N12" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" s="25">
+        <v>1</v>
+      </c>
+      <c r="P12" s="25">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>0</v>
+      </c>
+      <c r="R12" s="25">
+        <v>2</v>
+      </c>
+      <c r="S12" s="25">
+        <v>6</v>
+      </c>
+      <c r="T12" s="25">
+        <v>0</v>
+      </c>
+      <c r="U12" s="25">
+        <v>9</v>
+      </c>
+      <c r="V12" s="25">
+        <v>9</v>
+      </c>
+      <c r="W12" s="25">
+        <v>15</v>
+      </c>
+      <c r="X12" s="25">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="25">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>78</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="33"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -2511,13 +2569,13 @@
         <v>64</v>
       </c>
       <c r="K13" s="26">
-        <v>43220</v>
+        <v>43217</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
+      <c r="N13" s="25"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -2529,19 +2587,23 @@
       <c r="W13" s="24"/>
       <c r="X13" s="24"/>
       <c r="Y13" s="24"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="35">
-        <v>12</v>
+      <c r="Z13" s="24"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
+      <c r="D14" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="E14" s="33"/>
       <c r="F14" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -2552,13 +2614,13 @@
         <v>64</v>
       </c>
       <c r="K14" s="26">
-        <v>43222</v>
+        <v>43219</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="24"/>
@@ -2570,40 +2632,40 @@
       <c r="W14" s="24"/>
       <c r="X14" s="24"/>
       <c r="Y14" s="24"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
-        <v>13</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>83</v>
+      <c r="Z14" s="24"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>64</v>
       </c>
       <c r="K15" s="26">
-        <v>43223</v>
+        <v>43220</v>
       </c>
       <c r="L15" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="25"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
@@ -2615,24 +2677,38 @@
       <c r="W15" s="24"/>
       <c r="X15" s="24"/>
       <c r="Y15" s="24"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
-        <v>14</v>
-      </c>
-      <c r="B16" s="39"/>
+      <c r="Z15" s="24"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
       <c r="E16" s="33"/>
-      <c r="F16" s="24"/>
+      <c r="F16" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="35"/>
+      <c r="I16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="26">
+        <v>43222</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>60</v>
+      </c>
       <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
@@ -2644,22 +2720,42 @@
       <c r="W16" s="24"/>
       <c r="X16" s="24"/>
       <c r="Y16" s="24"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="39"/>
+      <c r="Z16" s="24"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>83</v>
+      </c>
       <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="33"/>
+      <c r="D17" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
+      <c r="I17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="26">
+        <v>43223</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" s="25"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
@@ -2671,10 +2767,14 @@
       <c r="W17" s="24"/>
       <c r="X17" s="24"/>
       <c r="Y17" s="24"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+      <c r="Z17" s="24"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="39"/>
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
       <c r="E18" s="33"/>
@@ -2683,10 +2783,10 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="24"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="35"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
+      <c r="N18" s="25"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
@@ -2698,15 +2798,73 @@
       <c r="W18" s="24"/>
       <c r="X18" s="24"/>
       <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+  <mergeCells count="14">
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -2714,6 +2872,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="96">
   <si>
     <t>STT</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>01208130055</t>
+  </si>
+  <si>
+    <t>Nguyễn Quỳnh Anh Phương</t>
   </si>
 </sst>
 </file>
@@ -622,28 +625,37 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -651,15 +663,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1005,86 +1008,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="46" t="s">
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="43" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="Y1" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1106,11 +1109,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1838,6 +1841,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1850,14 +1861,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1870,12 +1873,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F12" sqref="F12"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="29" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" style="34" customWidth="1"/>
@@ -1894,46 +1898,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="N1" s="49" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="40" t="s">
@@ -1968,13 +1972,13 @@
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
-      <c r="E2" s="52"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
-      <c r="K2" s="54"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
       <c r="N2" s="50"/>
@@ -2774,17 +2778,31 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="39" t="s">
+        <v>95</v>
+      </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
+      <c r="D18" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E18" s="33"/>
-      <c r="F18" s="24"/>
+      <c r="F18" s="24" t="s">
+        <v>95</v>
+      </c>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="35"/>
+      <c r="I18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="26">
+        <v>43236</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>28</v>
+      </c>
       <c r="M18" s="24"/>
       <c r="N18" s="25"/>
       <c r="O18" s="24"/>
@@ -2864,6 +2882,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -2872,12 +2896,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -307,6 +307,18 @@
   </si>
   <si>
     <t>Nguyễn Quỳnh Anh Phương</t>
+  </si>
+  <si>
+    <t>Hà Trương Khả Tú</t>
+  </si>
+  <si>
+    <t>0906552514</t>
+  </si>
+  <si>
+    <t>Khả Tú</t>
+  </si>
+  <si>
+    <t>Gọi lại Khóa sau</t>
   </si>
 </sst>
 </file>
@@ -620,48 +632,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1008,86 +1024,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="46" t="s">
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="46" t="s">
+      <c r="V1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="46" t="s">
+      <c r="W1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="46" t="s">
+      <c r="X1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="46" t="s">
+      <c r="Y1" s="43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1109,11 +1125,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1841,14 +1857,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1861,6 +1869,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1873,7 +1889,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,78 +1908,80 @@
     <col min="12" max="12" width="17.28515625" customWidth="1"/>
     <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" style="29" customWidth="1"/>
-    <col min="22" max="22" width="17.7109375" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" customWidth="1"/>
+    <col min="15" max="21" width="9.140625" style="29"/>
+    <col min="22" max="22" width="17.7109375" style="29" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" style="29" customWidth="1"/>
+    <col min="24" max="25" width="9.140625" style="29"/>
+    <col min="26" max="26" width="13.140625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="41" t="s">
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="42" t="s">
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="42" t="s">
+      <c r="X1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="42" t="s">
+      <c r="Y1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="42" t="s">
+      <c r="Z1" s="40" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1972,13 +1990,13 @@
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
-      <c r="E2" s="55"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
-      <c r="K2" s="53"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
       <c r="N2" s="50"/>
@@ -2003,11 +2021,11 @@
       <c r="U2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
     </row>
     <row r="3" spans="1:26" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2580,18 +2598,18 @@
       </c>
       <c r="M13" s="24"/>
       <c r="N13" s="25"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
@@ -2625,18 +2643,18 @@
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="25"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
@@ -2670,18 +2688,18 @@
       </c>
       <c r="M15" s="24"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
@@ -2713,18 +2731,18 @@
       </c>
       <c r="M16" s="24"/>
       <c r="N16" s="25"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
@@ -2760,18 +2778,18 @@
         <v>85</v>
       </c>
       <c r="N17" s="25"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
@@ -2805,49 +2823,91 @@
       </c>
       <c r="M18" s="24"/>
       <c r="N18" s="25"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="39" t="s">
+        <v>96</v>
+      </c>
       <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="24"/>
+      <c r="D19" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="24"/>
+      <c r="I19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="26">
+        <v>43238</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>99</v>
+      </c>
       <c r="N19" s="25"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
+      <c r="O19" s="25">
+        <v>2</v>
+      </c>
+      <c r="P19" s="25">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="25">
+        <v>9</v>
+      </c>
+      <c r="R19" s="25">
+        <v>8</v>
+      </c>
+      <c r="S19" s="25">
+        <v>14</v>
+      </c>
+      <c r="T19" s="25">
+        <v>3</v>
+      </c>
+      <c r="U19" s="25">
+        <v>9</v>
+      </c>
+      <c r="V19" s="25">
+        <v>28</v>
+      </c>
+      <c r="W19" s="25">
+        <v>26</v>
+      </c>
+      <c r="X19" s="25">
+        <v>120</v>
+      </c>
+      <c r="Y19" s="25">
+        <v>65</v>
+      </c>
+      <c r="Z19" s="25">
+        <v>185</v>
+      </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
@@ -2867,27 +2927,21 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
       <c r="N20" s="25"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -2896,6 +2950,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="102">
   <si>
     <t>STT</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>Gọi lại Khóa sau</t>
+  </si>
+  <si>
+    <t>Phan Hoàng Kiều Oanh</t>
+  </si>
+  <si>
+    <t>01263644544</t>
   </si>
 </sst>
 </file>
@@ -523,7 +529,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -641,28 +647,37 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -671,14 +686,24 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1024,86 +1049,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="46" t="s">
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="43" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="Y1" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1125,11 +1150,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1857,6 +1882,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1869,14 +1902,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1885,11 +1910,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA20" sqref="AA20"/>
+      <selection pane="topRight" activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,46 +1941,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="49" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -1990,13 +2015,13 @@
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
-      <c r="E2" s="52"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
-      <c r="K2" s="55"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
       <c r="N2" s="50"/>
@@ -2837,111 +2862,181 @@
       <c r="Z18" s="25"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="56">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25" t="s">
+      <c r="C19" s="58"/>
+      <c r="D19" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25" t="s">
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="61">
         <v>43238</v>
       </c>
-      <c r="L19" s="35" t="s">
+      <c r="L19" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="24" t="s">
+      <c r="M19" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25">
+      <c r="N19" s="59"/>
+      <c r="O19" s="59">
         <v>2</v>
       </c>
-      <c r="P19" s="25">
+      <c r="P19" s="59">
         <v>9</v>
       </c>
-      <c r="Q19" s="25">
+      <c r="Q19" s="59">
         <v>9</v>
       </c>
-      <c r="R19" s="25">
+      <c r="R19" s="59">
         <v>8</v>
       </c>
-      <c r="S19" s="25">
+      <c r="S19" s="59">
         <v>14</v>
       </c>
-      <c r="T19" s="25">
+      <c r="T19" s="59">
         <v>3</v>
       </c>
-      <c r="U19" s="25">
+      <c r="U19" s="59">
         <v>9</v>
       </c>
-      <c r="V19" s="25">
+      <c r="V19" s="59">
         <v>28</v>
       </c>
-      <c r="W19" s="25">
+      <c r="W19" s="59">
         <v>26</v>
       </c>
-      <c r="X19" s="25">
+      <c r="X19" s="59">
         <v>120</v>
       </c>
-      <c r="Y19" s="25">
+      <c r="Y19" s="59">
         <v>65</v>
       </c>
-      <c r="Z19" s="25">
+      <c r="Z19" s="59">
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="24"/>
+      <c r="B20" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
+      <c r="I20" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="26">
+        <v>43245</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="58" t="s">
+        <v>99</v>
+      </c>
       <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
+      <c r="O20" s="25">
+        <v>5</v>
+      </c>
+      <c r="P20" s="25">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>15</v>
+      </c>
+      <c r="R20" s="25">
+        <v>10</v>
+      </c>
+      <c r="S20" s="25">
+        <v>20</v>
+      </c>
+      <c r="T20" s="25">
+        <v>4</v>
+      </c>
+      <c r="U20" s="25">
+        <v>24</v>
+      </c>
+      <c r="V20" s="25">
+        <v>39</v>
+      </c>
+      <c r="W20" s="25">
+        <v>48</v>
+      </c>
+      <c r="X20" s="25">
+        <v>180</v>
+      </c>
+      <c r="Y20" s="25">
+        <v>200</v>
+      </c>
+      <c r="Z20" s="25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="33"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -2950,12 +3045,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="106">
   <si>
     <t>STT</t>
   </si>
@@ -325,6 +325,18 @@
   </si>
   <si>
     <t>01263644544</t>
+  </si>
+  <si>
+    <t>Võ Thanh Quang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Hùng</t>
+  </si>
+  <si>
+    <t>0943765450</t>
+  </si>
+  <si>
+    <t>0916663859</t>
   </si>
 </sst>
 </file>
@@ -647,63 +659,63 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1049,86 +1061,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="46" t="s">
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="46" t="s">
+      <c r="V1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="46" t="s">
+      <c r="W1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="46" t="s">
+      <c r="X1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="46" t="s">
+      <c r="Y1" s="50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1150,11 +1162,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1882,14 +1894,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1902,6 +1906,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1910,11 +1922,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U18" sqref="U18"/>
+      <selection pane="topRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,46 +1953,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="60" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2011,20 +2023,20 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2862,75 +2874,75 @@
       <c r="Z18" s="25"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="56">
+      <c r="A19" s="43">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59" t="s">
+      <c r="C19" s="45"/>
+      <c r="D19" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59" t="s">
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="59" t="s">
+      <c r="J19" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="61">
+      <c r="K19" s="48">
         <v>43238</v>
       </c>
-      <c r="L19" s="62" t="s">
+      <c r="L19" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="58" t="s">
+      <c r="M19" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59">
+      <c r="N19" s="46"/>
+      <c r="O19" s="46">
         <v>2</v>
       </c>
-      <c r="P19" s="59">
+      <c r="P19" s="46">
         <v>9</v>
       </c>
-      <c r="Q19" s="59">
+      <c r="Q19" s="46">
         <v>9</v>
       </c>
-      <c r="R19" s="59">
+      <c r="R19" s="46">
         <v>8</v>
       </c>
-      <c r="S19" s="59">
+      <c r="S19" s="46">
         <v>14</v>
       </c>
-      <c r="T19" s="59">
+      <c r="T19" s="46">
         <v>3</v>
       </c>
-      <c r="U19" s="59">
+      <c r="U19" s="46">
         <v>9</v>
       </c>
-      <c r="V19" s="59">
+      <c r="V19" s="46">
         <v>28</v>
       </c>
-      <c r="W19" s="59">
+      <c r="W19" s="46">
         <v>26</v>
       </c>
-      <c r="X19" s="59">
+      <c r="X19" s="46">
         <v>120</v>
       </c>
-      <c r="Y19" s="59">
+      <c r="Y19" s="46">
         <v>65</v>
       </c>
-      <c r="Z19" s="59">
+      <c r="Z19" s="46">
         <v>185</v>
       </c>
     </row>
@@ -2965,7 +2977,7 @@
       <c r="L20" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="M20" s="58" t="s">
+      <c r="M20" s="45" t="s">
         <v>99</v>
       </c>
       <c r="N20" s="25"/>
@@ -3007,14 +3019,33 @@
       </c>
     </row>
     <row r="21" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="33"/>
-      <c r="G21" s="25"/>
+      <c r="A21" s="14">
+        <v>17</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+      <c r="I21" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="26">
+        <v>43255</v>
+      </c>
+      <c r="L21" s="35"/>
+      <c r="M21" s="45"/>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
@@ -3029,14 +3060,73 @@
       <c r="Y21" s="25"/>
       <c r="Z21" s="25"/>
     </row>
+    <row r="22" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>18</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="26">
+        <v>43255</v>
+      </c>
+      <c r="L22" s="35"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+    </row>
+    <row r="23" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="33"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3045,6 +3135,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -337,6 +337,12 @@
   </si>
   <si>
     <t>0916663859</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Nhung</t>
+  </si>
+  <si>
+    <t>01683730816</t>
   </si>
 </sst>
 </file>
@@ -678,43 +684,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,86 +1067,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="53" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="50" t="s">
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="50" t="s">
+      <c r="V1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="50" t="s">
+      <c r="W1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="50" t="s">
+      <c r="X1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="50" t="s">
+      <c r="Y1" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1162,11 +1168,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1894,6 +1900,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1906,14 +1920,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1922,11 +1928,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F22" sqref="F22"/>
+      <selection pane="topRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,46 +1959,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="56" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2027,13 +2033,13 @@
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
-      <c r="E2" s="59"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="57"/>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
       <c r="J2" s="57"/>
-      <c r="K2" s="62"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="57"/>
       <c r="M2" s="57"/>
       <c r="N2" s="57"/>
@@ -3103,14 +3109,33 @@
       <c r="Z22" s="25"/>
     </row>
     <row r="23" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="33"/>
+      <c r="A23" s="14">
+        <v>19</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>107</v>
+      </c>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
+      <c r="I23" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="26">
+        <v>43263</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="45"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
@@ -3125,8 +3150,37 @@
       <c r="Y23" s="25"/>
       <c r="Z23" s="25"/>
     </row>
+    <row r="24" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="33"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3135,12 +3189,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="109">
   <si>
     <t>STT</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>01683730816</t>
+  </si>
+  <si>
+    <t>Đặng Quỳnh Như</t>
   </si>
 </sst>
 </file>
@@ -684,43 +687,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,86 +1070,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="55" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="53" t="s">
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="53" t="s">
+      <c r="V1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="53" t="s">
+      <c r="W1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="53" t="s">
+      <c r="X1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="53" t="s">
+      <c r="Y1" s="50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1168,11 +1171,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1900,14 +1903,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1920,6 +1915,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1928,11 +1931,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H23" sqref="H23"/>
+      <selection pane="topRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,46 +1962,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="60" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2033,13 +2036,13 @@
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
-      <c r="E2" s="62"/>
+      <c r="E2" s="59"/>
       <c r="F2" s="57"/>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
       <c r="J2" s="57"/>
-      <c r="K2" s="60"/>
+      <c r="K2" s="62"/>
       <c r="L2" s="57"/>
       <c r="M2" s="57"/>
       <c r="N2" s="57"/>
@@ -3050,7 +3053,9 @@
       <c r="K21" s="26">
         <v>43255</v>
       </c>
-      <c r="L21" s="35"/>
+      <c r="L21" s="35" t="s">
+        <v>60</v>
+      </c>
       <c r="M21" s="45"/>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
@@ -3092,7 +3097,9 @@
       <c r="K22" s="26">
         <v>43255</v>
       </c>
-      <c r="L22" s="35"/>
+      <c r="L22" s="35" t="s">
+        <v>60</v>
+      </c>
       <c r="M22" s="45"/>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
@@ -3151,14 +3158,34 @@
       <c r="Z23" s="25"/>
     </row>
     <row r="24" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="D24" s="25"/>
+      <c r="A24" s="14">
+        <v>20</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E24" s="33"/>
+      <c r="F24" s="24" t="s">
+        <v>108</v>
+      </c>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
+      <c r="I24" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="26">
+        <v>43264</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="45"/>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
@@ -3173,14 +3200,31 @@
       <c r="Y24" s="25"/>
       <c r="Z24" s="25"/>
     </row>
+    <row r="25" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="33"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3189,6 +3233,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC tháng 3" sheetId="2" r:id="rId1"/>
     <sheet name="TOEIC tháng 5" sheetId="3" r:id="rId2"/>
+    <sheet name="TOEIC tháng 7" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TOEIC tháng 3'!$A$1:$Y$3</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="114">
   <si>
     <t>STT</t>
   </si>
@@ -346,6 +347,21 @@
   </si>
   <si>
     <t>Đặng Quỳnh Như</t>
+  </si>
+  <si>
+    <t>Lê Phước Khánh Phương</t>
+  </si>
+  <si>
+    <t>Toeic B</t>
+  </si>
+  <si>
+    <t>TOEIC Tháng 7</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Nhật Nam</t>
+  </si>
+  <si>
+    <t>Bạn của Khanh</t>
   </si>
 </sst>
 </file>
@@ -550,7 +566,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -690,40 +706,49 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1070,86 +1095,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="53" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="53" t="s">
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="50" t="s">
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="50" t="s">
+      <c r="V1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="50" t="s">
+      <c r="W1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="50" t="s">
+      <c r="X1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="50" t="s">
+      <c r="Y1" s="56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="54"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
       <c r="K2" s="55"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1171,11 +1196,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1903,6 +1928,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1915,14 +1948,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1931,11 +1956,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M21" sqref="M21"/>
+      <selection pane="topRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,46 +1987,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="59" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2032,20 +2057,20 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2900,8 +2925,12 @@
       <c r="F19" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
+      <c r="G19" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>44</v>
+      </c>
       <c r="I19" s="46" t="s">
         <v>27</v>
       </c>
@@ -3028,35 +3057,14 @@
       </c>
     </row>
     <row r="21" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>17</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>39</v>
-      </c>
+      <c r="A21" s="14"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="33"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" s="26">
-        <v>43255</v>
-      </c>
-      <c r="L21" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21" s="45"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
@@ -3071,160 +3079,14 @@
       <c r="Y21" s="25"/>
       <c r="Z21" s="25"/>
     </row>
-    <row r="22" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
-        <v>18</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" s="26">
-        <v>43255</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="M22" s="45"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-    </row>
-    <row r="23" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
-        <v>19</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23" s="26">
-        <v>43263</v>
-      </c>
-      <c r="L23" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="M23" s="45"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-    </row>
-    <row r="24" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
-        <v>20</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24" s="26">
-        <v>43264</v>
-      </c>
-      <c r="L24" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="M24" s="45"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-    </row>
-    <row r="25" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="33"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3233,12 +3095,619 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="29" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="29" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" style="29" customWidth="1"/>
+    <col min="15" max="21" width="9.140625" style="29"/>
+    <col min="22" max="22" width="17.7109375" style="29" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" style="29" customWidth="1"/>
+    <col min="24" max="25" width="9.140625" style="29"/>
+    <col min="26" max="26" width="13.140625" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+    </row>
+    <row r="3" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="26">
+        <v>43255</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+    </row>
+    <row r="4" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <f>1+A3</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="26">
+        <v>43255</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+    </row>
+    <row r="5" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <f t="shared" ref="A5:A15" si="0">1+A4</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="26">
+        <v>43263</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+    </row>
+    <row r="6" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="26">
+        <v>43264</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+    </row>
+    <row r="7" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="26">
+        <v>43269</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+    </row>
+    <row r="8" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="26">
+        <v>43270</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+    </row>
+    <row r="9" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="33"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+    </row>
+    <row r="10" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="33"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+    </row>
+    <row r="11" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="33"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+    </row>
+    <row r="12" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="33"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+    </row>
+    <row r="13" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="33"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+    </row>
+    <row r="14" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="33"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+    </row>
+    <row r="15" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="33"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="120">
   <si>
     <t>STT</t>
   </si>
@@ -362,6 +362,24 @@
   </si>
   <si>
     <t>Bạn của Khanh</t>
+  </si>
+  <si>
+    <t>Đông Trúc</t>
+  </si>
+  <si>
+    <t>01658620129</t>
+  </si>
+  <si>
+    <t>Uyên</t>
+  </si>
+  <si>
+    <t>Uyen Hoang</t>
+  </si>
+  <si>
+    <t>Mỹ Dung</t>
+  </si>
+  <si>
+    <t>Nam Phương</t>
   </si>
 </sst>
 </file>
@@ -712,43 +730,43 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,86 +1113,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="58" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="56" t="s">
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="56" t="s">
+      <c r="V1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="56" t="s">
+      <c r="W1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="56" t="s">
+      <c r="X1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="56" t="s">
+      <c r="Y1" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,11 +1214,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1928,14 +1946,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1948,6 +1958,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1959,8 +1977,8 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B27" sqref="B27"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1987,46 +2005,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="63" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2061,13 +2079,13 @@
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
-      <c r="E2" s="65"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="60"/>
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="60"/>
       <c r="J2" s="60"/>
-      <c r="K2" s="63"/>
+      <c r="K2" s="65"/>
       <c r="L2" s="60"/>
       <c r="M2" s="60"/>
       <c r="N2" s="60"/>
@@ -3001,8 +3019,12 @@
       <c r="F20" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="G20" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I20" s="25" t="s">
         <v>42</v>
       </c>
@@ -3081,12 +3103,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3095,6 +3111,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3105,8 +3127,8 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L10" sqref="L10"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3133,46 +3155,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="63" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="51" t="s">
@@ -3207,13 +3229,13 @@
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
-      <c r="E2" s="65"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="60"/>
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="60"/>
       <c r="J2" s="60"/>
-      <c r="K2" s="63"/>
+      <c r="K2" s="65"/>
       <c r="L2" s="60"/>
       <c r="M2" s="60"/>
       <c r="N2" s="60"/>
@@ -3508,14 +3530,30 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="33"/>
+      <c r="B9" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="26">
+        <v>43270</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
@@ -3535,14 +3573,30 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="B10" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E10" s="33"/>
+      <c r="F10" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="I10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="26">
+        <v>43270</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
@@ -3562,14 +3616,30 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="B11" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E11" s="33"/>
+      <c r="F11" s="24" t="s">
+        <v>119</v>
+      </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="I11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="26">
+        <v>43270</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
@@ -3589,14 +3659,33 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="33"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="B12" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="26">
+        <v>43271</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
@@ -3694,6 +3783,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -3702,12 +3797,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="123">
   <si>
     <t>STT</t>
   </si>
@@ -380,6 +380,15 @@
   </si>
   <si>
     <t>Nam Phương</t>
+  </si>
+  <si>
+    <t>01658833371</t>
+  </si>
+  <si>
+    <t>Vũ Ngọc Hoàng</t>
+  </si>
+  <si>
+    <t>Hoàng Ngọc Vũ</t>
   </si>
 </sst>
 </file>
@@ -1977,7 +1986,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
@@ -3127,8 +3136,8 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L11" sqref="L11"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3496,7 +3505,9 @@
       <c r="D8" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="33" t="s">
+        <v>120</v>
+      </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25" t="s">
@@ -3705,14 +3716,30 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="B13" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="E13" s="33"/>
+      <c r="F13" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="I13" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="26">
+        <v>43271</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="145">
   <si>
     <t>STT</t>
   </si>
@@ -389,13 +389,79 @@
   </si>
   <si>
     <t>Hoàng Ngọc Vũ</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Trinh</t>
+  </si>
+  <si>
+    <t>Thanh</t>
+  </si>
+  <si>
+    <t>Thanh Lê</t>
+  </si>
+  <si>
+    <t>Tonni Lêan</t>
+  </si>
+  <si>
+    <t>Thỏ Pilly</t>
+  </si>
+  <si>
+    <t>Thỏ Pily</t>
+  </si>
+  <si>
+    <t>Thế Duy Anh</t>
+  </si>
+  <si>
+    <t>Hồ Tăng Nhật Kỳ</t>
+  </si>
+  <si>
+    <t>Ốc Sên</t>
+  </si>
+  <si>
+    <t>Mỹ Trang</t>
+  </si>
+  <si>
+    <t>Hữu</t>
+  </si>
+  <si>
+    <t>Hữu Nguyên</t>
+  </si>
+  <si>
+    <t>Hàng</t>
+  </si>
+  <si>
+    <t>Hàng DeMon</t>
+  </si>
+  <si>
+    <t>Đinh Thị Hoài Phương</t>
+  </si>
+  <si>
+    <t>Dinh Thi Hoai Phuong</t>
+  </si>
+  <si>
+    <t>Nguyễn Vân</t>
+  </si>
+  <si>
+    <t>Trần Khôi Nguyên</t>
+  </si>
+  <si>
+    <t>Ngô Nhật Minh</t>
+  </si>
+  <si>
+    <t>Thảo Nguyễn</t>
+  </si>
+  <si>
+    <t>Thuấn thiện</t>
+  </si>
+  <si>
+    <t>Thuấn Thiện</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +521,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D2129"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -530,7 +603,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -579,6 +652,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -593,7 +679,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -739,28 +825,37 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -769,15 +864,14 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1122,86 +1216,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="N1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="56" t="s">
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="53" t="s">
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="53" t="s">
+      <c r="V1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="53" t="s">
+      <c r="W1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="53" t="s">
+      <c r="X1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="53" t="s">
+      <c r="Y1" s="56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1223,11 +1317,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1955,6 +2049,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1967,14 +2069,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2014,46 +2108,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="59" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2088,13 +2182,13 @@
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
-      <c r="E2" s="62"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="60"/>
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="60"/>
       <c r="J2" s="60"/>
-      <c r="K2" s="65"/>
+      <c r="K2" s="63"/>
       <c r="L2" s="60"/>
       <c r="M2" s="60"/>
       <c r="N2" s="60"/>
@@ -3112,6 +3206,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3120,12 +3220,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3133,11 +3227,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H13" sqref="H13"/>
+      <selection pane="topRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3163,47 +3257,47 @@
     <col min="26" max="26" width="13.140625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="67" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="51" t="s">
@@ -3233,21 +3327,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
+    <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3275,7 +3369,7 @@
       <c r="Y2" s="50"/>
       <c r="Z2" s="50"/>
     </row>
-    <row r="3" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -3319,8 +3413,9 @@
       <c r="X3" s="25"/>
       <c r="Y3" s="25"/>
       <c r="Z3" s="25"/>
-    </row>
-    <row r="4" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA3" s="66"/>
+    </row>
+    <row r="4" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <f>1+A3</f>
         <v>2</v>
@@ -3365,10 +3460,11 @@
       <c r="X4" s="25"/>
       <c r="Y4" s="25"/>
       <c r="Z4" s="25"/>
-    </row>
-    <row r="5" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA4" s="66"/>
+    </row>
+    <row r="5" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <f t="shared" ref="A5:A15" si="0">1+A4</f>
+        <f t="shared" ref="A5:A31" si="0">1+A4</f>
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -3407,8 +3503,9 @@
       <c r="X5" s="25"/>
       <c r="Y5" s="25"/>
       <c r="Z5" s="25"/>
-    </row>
-    <row r="6" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA5" s="66"/>
+    </row>
+    <row r="6" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3450,8 +3547,9 @@
       <c r="X6" s="25"/>
       <c r="Y6" s="25"/>
       <c r="Z6" s="25"/>
-    </row>
-    <row r="7" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA6" s="66"/>
+    </row>
+    <row r="7" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3493,8 +3591,9 @@
       <c r="X7" s="25"/>
       <c r="Y7" s="25"/>
       <c r="Z7" s="25"/>
-    </row>
-    <row r="8" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA7" s="66"/>
+    </row>
+    <row r="8" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3535,8 +3634,9 @@
       <c r="X8" s="25"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
-    </row>
-    <row r="9" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA8" s="66"/>
+    </row>
+    <row r="9" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3578,8 +3678,9 @@
       <c r="X9" s="25"/>
       <c r="Y9" s="25"/>
       <c r="Z9" s="25"/>
-    </row>
-    <row r="10" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA9" s="66"/>
+    </row>
+    <row r="10" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3621,8 +3722,9 @@
       <c r="X10" s="25"/>
       <c r="Y10" s="25"/>
       <c r="Z10" s="25"/>
-    </row>
-    <row r="11" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA10" s="66"/>
+    </row>
+    <row r="11" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3664,8 +3766,9 @@
       <c r="X11" s="25"/>
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
-    </row>
-    <row r="12" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA11" s="66"/>
+    </row>
+    <row r="12" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3710,8 +3813,9 @@
       <c r="X12" s="25"/>
       <c r="Y12" s="25"/>
       <c r="Z12" s="25"/>
-    </row>
-    <row r="13" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA12" s="66"/>
+    </row>
+    <row r="13" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3753,20 +3857,37 @@
       <c r="X13" s="25"/>
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
-    </row>
-    <row r="14" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA13" s="66"/>
+    </row>
+    <row r="14" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="B14" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E14" s="33"/>
+      <c r="F14" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="I14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="26">
+        <v>43272</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
@@ -3780,20 +3901,35 @@
       <c r="X14" s="25"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
-    </row>
-    <row r="15" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA14" s="66"/>
+    </row>
+    <row r="15" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="B15" s="24" t="s">
+        <v>124</v>
+      </c>
       <c r="D15" s="25"/>
       <c r="E15" s="33"/>
+      <c r="F15" s="24" t="s">
+        <v>125</v>
+      </c>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="I15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="26">
+        <v>43273</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
@@ -3807,15 +3943,704 @@
       <c r="X15" s="25"/>
       <c r="Y15" s="25"/>
       <c r="Z15" s="25"/>
+      <c r="AA15" s="66"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="26">
+        <v>43274</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="26">
+        <v>43273</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="26">
+        <v>43274</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="24"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="26">
+        <v>43274</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" s="24"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="26">
+        <v>43274</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="26">
+        <v>43274</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="24"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="26">
+        <v>43274</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="24"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="26">
+        <v>43274</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="24"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="26">
+        <v>43274</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="24"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="26">
+        <v>43275</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="24"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="26">
+        <v>43275</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="24"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K27" s="26">
+        <v>43275</v>
+      </c>
+      <c r="L27" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="26">
+        <v>43276</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M28" s="24"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="26">
+        <v>43276</v>
+      </c>
+      <c r="L29" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -3824,7 +4649,14 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="158">
   <si>
     <t>STT</t>
   </si>
@@ -451,10 +451,49 @@
     <t>Thảo Nguyễn</t>
   </si>
   <si>
-    <t>Thuấn thiện</t>
-  </si>
-  <si>
-    <t>Thuấn Thiện</t>
+    <t>Thuần thiện</t>
+  </si>
+  <si>
+    <t>Thuần Thiện</t>
+  </si>
+  <si>
+    <t>Hoàng Trịnh Như</t>
+  </si>
+  <si>
+    <t>Khánh Hương</t>
+  </si>
+  <si>
+    <t>Xí Muội</t>
+  </si>
+  <si>
+    <t>Trung</t>
+  </si>
+  <si>
+    <t>Trung Trương</t>
+  </si>
+  <si>
+    <t>Nhật Linh</t>
+  </si>
+  <si>
+    <t>Hoài Thương</t>
+  </si>
+  <si>
+    <t>Trung hiếu</t>
+  </si>
+  <si>
+    <t>Trung Hiếu</t>
+  </si>
+  <si>
+    <t>Thùy Giang</t>
+  </si>
+  <si>
+    <t>Thuy Giang</t>
+  </si>
+  <si>
+    <t>Thủy Phương</t>
+  </si>
+  <si>
+    <t>Phương Thủy</t>
   </si>
 </sst>
 </file>
@@ -825,53 +864,53 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1216,56 +1255,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="58" t="s">
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
       <c r="U1" s="56" t="s">
         <v>15</v>
       </c>
@@ -1283,19 +1322,19 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2049,14 +2088,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2069,6 +2100,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2108,46 +2147,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="66" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2178,20 +2217,20 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="65"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3206,12 +3245,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3220,6 +3253,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3227,11 +3266,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I28" sqref="I28"/>
+      <selection pane="topRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3258,46 +3297,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="69" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="51" t="s">
@@ -3328,20 +3367,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3413,7 +3452,7 @@
       <c r="X3" s="25"/>
       <c r="Y3" s="25"/>
       <c r="Z3" s="25"/>
-      <c r="AA3" s="66"/>
+      <c r="AA3" s="53"/>
     </row>
     <row r="4" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
@@ -3460,7 +3499,7 @@
       <c r="X4" s="25"/>
       <c r="Y4" s="25"/>
       <c r="Z4" s="25"/>
-      <c r="AA4" s="66"/>
+      <c r="AA4" s="53"/>
     </row>
     <row r="5" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
@@ -3503,7 +3542,7 @@
       <c r="X5" s="25"/>
       <c r="Y5" s="25"/>
       <c r="Z5" s="25"/>
-      <c r="AA5" s="66"/>
+      <c r="AA5" s="53"/>
     </row>
     <row r="6" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
@@ -3547,7 +3586,7 @@
       <c r="X6" s="25"/>
       <c r="Y6" s="25"/>
       <c r="Z6" s="25"/>
-      <c r="AA6" s="66"/>
+      <c r="AA6" s="53"/>
     </row>
     <row r="7" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
@@ -3591,7 +3630,7 @@
       <c r="X7" s="25"/>
       <c r="Y7" s="25"/>
       <c r="Z7" s="25"/>
-      <c r="AA7" s="66"/>
+      <c r="AA7" s="53"/>
     </row>
     <row r="8" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
@@ -3634,7 +3673,7 @@
       <c r="X8" s="25"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
-      <c r="AA8" s="66"/>
+      <c r="AA8" s="53"/>
     </row>
     <row r="9" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
@@ -3678,7 +3717,7 @@
       <c r="X9" s="25"/>
       <c r="Y9" s="25"/>
       <c r="Z9" s="25"/>
-      <c r="AA9" s="66"/>
+      <c r="AA9" s="53"/>
     </row>
     <row r="10" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
@@ -3722,7 +3761,7 @@
       <c r="X10" s="25"/>
       <c r="Y10" s="25"/>
       <c r="Z10" s="25"/>
-      <c r="AA10" s="66"/>
+      <c r="AA10" s="53"/>
     </row>
     <row r="11" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -3766,7 +3805,7 @@
       <c r="X11" s="25"/>
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="66"/>
+      <c r="AA11" s="53"/>
     </row>
     <row r="12" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
@@ -3813,7 +3852,7 @@
       <c r="X12" s="25"/>
       <c r="Y12" s="25"/>
       <c r="Z12" s="25"/>
-      <c r="AA12" s="66"/>
+      <c r="AA12" s="53"/>
     </row>
     <row r="13" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
@@ -3857,7 +3896,7 @@
       <c r="X13" s="25"/>
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
-      <c r="AA13" s="66"/>
+      <c r="AA13" s="53"/>
     </row>
     <row r="14" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
@@ -3901,7 +3940,7 @@
       <c r="X14" s="25"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
-      <c r="AA14" s="66"/>
+      <c r="AA14" s="53"/>
     </row>
     <row r="15" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
@@ -3943,7 +3982,7 @@
       <c r="X15" s="25"/>
       <c r="Y15" s="25"/>
       <c r="Z15" s="25"/>
-      <c r="AA15" s="66"/>
+      <c r="AA15" s="53"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
@@ -3995,7 +4034,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="55" t="s">
         <v>127</v>
       </c>
       <c r="C17" s="24"/>
@@ -4003,7 +4042,7 @@
         <v>69</v>
       </c>
       <c r="E17" s="33"/>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="54" t="s">
         <v>128</v>
       </c>
       <c r="G17" s="25"/>
@@ -4093,7 +4132,7 @@
         <v>76</v>
       </c>
       <c r="E19" s="33"/>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="55" t="s">
         <v>130</v>
       </c>
       <c r="G19" s="25"/>
@@ -4578,18 +4617,28 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="24" t="s">
+        <v>145</v>
+      </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
+      <c r="D30" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E30" s="33"/>
-      <c r="F30" s="24"/>
+      <c r="F30" s="24" t="s">
+        <v>145</v>
+      </c>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
+      <c r="I30" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="J30" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="25"/>
+      <c r="K30" s="26">
+        <v>43276</v>
+      </c>
       <c r="L30" s="25"/>
       <c r="M30" s="24"/>
       <c r="N30" s="25"/>
@@ -4608,22 +4657,34 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
-        <f t="shared" si="0"/>
+        <f>1+A30</f>
         <v>29</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="24" t="s">
+        <v>146</v>
+      </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
+      <c r="D31" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E31" s="33"/>
-      <c r="F31" s="24"/>
+      <c r="F31" s="24" t="s">
+        <v>146</v>
+      </c>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="I31" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="J31" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
+      <c r="K31" s="26">
+        <v>43276</v>
+      </c>
+      <c r="L31" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M31" s="24"/>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
@@ -4639,8 +4700,707 @@
       <c r="Y31" s="25"/>
       <c r="Z31" s="25"/>
     </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <f t="shared" ref="A32:A50" si="1">1+A31</f>
+        <v>30</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K32" s="26">
+        <v>43276</v>
+      </c>
+      <c r="L32" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" s="24"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K33" s="26">
+        <v>43276</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="24"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="33"/>
+      <c r="F34" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K34" s="26">
+        <v>43277</v>
+      </c>
+      <c r="L34" s="25"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K35" s="26">
+        <v>43277</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M35" s="24"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" s="26">
+        <v>43277</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36" s="24"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="33"/>
+      <c r="F37" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K37" s="26">
+        <v>43277</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M37" s="24"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K38" s="26">
+        <v>43277</v>
+      </c>
+      <c r="L38" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M38" s="24"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K39" s="26">
+        <v>43277</v>
+      </c>
+      <c r="L39" s="25"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
+      <c r="Z50" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -4649,12 +5409,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="159">
   <si>
     <t>STT</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>Phương Thủy</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Ánh Hoài</t>
   </si>
 </sst>
 </file>
@@ -869,43 +872,43 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1255,86 +1258,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="59" t="s">
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="56" t="s">
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="56" t="s">
+      <c r="V1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="56" t="s">
+      <c r="W1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="56" t="s">
+      <c r="X1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="56" t="s">
+      <c r="Y1" s="59" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1356,11 +1359,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2088,6 +2091,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2100,14 +2111,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2147,46 +2150,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="62" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2221,13 +2224,13 @@
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
-      <c r="E2" s="65"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="63"/>
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="63"/>
       <c r="J2" s="63"/>
-      <c r="K2" s="68"/>
+      <c r="K2" s="66"/>
       <c r="L2" s="63"/>
       <c r="M2" s="63"/>
       <c r="N2" s="63"/>
@@ -3245,6 +3248,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3253,12 +3262,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3268,9 +3271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L30" sqref="L30"/>
+      <selection pane="topRight" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3297,43 +3300,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="56" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="69" t="s">
@@ -3367,20 +3370,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3503,7 +3506,7 @@
     </row>
     <row r="5" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <f t="shared" ref="A5:A31" si="0">1+A4</f>
+        <f t="shared" ref="A5:A30" si="0">1+A4</f>
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -5018,21 +5021,31 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
+      <c r="D39" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E39" s="33"/>
-      <c r="F39" s="24"/>
+      <c r="F39" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
+      <c r="I39" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="J39" s="25" t="s">
         <v>111</v>
       </c>
       <c r="K39" s="26">
-        <v>43277</v>
-      </c>
-      <c r="L39" s="25"/>
+        <v>43278</v>
+      </c>
+      <c r="L39" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M39" s="24"/>
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
@@ -5395,12 +5408,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -5409,6 +5416,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="177">
   <si>
     <t>STT</t>
   </si>
@@ -497,6 +497,60 @@
   </si>
   <si>
     <t>Hoàng Thị Ánh Hoài</t>
+  </si>
+  <si>
+    <t>Phương Dung</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Tài</t>
+  </si>
+  <si>
+    <t>Ngọc Tài Phạm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thương </t>
+  </si>
+  <si>
+    <t>Thương dth</t>
+  </si>
+  <si>
+    <t>Lê Anh quân</t>
+  </si>
+  <si>
+    <t>Quân Lê Anh</t>
+  </si>
+  <si>
+    <t>Nhật Phương</t>
+  </si>
+  <si>
+    <t>Suri Nhật Phương</t>
+  </si>
+  <si>
+    <t>Mộc Hy</t>
+  </si>
+  <si>
+    <t>Lệ Quỳnh</t>
+  </si>
+  <si>
+    <t>Bil Đỗ</t>
+  </si>
+  <si>
+    <t>Hồng Minh</t>
+  </si>
+  <si>
+    <t>(bạn Lệ Quỳnh)</t>
+  </si>
+  <si>
+    <t>Trực tiếp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh </t>
+  </si>
+  <si>
+    <t>Thanh Ho</t>
+  </si>
+  <si>
+    <t>6/30/218</t>
   </si>
 </sst>
 </file>
@@ -645,7 +699,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -707,6 +761,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -721,7 +786,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -872,48 +937,49 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1258,86 +1324,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="61" t="s">
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="59" t="s">
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="59" t="s">
+      <c r="V1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="59" t="s">
+      <c r="W1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="59" t="s">
+      <c r="X1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="59" t="s">
+      <c r="Y1" s="56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1359,11 +1425,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2091,14 +2157,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2111,6 +2169,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2150,46 +2216,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="N1" s="66" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2224,13 +2290,13 @@
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
-      <c r="E2" s="68"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="63"/>
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="63"/>
       <c r="J2" s="63"/>
-      <c r="K2" s="66"/>
+      <c r="K2" s="68"/>
       <c r="L2" s="63"/>
       <c r="M2" s="63"/>
       <c r="N2" s="63"/>
@@ -3248,12 +3314,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3262,6 +3322,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3271,9 +3337,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L39" sqref="L39"/>
+      <selection pane="topRight" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3300,43 +3366,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="69" t="s">
@@ -3370,20 +3436,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -5066,19 +5132,31 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="24"/>
+      <c r="B40" s="24" t="s">
+        <v>159</v>
+      </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
+      <c r="D40" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E40" s="33"/>
-      <c r="F40" s="24"/>
+      <c r="F40" s="24" t="s">
+        <v>159</v>
+      </c>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
+      <c r="I40" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="J40" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
+      <c r="K40" s="26">
+        <v>43279</v>
+      </c>
+      <c r="L40" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M40" s="24"/>
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
@@ -5099,19 +5177,29 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="24"/>
+      <c r="B41" s="24" t="s">
+        <v>160</v>
+      </c>
       <c r="C41" s="24"/>
       <c r="D41" s="25"/>
       <c r="E41" s="33"/>
-      <c r="F41" s="24"/>
+      <c r="F41" s="24" t="s">
+        <v>161</v>
+      </c>
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
+      <c r="I41" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="J41" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
+      <c r="K41" s="26">
+        <v>43280</v>
+      </c>
+      <c r="L41" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M41" s="24"/>
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
@@ -5132,17 +5220,31 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="24" t="s">
+        <v>162</v>
+      </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="25"/>
+      <c r="D42" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E42" s="33"/>
-      <c r="F42" s="24"/>
+      <c r="F42" s="24" t="s">
+        <v>163</v>
+      </c>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
+      <c r="I42" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K42" s="26">
+        <v>43280</v>
+      </c>
+      <c r="L42" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M42" s="24"/>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
@@ -5163,17 +5265,31 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="24"/>
+      <c r="B43" s="24" t="s">
+        <v>164</v>
+      </c>
       <c r="C43" s="24"/>
-      <c r="D43" s="25"/>
+      <c r="D43" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="E43" s="33"/>
-      <c r="F43" s="24"/>
+      <c r="F43" s="24" t="s">
+        <v>165</v>
+      </c>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
+      <c r="I43" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K43" s="26">
+        <v>43280</v>
+      </c>
+      <c r="L43" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M43" s="24"/>
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
@@ -5194,17 +5310,31 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="24"/>
+      <c r="B44" s="24" t="s">
+        <v>166</v>
+      </c>
       <c r="C44" s="24"/>
-      <c r="D44" s="25"/>
+      <c r="D44" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E44" s="33"/>
-      <c r="F44" s="24"/>
+      <c r="F44" s="24" t="s">
+        <v>167</v>
+      </c>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
+      <c r="I44" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K44" s="26">
+        <v>43280</v>
+      </c>
+      <c r="L44" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M44" s="24"/>
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
@@ -5225,16 +5355,26 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="24" t="s">
+        <v>168</v>
+      </c>
       <c r="C45" s="24"/>
       <c r="D45" s="25"/>
       <c r="E45" s="33"/>
-      <c r="F45" s="24"/>
+      <c r="F45" s="24" t="s">
+        <v>168</v>
+      </c>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
+      <c r="I45" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K45" s="26">
+        <v>43280</v>
+      </c>
       <c r="L45" s="25"/>
       <c r="M45" s="24"/>
       <c r="N45" s="25"/>
@@ -5256,16 +5396,32 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="24" t="s">
+        <v>169</v>
+      </c>
       <c r="C46" s="24"/>
-      <c r="D46" s="25"/>
+      <c r="D46" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E46" s="33"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
+      <c r="F46" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K46" s="26">
+        <v>43279</v>
+      </c>
       <c r="L46" s="25"/>
       <c r="M46" s="24"/>
       <c r="N46" s="25"/>
@@ -5287,16 +5443,32 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="24" t="s">
+        <v>171</v>
+      </c>
       <c r="C47" s="24"/>
-      <c r="D47" s="25"/>
+      <c r="D47" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E47" s="33"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
+      <c r="F47" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="J47" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K47" s="26">
+        <v>43281</v>
+      </c>
       <c r="L47" s="25"/>
       <c r="M47" s="24"/>
       <c r="N47" s="25"/>
@@ -5318,17 +5490,29 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="24" t="s">
+        <v>170</v>
+      </c>
       <c r="C48" s="24"/>
       <c r="D48" s="25"/>
       <c r="E48" s="33"/>
-      <c r="F48" s="24"/>
+      <c r="F48" s="24" t="s">
+        <v>170</v>
+      </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
+      <c r="I48" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K48" s="26">
+        <v>43281</v>
+      </c>
+      <c r="L48" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M48" s="24"/>
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
@@ -5349,17 +5533,29 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="24"/>
+      <c r="B49" s="24" t="s">
+        <v>174</v>
+      </c>
       <c r="C49" s="24"/>
       <c r="D49" s="25"/>
       <c r="E49" s="33"/>
-      <c r="F49" s="24"/>
+      <c r="F49" s="24" t="s">
+        <v>175</v>
+      </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
+      <c r="I49" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K49" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="L49" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M49" s="24"/>
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
@@ -5408,6 +5604,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -5416,12 +5618,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="179">
   <si>
     <t>STT</t>
   </si>
@@ -532,9 +532,6 @@
     <t>Lệ Quỳnh</t>
   </si>
   <si>
-    <t>Bil Đỗ</t>
-  </si>
-  <si>
     <t>Hồng Minh</t>
   </si>
   <si>
@@ -551,6 +548,15 @@
   </si>
   <si>
     <t>6/30/218</t>
+  </si>
+  <si>
+    <t>Đỗ Duy Hưng</t>
+  </si>
+  <si>
+    <t>Sương</t>
+  </si>
+  <si>
+    <t>Lê Sương</t>
   </si>
 </sst>
 </file>
@@ -937,28 +943,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -967,19 +983,9 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1336,7 +1342,7 @@
       <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="57" t="s">
@@ -1354,7 +1360,7 @@
       <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="57" t="s">
@@ -1363,30 +1369,30 @@
       <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="59" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="56" t="s">
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="56" t="s">
+      <c r="V1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="56" t="s">
+      <c r="W1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="56" t="s">
+      <c r="X1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="56" t="s">
+      <c r="Y1" s="60" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1395,13 +1401,13 @@
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
-      <c r="E2" s="60"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="57"/>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
       <c r="J2" s="57"/>
-      <c r="K2" s="61"/>
+      <c r="K2" s="59"/>
       <c r="L2" s="57"/>
       <c r="M2" s="57"/>
       <c r="N2" s="1" t="s">
@@ -1425,11 +1431,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2157,6 +2163,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2169,14 +2183,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2187,9 +2193,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V22" sqref="V22"/>
+      <selection pane="topRight" activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,46 +2222,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="63" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2286,20 +2292,20 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3314,6 +3320,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3322,12 +3334,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3337,9 +3343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A50" sqref="A50"/>
+      <selection pane="topRight" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3378,7 +3384,7 @@
       <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="57" t="s">
@@ -3396,7 +3402,7 @@
       <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="57" t="s">
@@ -3405,7 +3411,7 @@
       <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="69" t="s">
+      <c r="N1" s="70" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="51" t="s">
@@ -3440,13 +3446,13 @@
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
-      <c r="E2" s="60"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="57"/>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
       <c r="J2" s="57"/>
-      <c r="K2" s="61"/>
+      <c r="K2" s="59"/>
       <c r="L2" s="57"/>
       <c r="M2" s="57"/>
       <c r="N2" s="57"/>
@@ -3509,18 +3515,42 @@
         <v>60</v>
       </c>
       <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
+      <c r="O3" s="25">
+        <v>1</v>
+      </c>
+      <c r="P3" s="25">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="25">
+        <v>5</v>
+      </c>
+      <c r="R3" s="25">
+        <v>12</v>
+      </c>
+      <c r="S3" s="25">
+        <v>17</v>
+      </c>
+      <c r="T3" s="25">
+        <v>4</v>
+      </c>
+      <c r="U3" s="25">
+        <v>9</v>
+      </c>
+      <c r="V3" s="25">
+        <v>29</v>
+      </c>
+      <c r="W3" s="25">
+        <v>30</v>
+      </c>
+      <c r="X3" s="25">
+        <v>125</v>
+      </c>
+      <c r="Y3" s="25">
+        <v>90</v>
+      </c>
+      <c r="Z3" s="25">
+        <v>215</v>
+      </c>
       <c r="AA3" s="53"/>
     </row>
     <row r="4" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -3556,18 +3586,42 @@
         <v>60</v>
       </c>
       <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
+      <c r="O4" s="25">
+        <v>3</v>
+      </c>
+      <c r="P4" s="25">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>5</v>
+      </c>
+      <c r="R4" s="25">
+        <v>12</v>
+      </c>
+      <c r="S4" s="25">
+        <v>13</v>
+      </c>
+      <c r="T4" s="25">
+        <v>3</v>
+      </c>
+      <c r="U4" s="25">
+        <v>4</v>
+      </c>
+      <c r="V4" s="25">
+        <v>31</v>
+      </c>
+      <c r="W4" s="25">
+        <v>20</v>
+      </c>
+      <c r="X4" s="25">
+        <v>135</v>
+      </c>
+      <c r="Y4" s="25">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="25">
+        <v>165</v>
+      </c>
       <c r="AA4" s="53"/>
     </row>
     <row r="5" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -5444,15 +5498,15 @@
         <v>45</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C47" s="24"/>
       <c r="D47" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E47" s="33"/>
-      <c r="F47" s="70" t="s">
-        <v>172</v>
+      <c r="F47" s="56" t="s">
+        <v>171</v>
       </c>
       <c r="G47" s="25" t="s">
         <v>39</v>
@@ -5461,7 +5515,7 @@
         <v>44</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J47" s="25" t="s">
         <v>111</v>
@@ -5491,13 +5545,15 @@
         <v>46</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C48" s="24"/>
-      <c r="D48" s="25"/>
+      <c r="D48" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="E48" s="33"/>
       <c r="F48" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
@@ -5534,13 +5590,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C49" s="24"/>
       <c r="D49" s="25"/>
       <c r="E49" s="33"/>
       <c r="F49" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
@@ -5551,7 +5607,7 @@
         <v>111</v>
       </c>
       <c r="K49" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L49" s="25" t="s">
         <v>60</v>
@@ -5576,17 +5632,31 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="24"/>
+      <c r="B50" s="24" t="s">
+        <v>177</v>
+      </c>
       <c r="C50" s="24"/>
-      <c r="D50" s="25"/>
+      <c r="D50" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E50" s="33"/>
-      <c r="F50" s="24"/>
+      <c r="F50" s="24" t="s">
+        <v>178</v>
+      </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
+      <c r="I50" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K50" s="26">
+        <v>43281</v>
+      </c>
+      <c r="L50" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M50" s="24"/>
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
@@ -5604,12 +5674,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -5618,6 +5682,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="181">
   <si>
     <t>STT</t>
   </si>
@@ -557,6 +557,12 @@
   </si>
   <si>
     <t>Lê Sương</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Khánh Vân</t>
+  </si>
+  <si>
+    <t>01698589704</t>
   </si>
 </sst>
 </file>
@@ -944,43 +950,43 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1330,86 +1336,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="62" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="60" t="s">
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="60" t="s">
+      <c r="V1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="60" t="s">
+      <c r="W1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="60" t="s">
+      <c r="X1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="60" t="s">
+      <c r="Y1" s="57" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1431,11 +1437,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2163,14 +2169,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2183,6 +2181,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2195,7 +2201,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z21" sqref="Z21"/>
+      <selection pane="topRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2222,46 +2228,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="67" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2296,13 +2302,13 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="69"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="67"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
@@ -3067,7 +3073,9 @@
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="H17" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I17" s="25" t="s">
         <v>42</v>
       </c>
@@ -3320,12 +3328,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3334,6 +3336,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3343,9 +3351,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z4" sqref="Z4"/>
+      <selection pane="topRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3372,43 +3380,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="70" t="s">
@@ -3442,20 +3450,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,18 +4526,24 @@
         <v>23</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="33"/>
+      <c r="E25" s="33" t="s">
+        <v>180</v>
+      </c>
       <c r="F25" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="G25" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I25" s="25" t="s">
         <v>27</v>
       </c>
@@ -5674,6 +5688,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -5682,12 +5702,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -3351,9 +3351,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L25" sqref="L25"/>
+      <selection pane="topRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="189">
   <si>
     <t>STT</t>
   </si>
@@ -547,9 +547,6 @@
     <t>Thanh Ho</t>
   </si>
   <si>
-    <t>6/30/218</t>
-  </si>
-  <si>
     <t>Đỗ Duy Hưng</t>
   </si>
   <si>
@@ -563,6 +560,33 @@
   </si>
   <si>
     <t>01698589704</t>
+  </si>
+  <si>
+    <t>Hoàng Nhi</t>
+  </si>
+  <si>
+    <t>Minh Trang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hậu </t>
+  </si>
+  <si>
+    <t>Hoàng Nhii</t>
+  </si>
+  <si>
+    <t>Minhtrang Phan</t>
+  </si>
+  <si>
+    <t>Thành Đạt</t>
+  </si>
+  <si>
+    <t>Trần Thị Thanh Phương</t>
+  </si>
+  <si>
+    <t>Nhy</t>
+  </si>
+  <si>
+    <t>Lê Minh Hương</t>
   </si>
 </sst>
 </file>
@@ -711,7 +735,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -771,17 +795,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -935,6 +948,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -944,16 +962,16 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,16 +980,19 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -980,18 +1001,10 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1336,86 +1349,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60" t="s">
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="57" t="s">
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="57" t="s">
+      <c r="V1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="57" t="s">
+      <c r="W1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="57" t="s">
+      <c r="X1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="57" t="s">
+      <c r="Y1" s="59" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1437,11 +1450,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2169,6 +2182,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2181,14 +2202,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2228,46 +2241,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="62" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2298,20 +2311,20 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3328,6 +3341,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3336,12 +3355,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3349,11 +3362,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA50"/>
+  <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H25" sqref="H25"/>
+      <selection pane="topRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3380,90 +3393,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="70" t="s">
+      <c r="N1" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="52" t="s">
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="50" t="s">
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="50" t="s">
+      <c r="W1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="50" t="s">
+      <c r="X1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="50" t="s">
+      <c r="Y1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="50" t="s">
+      <c r="Z1" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3485,11 +3498,11 @@
       <c r="U2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
     </row>
     <row r="3" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
@@ -3513,9 +3526,7 @@
       <c r="I3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="25" t="s">
-        <v>64</v>
-      </c>
+      <c r="J3" s="25"/>
       <c r="K3" s="26">
         <v>43255</v>
       </c>
@@ -3559,7 +3570,7 @@
       <c r="Z3" s="25">
         <v>215</v>
       </c>
-      <c r="AA3" s="53"/>
+      <c r="AA3" s="50"/>
     </row>
     <row r="4" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
@@ -3584,9 +3595,7 @@
       <c r="I4" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="25" t="s">
-        <v>64</v>
-      </c>
+      <c r="J4" s="25"/>
       <c r="K4" s="26">
         <v>43255</v>
       </c>
@@ -3630,7 +3639,7 @@
       <c r="Z4" s="25">
         <v>165</v>
       </c>
-      <c r="AA4" s="53"/>
+      <c r="AA4" s="50"/>
     </row>
     <row r="5" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
@@ -3646,14 +3655,16 @@
       <c r="E5" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>64</v>
-      </c>
+      <c r="J5" s="25"/>
       <c r="K5" s="26">
         <v>43263</v>
       </c>
@@ -3673,7 +3684,7 @@
       <c r="X5" s="25"/>
       <c r="Y5" s="25"/>
       <c r="Z5" s="25"/>
-      <c r="AA5" s="53"/>
+      <c r="AA5" s="50"/>
     </row>
     <row r="6" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
@@ -3695,9 +3706,7 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="25" t="s">
-        <v>64</v>
-      </c>
+      <c r="J6" s="25"/>
       <c r="K6" s="26">
         <v>43264</v>
       </c>
@@ -3717,7 +3726,7 @@
       <c r="X6" s="25"/>
       <c r="Y6" s="25"/>
       <c r="Z6" s="25"/>
-      <c r="AA6" s="53"/>
+      <c r="AA6" s="50"/>
     </row>
     <row r="7" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
@@ -3761,7 +3770,7 @@
       <c r="X7" s="25"/>
       <c r="Y7" s="25"/>
       <c r="Z7" s="25"/>
-      <c r="AA7" s="53"/>
+      <c r="AA7" s="50"/>
     </row>
     <row r="8" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
@@ -3777,8 +3786,12 @@
       <c r="E8" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I8" s="25" t="s">
         <v>42</v>
       </c>
@@ -3804,7 +3817,7 @@
       <c r="X8" s="25"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
-      <c r="AA8" s="53"/>
+      <c r="AA8" s="50"/>
     </row>
     <row r="9" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
@@ -3848,7 +3861,7 @@
       <c r="X9" s="25"/>
       <c r="Y9" s="25"/>
       <c r="Z9" s="25"/>
-      <c r="AA9" s="53"/>
+      <c r="AA9" s="50"/>
     </row>
     <row r="10" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
@@ -3892,7 +3905,7 @@
       <c r="X10" s="25"/>
       <c r="Y10" s="25"/>
       <c r="Z10" s="25"/>
-      <c r="AA10" s="53"/>
+      <c r="AA10" s="50"/>
     </row>
     <row r="11" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -3936,7 +3949,7 @@
       <c r="X11" s="25"/>
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="53"/>
+      <c r="AA11" s="50"/>
     </row>
     <row r="12" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
@@ -3983,7 +3996,7 @@
       <c r="X12" s="25"/>
       <c r="Y12" s="25"/>
       <c r="Z12" s="25"/>
-      <c r="AA12" s="53"/>
+      <c r="AA12" s="50"/>
     </row>
     <row r="13" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
@@ -4027,7 +4040,7 @@
       <c r="X13" s="25"/>
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
-      <c r="AA13" s="53"/>
+      <c r="AA13" s="50"/>
     </row>
     <row r="14" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
@@ -4071,7 +4084,7 @@
       <c r="X14" s="25"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
-      <c r="AA14" s="53"/>
+      <c r="AA14" s="50"/>
     </row>
     <row r="15" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
@@ -4113,7 +4126,7 @@
       <c r="X15" s="25"/>
       <c r="Y15" s="25"/>
       <c r="Z15" s="25"/>
-      <c r="AA15" s="53"/>
+      <c r="AA15" s="50"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
@@ -4165,7 +4178,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="52" t="s">
         <v>127</v>
       </c>
       <c r="C17" s="24"/>
@@ -4173,7 +4186,7 @@
         <v>69</v>
       </c>
       <c r="E17" s="33"/>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="51" t="s">
         <v>128</v>
       </c>
       <c r="G17" s="25"/>
@@ -4263,7 +4276,7 @@
         <v>76</v>
       </c>
       <c r="E19" s="33"/>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="52" t="s">
         <v>130</v>
       </c>
       <c r="G19" s="25"/>
@@ -4526,14 +4539,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>139</v>
@@ -4839,7 +4852,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <f t="shared" ref="A32:A50" si="1">1+A31</f>
+        <f t="shared" ref="A32:A62" si="1">1+A31</f>
         <v>30</v>
       </c>
       <c r="B32" s="24" t="s">
@@ -5519,7 +5532,7 @@
         <v>69</v>
       </c>
       <c r="E47" s="33"/>
-      <c r="F47" s="56" t="s">
+      <c r="F47" s="70" t="s">
         <v>171</v>
       </c>
       <c r="G47" s="25" t="s">
@@ -5559,7 +5572,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C48" s="24"/>
       <c r="D48" s="25" t="s">
@@ -5567,7 +5580,7 @@
       </c>
       <c r="E48" s="33"/>
       <c r="F48" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
@@ -5620,8 +5633,8 @@
       <c r="J49" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="K49" s="25" t="s">
-        <v>175</v>
+      <c r="K49" s="26">
+        <v>43281</v>
       </c>
       <c r="L49" s="25" t="s">
         <v>60</v>
@@ -5647,7 +5660,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C50" s="24"/>
       <c r="D50" s="25" t="s">
@@ -5655,7 +5668,7 @@
       </c>
       <c r="E50" s="33"/>
       <c r="F50" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
@@ -5686,14 +5699,466 @@
       <c r="Y50" s="25"/>
       <c r="Z50" s="25"/>
     </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="33"/>
+      <c r="F51" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K51" s="26">
+        <v>43283</v>
+      </c>
+      <c r="L51" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="M51" s="24"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="33"/>
+      <c r="F52" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K52" s="26">
+        <v>43283</v>
+      </c>
+      <c r="L52" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M52" s="24"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="25"/>
+      <c r="V52" s="25"/>
+      <c r="W52" s="25"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="25"/>
+      <c r="Z52" s="25"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="33"/>
+      <c r="F53" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K53" s="26">
+        <v>43283</v>
+      </c>
+      <c r="L53" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M53" s="24"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="25"/>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="25"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="33"/>
+      <c r="F54" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K54" s="26">
+        <v>43283</v>
+      </c>
+      <c r="L54" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M54" s="24"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="25"/>
+      <c r="V54" s="25"/>
+      <c r="W54" s="25"/>
+      <c r="X54" s="25"/>
+      <c r="Y54" s="25"/>
+      <c r="Z54" s="25"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="33"/>
+      <c r="F55" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K55" s="26">
+        <v>43283</v>
+      </c>
+      <c r="L55" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M55" s="24"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="25"/>
+      <c r="V55" s="25"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="25"/>
+      <c r="Z55" s="25"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="33"/>
+      <c r="F56" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K56" s="26">
+        <v>43283</v>
+      </c>
+      <c r="L56" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M56" s="24"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+      <c r="X56" s="25"/>
+      <c r="Y56" s="25"/>
+      <c r="Z56" s="25"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="25"/>
+      <c r="Z57" s="25"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="25"/>
+      <c r="W58" s="25"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="25"/>
+      <c r="Z58" s="25"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="25"/>
+      <c r="W59" s="25"/>
+      <c r="X59" s="25"/>
+      <c r="Y59" s="25"/>
+      <c r="Z59" s="25"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="25"/>
+      <c r="U60" s="25"/>
+      <c r="V60" s="25"/>
+      <c r="W60" s="25"/>
+      <c r="X60" s="25"/>
+      <c r="Y60" s="25"/>
+      <c r="Z60" s="25"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="25"/>
+      <c r="V61" s="25"/>
+      <c r="W61" s="25"/>
+      <c r="X61" s="25"/>
+      <c r="Y61" s="25"/>
+      <c r="Z61" s="25"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="25"/>
+      <c r="T62" s="25"/>
+      <c r="U62" s="25"/>
+      <c r="V62" s="25"/>
+      <c r="W62" s="25"/>
+      <c r="X62" s="25"/>
+      <c r="Y62" s="25"/>
+      <c r="Z62" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -5702,6 +6167,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="192">
   <si>
     <t>STT</t>
   </si>
@@ -587,6 +587,15 @@
   </si>
   <si>
     <t>Lê Minh Hương</t>
+  </si>
+  <si>
+    <t>Minh Tuệ</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>Trang Lạng</t>
   </si>
 </sst>
 </file>
@@ -962,16 +971,11 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -980,19 +984,16 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1001,10 +1002,18 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1349,86 +1358,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="61" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="59" t="s">
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="59" t="s">
+      <c r="V1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="59" t="s">
+      <c r="W1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="59" t="s">
+      <c r="X1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="59" t="s">
+      <c r="Y1" s="57" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1450,11 +1459,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2182,14 +2191,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2202,6 +2203,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2241,46 +2250,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="N1" s="67" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2311,20 +2320,20 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3341,12 +3350,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3355,6 +3358,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3364,9 +3373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J5" sqref="J5"/>
+      <selection pane="topRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3393,46 +3402,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="69" t="s">
+      <c r="N1" s="70" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="54" t="s">
@@ -3463,20 +3472,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -5532,7 +5541,7 @@
         <v>69</v>
       </c>
       <c r="E47" s="33"/>
-      <c r="F47" s="70" t="s">
+      <c r="F47" s="56" t="s">
         <v>171</v>
       </c>
       <c r="G47" s="25" t="s">
@@ -5974,19 +5983,31 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="24" t="s">
+        <v>189</v>
+      </c>
       <c r="C57" s="24"/>
-      <c r="D57" s="25"/>
+      <c r="D57" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E57" s="33"/>
-      <c r="F57" s="24"/>
+      <c r="F57" s="24" t="s">
+        <v>189</v>
+      </c>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
+      <c r="I57" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="J57" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
+      <c r="K57" s="26">
+        <v>43284</v>
+      </c>
+      <c r="L57" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M57" s="24"/>
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
@@ -6007,17 +6028,31 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="24" t="s">
+        <v>190</v>
+      </c>
       <c r="C58" s="24"/>
-      <c r="D58" s="25"/>
+      <c r="D58" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E58" s="33"/>
-      <c r="F58" s="24"/>
+      <c r="F58" s="24" t="s">
+        <v>191</v>
+      </c>
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
+      <c r="I58" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K58" s="26">
+        <v>43284</v>
+      </c>
+      <c r="L58" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M58" s="24"/>
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
@@ -6159,6 +6194,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -6167,12 +6208,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="194">
   <si>
     <t>STT</t>
   </si>
@@ -596,6 +596,12 @@
   </si>
   <si>
     <t>Trang Lạng</t>
+  </si>
+  <si>
+    <t>Lê Đức Thịnh</t>
+  </si>
+  <si>
+    <t>01268561900</t>
   </si>
 </sst>
 </file>
@@ -972,10 +978,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -984,31 +996,25 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1358,86 +1364,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="57" t="s">
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="57" t="s">
+      <c r="V1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="57" t="s">
+      <c r="W1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="57" t="s">
+      <c r="X1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="57" t="s">
+      <c r="Y1" s="60" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1459,11 +1465,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2191,6 +2197,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2203,14 +2217,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2250,46 +2256,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="63" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2324,13 +2330,13 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="66"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="69"/>
+      <c r="K2" s="67"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
@@ -3350,6 +3356,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3358,12 +3370,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3373,9 +3379,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H12" sqref="H12"/>
+      <selection pane="topRight" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3402,43 +3408,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="70" t="s">
@@ -3472,20 +3478,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -6073,17 +6079,35 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B59" s="24"/>
+      <c r="B59" s="24" t="s">
+        <v>192</v>
+      </c>
       <c r="C59" s="24"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="33"/>
+      <c r="D59" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>193</v>
+      </c>
       <c r="F59" s="24"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
+      <c r="G59" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I59" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J59" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K59" s="26">
+        <v>43284</v>
+      </c>
+      <c r="L59" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M59" s="24"/>
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
@@ -6194,12 +6218,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -6208,6 +6226,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="207">
   <si>
     <t>STT</t>
   </si>
@@ -565,9 +565,6 @@
     <t>Hoàng Nhi</t>
   </si>
   <si>
-    <t>Minh Trang</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hậu </t>
   </si>
   <si>
@@ -602,6 +599,48 @@
   </si>
   <si>
     <t>01268561900</t>
+  </si>
+  <si>
+    <t>Hà Ngọc Huệ</t>
+  </si>
+  <si>
+    <t>Chi</t>
+  </si>
+  <si>
+    <t>Chi Phan</t>
+  </si>
+  <si>
+    <t>Cao Thanh Thủy</t>
+  </si>
+  <si>
+    <t>Ngọc Hân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngọc Hân </t>
+  </si>
+  <si>
+    <t>Đặng Văn Phi</t>
+  </si>
+  <si>
+    <t>Hà Na</t>
+  </si>
+  <si>
+    <t>Hà</t>
+  </si>
+  <si>
+    <t>Văn Thị Thúy Hằng</t>
+  </si>
+  <si>
+    <t>Phan Thị Minh Trang</t>
+  </si>
+  <si>
+    <t>Trà Giang</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Sung</t>
+  </si>
+  <si>
+    <t>Trần Sung Ngọc</t>
   </si>
 </sst>
 </file>
@@ -968,6 +1007,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -977,17 +1017,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -996,25 +1029,31 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1364,86 +1403,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="62" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="60" t="s">
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="60" t="s">
+      <c r="V1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="60" t="s">
+      <c r="W1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="60" t="s">
+      <c r="X1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="60" t="s">
+      <c r="Y1" s="57" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1465,11 +1504,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2197,14 +2236,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2217,6 +2248,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2256,46 +2295,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="67" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2330,13 +2369,13 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="69"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="67"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
@@ -3356,12 +3395,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3370,6 +3403,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3377,11 +3416,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA62"/>
+  <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F59" sqref="F59"/>
+      <selection pane="topRight" activeCell="Z65" sqref="Z65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3408,90 +3447,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="55" t="s">
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="53" t="s">
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="53" t="s">
+      <c r="W1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="53" t="s">
+      <c r="X1" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="53" t="s">
+      <c r="Y1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="53" t="s">
+      <c r="Z1" s="54" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3513,11 +3552,11 @@
       <c r="U2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
     </row>
     <row r="3" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
@@ -4867,7 +4906,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <f t="shared" ref="A32:A62" si="1">1+A31</f>
+        <f t="shared" ref="A32:A72" si="1">1+A31</f>
         <v>30</v>
       </c>
       <c r="B32" s="24" t="s">
@@ -5547,7 +5586,7 @@
         <v>69</v>
       </c>
       <c r="E47" s="33"/>
-      <c r="F47" s="56" t="s">
+      <c r="F47" s="53" t="s">
         <v>171</v>
       </c>
       <c r="G47" s="25" t="s">
@@ -5728,7 +5767,7 @@
       </c>
       <c r="E51" s="33"/>
       <c r="F51" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
@@ -5742,7 +5781,7 @@
         <v>43283</v>
       </c>
       <c r="L51" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M51" s="24"/>
       <c r="N51" s="25"/>
@@ -5765,7 +5804,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="25" t="s">
@@ -5773,10 +5812,14 @@
       </c>
       <c r="E52" s="33"/>
       <c r="F52" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
+        <v>183</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I52" s="25" t="s">
         <v>27</v>
       </c>
@@ -5810,7 +5853,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="25" t="s">
@@ -5818,7 +5861,7 @@
       </c>
       <c r="E53" s="33"/>
       <c r="F53" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
@@ -5855,7 +5898,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C54" s="24"/>
       <c r="D54" s="25" t="s">
@@ -5863,7 +5906,7 @@
       </c>
       <c r="E54" s="33"/>
       <c r="F54" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
@@ -5900,7 +5943,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C55" s="24"/>
       <c r="D55" s="25" t="s">
@@ -5908,7 +5951,7 @@
       </c>
       <c r="E55" s="33"/>
       <c r="F55" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
@@ -5945,7 +5988,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C56" s="24"/>
       <c r="D56" s="25" t="s">
@@ -5953,7 +5996,7 @@
       </c>
       <c r="E56" s="33"/>
       <c r="F56" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
@@ -5990,7 +6033,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="25" t="s">
@@ -5998,7 +6041,7 @@
       </c>
       <c r="E57" s="33"/>
       <c r="F57" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
@@ -6035,7 +6078,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="25" t="s">
@@ -6043,7 +6086,7 @@
       </c>
       <c r="E58" s="33"/>
       <c r="F58" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
@@ -6080,14 +6123,14 @@
         <v>57</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="25" t="s">
         <v>76</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="25" t="s">
@@ -6128,17 +6171,31 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B60" s="24"/>
+      <c r="B60" s="24" t="s">
+        <v>193</v>
+      </c>
       <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
+      <c r="D60" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E60" s="33"/>
-      <c r="F60" s="24"/>
+      <c r="F60" s="24" t="s">
+        <v>193</v>
+      </c>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
+      <c r="I60" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K60" s="26">
+        <v>43285</v>
+      </c>
+      <c r="L60" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M60" s="24"/>
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
@@ -6159,17 +6216,31 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B61" s="24"/>
+      <c r="B61" s="24" t="s">
+        <v>194</v>
+      </c>
       <c r="C61" s="24"/>
-      <c r="D61" s="25"/>
+      <c r="D61" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E61" s="33"/>
-      <c r="F61" s="24"/>
+      <c r="F61" s="24" t="s">
+        <v>195</v>
+      </c>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
+      <c r="I61" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K61" s="26">
+        <v>43285</v>
+      </c>
+      <c r="L61" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M61" s="24"/>
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
@@ -6190,17 +6261,31 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B62" s="24"/>
+      <c r="B62" s="24" t="s">
+        <v>196</v>
+      </c>
       <c r="C62" s="24"/>
-      <c r="D62" s="25"/>
+      <c r="D62" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E62" s="33"/>
-      <c r="F62" s="24"/>
+      <c r="F62" s="24" t="s">
+        <v>196</v>
+      </c>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
+      <c r="I62" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K62" s="26">
+        <v>43285</v>
+      </c>
+      <c r="L62" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M62" s="24"/>
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
@@ -6216,8 +6301,541 @@
       <c r="Y62" s="25"/>
       <c r="Z62" s="25"/>
     </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="33"/>
+      <c r="F63" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K63" s="26">
+        <v>43285</v>
+      </c>
+      <c r="L63" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M63" s="24"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="25"/>
+      <c r="U63" s="25"/>
+      <c r="V63" s="25"/>
+      <c r="W63" s="25"/>
+      <c r="X63" s="25"/>
+      <c r="Y63" s="25"/>
+      <c r="Z63" s="25"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="33"/>
+      <c r="F64" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K64" s="26">
+        <v>43285</v>
+      </c>
+      <c r="L64" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M64" s="24"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25"/>
+      <c r="U64" s="25"/>
+      <c r="V64" s="25"/>
+      <c r="W64" s="25"/>
+      <c r="X64" s="25"/>
+      <c r="Y64" s="25"/>
+      <c r="Z64" s="25"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="33"/>
+      <c r="F65" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J65" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K65" s="26">
+        <v>43285</v>
+      </c>
+      <c r="L65" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M65" s="24"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25">
+        <v>4</v>
+      </c>
+      <c r="P65" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q65" s="25">
+        <v>4</v>
+      </c>
+      <c r="R65" s="25">
+        <v>4</v>
+      </c>
+      <c r="S65" s="25">
+        <v>20</v>
+      </c>
+      <c r="T65" s="25">
+        <v>4</v>
+      </c>
+      <c r="U65" s="25">
+        <v>2</v>
+      </c>
+      <c r="V65" s="25">
+        <v>16</v>
+      </c>
+      <c r="W65" s="25">
+        <v>26</v>
+      </c>
+      <c r="X65" s="25">
+        <v>55</v>
+      </c>
+      <c r="Y65" s="25">
+        <v>65</v>
+      </c>
+      <c r="Z65" s="25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="33"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I66" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J66" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K66" s="26">
+        <v>43285</v>
+      </c>
+      <c r="L66" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M66" s="24"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="25"/>
+      <c r="W66" s="25"/>
+      <c r="X66" s="25"/>
+      <c r="Y66" s="25"/>
+      <c r="Z66" s="25"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" s="24"/>
+      <c r="D67" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="33"/>
+      <c r="F67" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J67" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K67" s="26">
+        <v>43286</v>
+      </c>
+      <c r="L67" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M67" s="24"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25"/>
+      <c r="T67" s="25"/>
+      <c r="U67" s="25"/>
+      <c r="V67" s="25"/>
+      <c r="W67" s="25"/>
+      <c r="X67" s="25"/>
+      <c r="Y67" s="25"/>
+      <c r="Z67" s="25"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="14">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="33"/>
+      <c r="F68" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J68" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K68" s="26">
+        <v>43286</v>
+      </c>
+      <c r="L68" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="M68" s="24"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
+      <c r="T68" s="25"/>
+      <c r="U68" s="25"/>
+      <c r="V68" s="25"/>
+      <c r="W68" s="25"/>
+      <c r="X68" s="25"/>
+      <c r="Y68" s="25"/>
+      <c r="Z68" s="25"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="14">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="24"/>
+      <c r="D69" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" s="33"/>
+      <c r="F69" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K69" s="26">
+        <v>43286</v>
+      </c>
+      <c r="L69" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M69" s="24"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="25"/>
+      <c r="W69" s="25"/>
+      <c r="X69" s="25"/>
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="25"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="25"/>
+      <c r="W70" s="25"/>
+      <c r="X70" s="25"/>
+      <c r="Y70" s="25"/>
+      <c r="Z70" s="25"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="14">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="25"/>
+      <c r="U71" s="25"/>
+      <c r="V71" s="25"/>
+      <c r="W71" s="25"/>
+      <c r="X71" s="25"/>
+      <c r="Y71" s="25"/>
+      <c r="Z71" s="25"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
+        <f>1+A71</f>
+        <v>70</v>
+      </c>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="25"/>
+      <c r="U72" s="25"/>
+      <c r="V72" s="25"/>
+      <c r="W72" s="25"/>
+      <c r="X72" s="25"/>
+      <c r="Y72" s="25"/>
+      <c r="Z72" s="25"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="14">
+        <f t="shared" ref="A73:A75" si="2">1+A72</f>
+        <v>71</v>
+      </c>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="25"/>
+      <c r="T73" s="25"/>
+      <c r="U73" s="25"/>
+      <c r="V73" s="25"/>
+      <c r="W73" s="25"/>
+      <c r="X73" s="25"/>
+      <c r="Y73" s="25"/>
+      <c r="Z73" s="25"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="25"/>
+      <c r="S74" s="25"/>
+      <c r="T74" s="25"/>
+      <c r="U74" s="25"/>
+      <c r="V74" s="25"/>
+      <c r="W74" s="25"/>
+      <c r="X74" s="25"/>
+      <c r="Y74" s="25"/>
+      <c r="Z74" s="25"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="14">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="25"/>
+      <c r="V75" s="25"/>
+      <c r="W75" s="25"/>
+      <c r="X75" s="25"/>
+      <c r="Y75" s="25"/>
+      <c r="Z75" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -6226,12 +6844,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="207">
   <si>
     <t>STT</t>
   </si>
@@ -1017,10 +1017,16 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1029,31 +1035,25 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1380,7 +1380,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,86 +1403,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="57" t="s">
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="57" t="s">
+      <c r="V1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="57" t="s">
+      <c r="W1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="57" t="s">
+      <c r="X1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="57" t="s">
+      <c r="Y1" s="60" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1504,11 +1504,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2236,6 +2236,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2248,14 +2256,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2268,7 +2268,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H20" sqref="H20"/>
+      <selection pane="topRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,46 +2295,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="63" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2369,13 +2369,13 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="66"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="69"/>
+      <c r="K2" s="67"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
@@ -3395,6 +3395,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3403,12 +3409,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3418,9 +3418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z65" sqref="Z65"/>
+      <selection pane="topRight" activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3447,43 +3447,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="70" t="s">
@@ -3517,20 +3517,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <f t="shared" ref="A32:A72" si="1">1+A31</f>
+        <f t="shared" ref="A32:A71" si="1">1+A31</f>
         <v>30</v>
       </c>
       <c r="B32" s="24" t="s">
@@ -6136,9 +6136,7 @@
       <c r="G59" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H59" s="25" t="s">
-        <v>44</v>
-      </c>
+      <c r="H59" s="25"/>
       <c r="I59" s="25" t="s">
         <v>42</v>
       </c>
@@ -6830,12 +6828,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -6844,6 +6836,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="210">
   <si>
     <t>STT</t>
   </si>
@@ -641,6 +641,15 @@
   </si>
   <si>
     <t>Trần Sung Ngọc</t>
+  </si>
+  <si>
+    <t>Cao Thị Ly Na</t>
+  </si>
+  <si>
+    <t>Khánh Hạnh</t>
+  </si>
+  <si>
+    <t>Hữu Hải</t>
   </si>
 </sst>
 </file>
@@ -1017,16 +1026,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1035,25 +1038,31 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1403,86 +1412,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="62" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="60" t="s">
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="60" t="s">
+      <c r="V1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="60" t="s">
+      <c r="W1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="60" t="s">
+      <c r="X1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="60" t="s">
+      <c r="Y1" s="57" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1504,11 +1513,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2236,14 +2245,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2256,6 +2257,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2295,46 +2304,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="67" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2369,13 +2378,13 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="69"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="67"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
@@ -3395,12 +3404,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3409,6 +3412,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3416,11 +3425,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA75"/>
+  <dimension ref="A1:AA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H59" sqref="H59"/>
+      <selection pane="topRight" activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3447,43 +3456,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="70" t="s">
@@ -3517,20 +3526,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -4906,7 +4915,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <f t="shared" ref="A32:A71" si="1">1+A31</f>
+        <f t="shared" ref="A32:A76" si="1">1+A31</f>
         <v>30</v>
       </c>
       <c r="B32" s="24" t="s">
@@ -6315,8 +6324,12 @@
       <c r="F63" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
+      <c r="G63" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I63" s="25" t="s">
         <v>27</v>
       </c>
@@ -6350,20 +6363,22 @@
         <v>62</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E64" s="33"/>
-      <c r="F64" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I64" s="25" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J64" s="25" t="s">
         <v>111</v>
@@ -6395,20 +6410,20 @@
         <v>63</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C65" s="24"/>
       <c r="D65" s="25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E65" s="33"/>
       <c r="F65" s="24" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J65" s="25" t="s">
         <v>111</v>
@@ -6421,63 +6436,37 @@
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="25"/>
-      <c r="O65" s="25">
-        <v>4</v>
-      </c>
-      <c r="P65" s="25">
-        <v>4</v>
-      </c>
-      <c r="Q65" s="25">
-        <v>4</v>
-      </c>
-      <c r="R65" s="25">
-        <v>4</v>
-      </c>
-      <c r="S65" s="25">
-        <v>20</v>
-      </c>
-      <c r="T65" s="25">
-        <v>4</v>
-      </c>
-      <c r="U65" s="25">
-        <v>2</v>
-      </c>
-      <c r="V65" s="25">
-        <v>16</v>
-      </c>
-      <c r="W65" s="25">
-        <v>26</v>
-      </c>
-      <c r="X65" s="25">
-        <v>55</v>
-      </c>
-      <c r="Y65" s="25">
-        <v>65</v>
-      </c>
-      <c r="Z65" s="25">
-        <v>120</v>
-      </c>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="25"/>
+      <c r="T65" s="25"/>
+      <c r="U65" s="25"/>
+      <c r="V65" s="25"/>
+      <c r="W65" s="25"/>
+      <c r="X65" s="25"/>
+      <c r="Y65" s="25"/>
+      <c r="Z65" s="25"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B66" s="53" t="s">
-        <v>202</v>
+      <c r="B66" s="24" t="s">
+        <v>199</v>
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="25" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E66" s="33"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H66" s="25" t="s">
-        <v>44</v>
-      </c>
+      <c r="F66" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
       <c r="I66" s="25" t="s">
         <v>42</v>
       </c>
@@ -6492,45 +6481,71 @@
       </c>
       <c r="M66" s="24"/>
       <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="25"/>
-      <c r="R66" s="25"/>
-      <c r="S66" s="25"/>
-      <c r="T66" s="25"/>
-      <c r="U66" s="25"/>
-      <c r="V66" s="25"/>
-      <c r="W66" s="25"/>
-      <c r="X66" s="25"/>
-      <c r="Y66" s="25"/>
-      <c r="Z66" s="25"/>
+      <c r="O66" s="25">
+        <v>4</v>
+      </c>
+      <c r="P66" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="25">
+        <v>4</v>
+      </c>
+      <c r="R66" s="25">
+        <v>4</v>
+      </c>
+      <c r="S66" s="25">
+        <v>20</v>
+      </c>
+      <c r="T66" s="25">
+        <v>4</v>
+      </c>
+      <c r="U66" s="25">
+        <v>2</v>
+      </c>
+      <c r="V66" s="25">
+        <v>16</v>
+      </c>
+      <c r="W66" s="25">
+        <v>26</v>
+      </c>
+      <c r="X66" s="25">
+        <v>55</v>
+      </c>
+      <c r="Y66" s="25">
+        <v>65</v>
+      </c>
+      <c r="Z66" s="25">
+        <v>120</v>
+      </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B67" s="24" t="s">
-        <v>201</v>
+      <c r="B67" s="53" t="s">
+        <v>202</v>
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E67" s="33"/>
-      <c r="F67" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I67" s="25" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J67" s="25" t="s">
         <v>111</v>
       </c>
       <c r="K67" s="26">
-        <v>43286</v>
+        <v>43285</v>
       </c>
       <c r="L67" s="25" t="s">
         <v>60</v>
@@ -6556,7 +6571,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="25" t="s">
@@ -6564,7 +6579,7 @@
       </c>
       <c r="E68" s="33"/>
       <c r="F68" s="24" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
@@ -6578,7 +6593,7 @@
         <v>43286</v>
       </c>
       <c r="L68" s="25" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="M68" s="24"/>
       <c r="N68" s="25"/>
@@ -6601,15 +6616,15 @@
         <v>67</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E69" s="33"/>
       <c r="F69" s="24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
@@ -6623,7 +6638,7 @@
         <v>43286</v>
       </c>
       <c r="L69" s="25" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="M69" s="24"/>
       <c r="N69" s="25"/>
@@ -6645,17 +6660,31 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B70" s="24"/>
+      <c r="B70" s="24" t="s">
+        <v>205</v>
+      </c>
       <c r="C70" s="24"/>
-      <c r="D70" s="25"/>
+      <c r="D70" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="E70" s="33"/>
-      <c r="F70" s="24"/>
+      <c r="F70" s="24" t="s">
+        <v>206</v>
+      </c>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
+      <c r="I70" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J70" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K70" s="26">
+        <v>43286</v>
+      </c>
+      <c r="L70" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M70" s="24"/>
       <c r="N70" s="25"/>
       <c r="O70" s="25"/>
@@ -6676,17 +6705,31 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B71" s="24"/>
+      <c r="B71" s="24" t="s">
+        <v>208</v>
+      </c>
       <c r="C71" s="24"/>
-      <c r="D71" s="25"/>
+      <c r="D71" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E71" s="33"/>
-      <c r="F71" s="24"/>
+      <c r="F71" s="24" t="s">
+        <v>208</v>
+      </c>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
+      <c r="I71" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J71" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K71" s="26">
+        <v>43287</v>
+      </c>
+      <c r="L71" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M71" s="24"/>
       <c r="N71" s="25"/>
       <c r="O71" s="25"/>
@@ -6704,20 +6747,34 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
-        <f>1+A71</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B72" s="24"/>
+      <c r="B72" s="24" t="s">
+        <v>209</v>
+      </c>
       <c r="C72" s="24"/>
-      <c r="D72" s="25"/>
+      <c r="D72" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="E72" s="33"/>
-      <c r="F72" s="24"/>
+      <c r="F72" s="24" t="s">
+        <v>209</v>
+      </c>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
+      <c r="I72" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J72" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K72" s="26">
+        <v>43287</v>
+      </c>
+      <c r="L72" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M72" s="24"/>
       <c r="N72" s="25"/>
       <c r="O72" s="25"/>
@@ -6735,7 +6792,7 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
-        <f t="shared" ref="A73:A75" si="2">1+A72</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B73" s="24"/>
@@ -6766,7 +6823,7 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B74" s="24"/>
@@ -6797,7 +6854,7 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B75" s="24"/>
@@ -6826,8 +6883,45 @@
       <c r="Y75" s="25"/>
       <c r="Z75" s="25"/>
     </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="25"/>
+      <c r="Q76" s="25"/>
+      <c r="R76" s="25"/>
+      <c r="S76" s="25"/>
+      <c r="T76" s="25"/>
+      <c r="U76" s="25"/>
+      <c r="V76" s="25"/>
+      <c r="W76" s="25"/>
+      <c r="X76" s="25"/>
+      <c r="Y76" s="25"/>
+      <c r="Z76" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -6836,12 +6930,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="213">
   <si>
     <t>STT</t>
   </si>
@@ -650,6 +650,15 @@
   </si>
   <si>
     <t>Hữu Hải</t>
+  </si>
+  <si>
+    <t>Trần Khánh Quỳnh Hương</t>
+  </si>
+  <si>
+    <t>Nguyễn Huyền Trang</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Như Ý</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1035,16 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1038,31 +1053,25 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1412,86 +1421,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="57" t="s">
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="57" t="s">
+      <c r="V1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="57" t="s">
+      <c r="W1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="57" t="s">
+      <c r="X1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="57" t="s">
+      <c r="Y1" s="60" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1513,11 +1522,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2245,6 +2254,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2257,14 +2274,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2277,7 +2286,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H11" sqref="H11"/>
+      <selection pane="topRight" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,46 +2313,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="63" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2378,13 +2387,13 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="66"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="69"/>
+      <c r="K2" s="67"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
@@ -3404,6 +3413,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3412,12 +3427,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3425,11 +3434,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA76"/>
+  <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L72" sqref="L72"/>
+      <selection pane="topRight" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3444,7 +3453,7 @@
     <col min="8" max="8" width="9.5703125" style="29" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" style="29" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="29" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="29" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" style="29" customWidth="1"/>
     <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" style="29" customWidth="1"/>
@@ -3456,43 +3465,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="70" t="s">
@@ -3526,20 +3535,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -4915,7 +4924,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <f t="shared" ref="A32:A76" si="1">1+A31</f>
+        <f t="shared" ref="A32:A56" si="1">1+A31</f>
         <v>30</v>
       </c>
       <c r="B32" s="24" t="s">
@@ -6038,11 +6047,11 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
-        <f t="shared" si="1"/>
+        <f>1+A56</f>
         <v>55</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="25" t="s">
@@ -6052,8 +6061,12 @@
       <c r="F57" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
+      <c r="G57" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I57" s="25" t="s">
         <v>27</v>
       </c>
@@ -6083,7 +6096,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A58:A75" si="2">1+A57</f>
         <v>56</v>
       </c>
       <c r="B58" s="24" t="s">
@@ -6128,7 +6141,7 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="B59" s="24" t="s">
@@ -6175,7 +6188,7 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="B60" s="24" t="s">
@@ -6220,7 +6233,7 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="B61" s="24" t="s">
@@ -6265,7 +6278,7 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B62" s="24" t="s">
@@ -6310,7 +6323,7 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="B63" s="24" t="s">
@@ -6359,7 +6372,7 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="B64" s="24" t="s">
@@ -6406,24 +6419,24 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C65" s="24"/>
       <c r="D65" s="25" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E65" s="33"/>
       <c r="F65" s="24" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J65" s="25" t="s">
         <v>111</v>
@@ -6436,37 +6449,63 @@
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="25"/>
-      <c r="R65" s="25"/>
-      <c r="S65" s="25"/>
-      <c r="T65" s="25"/>
-      <c r="U65" s="25"/>
-      <c r="V65" s="25"/>
-      <c r="W65" s="25"/>
-      <c r="X65" s="25"/>
-      <c r="Y65" s="25"/>
-      <c r="Z65" s="25"/>
+      <c r="O65" s="25">
+        <v>4</v>
+      </c>
+      <c r="P65" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q65" s="25">
+        <v>4</v>
+      </c>
+      <c r="R65" s="25">
+        <v>4</v>
+      </c>
+      <c r="S65" s="25">
+        <v>20</v>
+      </c>
+      <c r="T65" s="25">
+        <v>4</v>
+      </c>
+      <c r="U65" s="25">
+        <v>2</v>
+      </c>
+      <c r="V65" s="25">
+        <v>16</v>
+      </c>
+      <c r="W65" s="25">
+        <v>26</v>
+      </c>
+      <c r="X65" s="25">
+        <v>55</v>
+      </c>
+      <c r="Y65" s="25">
+        <v>65</v>
+      </c>
+      <c r="Z65" s="25">
+        <v>120</v>
+      </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="B66" s="24" t="s">
-        <v>199</v>
+      <c r="B66" s="53" t="s">
+        <v>202</v>
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E66" s="33"/>
-      <c r="F66" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I66" s="25" t="s">
         <v>42</v>
       </c>
@@ -6481,71 +6520,45 @@
       </c>
       <c r="M66" s="24"/>
       <c r="N66" s="25"/>
-      <c r="O66" s="25">
-        <v>4</v>
-      </c>
-      <c r="P66" s="25">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="25">
-        <v>4</v>
-      </c>
-      <c r="R66" s="25">
-        <v>4</v>
-      </c>
-      <c r="S66" s="25">
-        <v>20</v>
-      </c>
-      <c r="T66" s="25">
-        <v>4</v>
-      </c>
-      <c r="U66" s="25">
-        <v>2</v>
-      </c>
-      <c r="V66" s="25">
-        <v>16</v>
-      </c>
-      <c r="W66" s="25">
-        <v>26</v>
-      </c>
-      <c r="X66" s="25">
-        <v>55</v>
-      </c>
-      <c r="Y66" s="25">
-        <v>65</v>
-      </c>
-      <c r="Z66" s="25">
-        <v>120</v>
-      </c>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="25"/>
+      <c r="W66" s="25"/>
+      <c r="X66" s="25"/>
+      <c r="Y66" s="25"/>
+      <c r="Z66" s="25"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="B67" s="53" t="s">
-        <v>202</v>
+      <c r="B67" s="24" t="s">
+        <v>201</v>
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E67" s="33"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H67" s="25" t="s">
-        <v>44</v>
-      </c>
+      <c r="F67" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
       <c r="I67" s="25" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J67" s="25" t="s">
         <v>111</v>
       </c>
       <c r="K67" s="26">
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="L67" s="25" t="s">
         <v>60</v>
@@ -6567,11 +6580,11 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="25" t="s">
@@ -6579,7 +6592,7 @@
       </c>
       <c r="E68" s="33"/>
       <c r="F68" s="24" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
@@ -6593,7 +6606,7 @@
         <v>43286</v>
       </c>
       <c r="L68" s="25" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="M68" s="24"/>
       <c r="N68" s="25"/>
@@ -6612,19 +6625,19 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="25" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E69" s="33"/>
       <c r="F69" s="24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
@@ -6638,7 +6651,7 @@
         <v>43286</v>
       </c>
       <c r="L69" s="25" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="M69" s="24"/>
       <c r="N69" s="25"/>
@@ -6657,19 +6670,19 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E70" s="33"/>
       <c r="F70" s="24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
@@ -6680,7 +6693,7 @@
         <v>111</v>
       </c>
       <c r="K70" s="26">
-        <v>43286</v>
+        <v>43287</v>
       </c>
       <c r="L70" s="25" t="s">
         <v>60</v>
@@ -6702,19 +6715,19 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="25" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E71" s="33"/>
       <c r="F71" s="24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
@@ -6747,24 +6760,26 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C72" s="24"/>
       <c r="D72" s="25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E72" s="33"/>
-      <c r="F72" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I72" s="25" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J72" s="25" t="s">
         <v>111</v>
@@ -6792,20 +6807,36 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="B73" s="24"/>
+      <c r="B73" s="24" t="s">
+        <v>212</v>
+      </c>
       <c r="C73" s="24"/>
-      <c r="D73" s="25"/>
+      <c r="D73" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E73" s="33"/>
       <c r="F73" s="24"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
+      <c r="G73" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I73" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J73" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K73" s="26">
+        <v>43287</v>
+      </c>
+      <c r="L73" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M73" s="24"/>
       <c r="N73" s="25"/>
       <c r="O73" s="25"/>
@@ -6823,7 +6854,7 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B74" s="24"/>
@@ -6854,7 +6885,7 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B75" s="24"/>
@@ -6883,45 +6914,8 @@
       <c r="Y75" s="25"/>
       <c r="Z75" s="25"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="14">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="25"/>
-      <c r="O76" s="25"/>
-      <c r="P76" s="25"/>
-      <c r="Q76" s="25"/>
-      <c r="R76" s="25"/>
-      <c r="S76" s="25"/>
-      <c r="T76" s="25"/>
-      <c r="U76" s="25"/>
-      <c r="V76" s="25"/>
-      <c r="W76" s="25"/>
-      <c r="X76" s="25"/>
-      <c r="Y76" s="25"/>
-      <c r="Z76" s="25"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -6930,6 +6924,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="218">
   <si>
     <t>STT</t>
   </si>
@@ -659,6 +659,21 @@
   </si>
   <si>
     <t>Huỳnh Thị Như Ý</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Như Quỳnh</t>
+  </si>
+  <si>
+    <t>0967227041</t>
+  </si>
+  <si>
+    <t>01635177159</t>
+  </si>
+  <si>
+    <t>Lá</t>
+  </si>
+  <si>
+    <t>Lá Corner</t>
   </si>
 </sst>
 </file>
@@ -1035,16 +1050,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1053,25 +1062,31 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1421,86 +1436,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="62" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="60" t="s">
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="60" t="s">
+      <c r="V1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="60" t="s">
+      <c r="W1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="60" t="s">
+      <c r="X1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="60" t="s">
+      <c r="Y1" s="57" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1522,11 +1537,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2254,14 +2269,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2274,6 +2281,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2313,46 +2328,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="67" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2387,13 +2402,13 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="69"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="67"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
@@ -3413,12 +3428,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3427,6 +3436,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3434,11 +3449,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA75"/>
+  <dimension ref="A1:AA80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H73" sqref="H73"/>
+      <selection pane="topRight" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3465,43 +3480,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="70" t="s">
@@ -3535,20 +3550,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -6096,7 +6111,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
-        <f t="shared" ref="A58:A75" si="2">1+A57</f>
+        <f t="shared" ref="A58:A80" si="2">1+A57</f>
         <v>56</v>
       </c>
       <c r="B58" s="24" t="s">
@@ -6590,12 +6605,18 @@
       <c r="D68" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E68" s="33"/>
+      <c r="E68" s="33" t="s">
+        <v>215</v>
+      </c>
       <c r="F68" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
+      <c r="G68" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I68" s="25" t="s">
         <v>27</v>
       </c>
@@ -6857,17 +6878,35 @@
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="B74" s="24"/>
+      <c r="B74" s="24" t="s">
+        <v>213</v>
+      </c>
       <c r="C74" s="24"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="33"/>
+      <c r="D74" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>214</v>
+      </c>
       <c r="F74" s="24"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
+      <c r="G74" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I74" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J74" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K74" s="26">
+        <v>43288</v>
+      </c>
+      <c r="L74" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M74" s="24"/>
       <c r="N74" s="25"/>
       <c r="O74" s="25"/>
@@ -6888,17 +6927,29 @@
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="B75" s="24"/>
+      <c r="B75" s="24" t="s">
+        <v>216</v>
+      </c>
       <c r="C75" s="24"/>
       <c r="D75" s="25"/>
       <c r="E75" s="33"/>
-      <c r="F75" s="24"/>
+      <c r="F75" s="24" t="s">
+        <v>217</v>
+      </c>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
+      <c r="I75" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J75" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K75" s="26">
+        <v>43288</v>
+      </c>
+      <c r="L75" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M75" s="24"/>
       <c r="N75" s="25"/>
       <c r="O75" s="25"/>
@@ -6914,8 +6965,169 @@
       <c r="Y75" s="25"/>
       <c r="Z75" s="25"/>
     </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="25"/>
+      <c r="Q76" s="25"/>
+      <c r="R76" s="25"/>
+      <c r="S76" s="25"/>
+      <c r="T76" s="25"/>
+      <c r="U76" s="25"/>
+      <c r="V76" s="25"/>
+      <c r="W76" s="25"/>
+      <c r="X76" s="25"/>
+      <c r="Y76" s="25"/>
+      <c r="Z76" s="25"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="14">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="25"/>
+      <c r="P77" s="25"/>
+      <c r="Q77" s="25"/>
+      <c r="R77" s="25"/>
+      <c r="S77" s="25"/>
+      <c r="T77" s="25"/>
+      <c r="U77" s="25"/>
+      <c r="V77" s="25"/>
+      <c r="W77" s="25"/>
+      <c r="X77" s="25"/>
+      <c r="Y77" s="25"/>
+      <c r="Z77" s="25"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="14">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="25"/>
+      <c r="T78" s="25"/>
+      <c r="U78" s="25"/>
+      <c r="V78" s="25"/>
+      <c r="W78" s="25"/>
+      <c r="X78" s="25"/>
+      <c r="Y78" s="25"/>
+      <c r="Z78" s="25"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="14">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="25"/>
+      <c r="Q79" s="25"/>
+      <c r="R79" s="25"/>
+      <c r="S79" s="25"/>
+      <c r="T79" s="25"/>
+      <c r="U79" s="25"/>
+      <c r="V79" s="25"/>
+      <c r="W79" s="25"/>
+      <c r="X79" s="25"/>
+      <c r="Y79" s="25"/>
+      <c r="Z79" s="25"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="14">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+      <c r="Q80" s="25"/>
+      <c r="R80" s="25"/>
+      <c r="S80" s="25"/>
+      <c r="T80" s="25"/>
+      <c r="U80" s="25"/>
+      <c r="V80" s="25"/>
+      <c r="W80" s="25"/>
+      <c r="X80" s="25"/>
+      <c r="Y80" s="25"/>
+      <c r="Z80" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -6924,12 +7136,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="220">
   <si>
     <t>STT</t>
   </si>
@@ -674,6 +674,12 @@
   </si>
   <si>
     <t>Lá Corner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phương </t>
+  </si>
+  <si>
+    <t>Phương Đinh Đinh</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1056,16 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1062,31 +1074,25 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1436,86 +1442,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="57" t="s">
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="57" t="s">
+      <c r="V1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="57" t="s">
+      <c r="W1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="57" t="s">
+      <c r="X1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="57" t="s">
+      <c r="Y1" s="60" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1537,11 +1543,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2269,6 +2275,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2281,14 +2295,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2328,46 +2334,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="63" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2402,13 +2408,13 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="66"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="69"/>
+      <c r="K2" s="67"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
@@ -3428,6 +3434,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3436,12 +3448,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3451,9 +3457,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B74" sqref="B74"/>
+      <selection pane="topRight" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3480,43 +3486,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="70" t="s">
@@ -3550,20 +3556,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -6970,17 +6976,31 @@
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="B76" s="24"/>
+      <c r="B76" s="24" t="s">
+        <v>218</v>
+      </c>
       <c r="C76" s="24"/>
-      <c r="D76" s="25"/>
+      <c r="D76" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E76" s="33"/>
-      <c r="F76" s="24"/>
+      <c r="F76" s="24" t="s">
+        <v>219</v>
+      </c>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
+      <c r="I76" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J76" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K76" s="26">
+        <v>43288</v>
+      </c>
+      <c r="L76" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M76" s="24"/>
       <c r="N76" s="25"/>
       <c r="O76" s="25"/>
@@ -7122,12 +7142,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -7136,6 +7150,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="230">
   <si>
     <t>STT</t>
   </si>
@@ -680,6 +680,36 @@
   </si>
   <si>
     <t>Phương Đinh Đinh</t>
+  </si>
+  <si>
+    <t>Lê Đức Thuận</t>
+  </si>
+  <si>
+    <t>01226219802</t>
+  </si>
+  <si>
+    <t>Hà Lan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan Ngọc </t>
+  </si>
+  <si>
+    <t>01652144043</t>
+  </si>
+  <si>
+    <t>Phan Thị Ngọc Loan</t>
+  </si>
+  <si>
+    <t>01697923986</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Huy</t>
+  </si>
+  <si>
+    <t>Thanh Hằng</t>
+  </si>
+  <si>
+    <t>Kim Oanh</t>
   </si>
 </sst>
 </file>
@@ -3455,11 +3485,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA80"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E77" sqref="E77"/>
+      <selection pane="topRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6117,7 +6147,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
-        <f t="shared" ref="A58:A80" si="2">1+A57</f>
+        <f t="shared" ref="A58:A82" si="2">1+A57</f>
         <v>56</v>
       </c>
       <c r="B58" s="24" t="s">
@@ -6451,14 +6481,14 @@
         <v>76</v>
       </c>
       <c r="E65" s="33"/>
-      <c r="F65" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25" t="s">
-        <v>42</v>
-      </c>
+      <c r="F65" s="24"/>
+      <c r="G65" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I65" s="25"/>
       <c r="J65" s="25" t="s">
         <v>111</v>
       </c>
@@ -6466,7 +6496,7 @@
         <v>43285</v>
       </c>
       <c r="L65" s="25" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="25"/>
@@ -6662,12 +6692,18 @@
       <c r="D69" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E69" s="33"/>
+      <c r="E69" s="33" t="s">
+        <v>221</v>
+      </c>
       <c r="F69" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
+      <c r="G69" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I69" s="25" t="s">
         <v>27</v>
       </c>
@@ -7021,17 +7057,31 @@
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="B77" s="24"/>
+      <c r="B77" s="24" t="s">
+        <v>228</v>
+      </c>
       <c r="C77" s="24"/>
-      <c r="D77" s="25"/>
+      <c r="D77" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E77" s="33"/>
-      <c r="F77" s="24"/>
+      <c r="F77" s="24" t="s">
+        <v>228</v>
+      </c>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
+      <c r="I77" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J77" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K77" s="26">
+        <v>43289</v>
+      </c>
+      <c r="L77" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="M77" s="24"/>
       <c r="N77" s="25"/>
       <c r="O77" s="25"/>
@@ -7052,17 +7102,31 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B78" s="24"/>
+      <c r="B78" s="24" t="s">
+        <v>229</v>
+      </c>
       <c r="C78" s="24"/>
-      <c r="D78" s="25"/>
+      <c r="D78" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E78" s="33"/>
-      <c r="F78" s="24"/>
+      <c r="F78" s="24" t="s">
+        <v>229</v>
+      </c>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25"/>
+      <c r="I78" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J78" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K78" s="26">
+        <v>43289</v>
+      </c>
+      <c r="L78" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="M78" s="24"/>
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
@@ -7083,16 +7147,26 @@
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="B79" s="24"/>
+      <c r="B79" s="24" t="s">
+        <v>220</v>
+      </c>
       <c r="C79" s="24"/>
-      <c r="D79" s="25"/>
+      <c r="D79" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="E79" s="33"/>
       <c r="F79" s="24"/>
-      <c r="G79" s="25"/>
+      <c r="G79" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
+      <c r="J79" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K79" s="26">
+        <v>43290</v>
+      </c>
       <c r="L79" s="25"/>
       <c r="M79" s="24"/>
       <c r="N79" s="25"/>
@@ -7114,17 +7188,31 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="B80" s="24"/>
+      <c r="B80" s="24" t="s">
+        <v>222</v>
+      </c>
       <c r="C80" s="24"/>
-      <c r="D80" s="25"/>
+      <c r="D80" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E80" s="33"/>
-      <c r="F80" s="24"/>
+      <c r="F80" s="24" t="s">
+        <v>222</v>
+      </c>
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="25"/>
+      <c r="I80" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J80" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K80" s="26">
+        <v>43290</v>
+      </c>
+      <c r="L80" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M80" s="24"/>
       <c r="N80" s="25"/>
       <c r="O80" s="25"/>
@@ -7139,6 +7227,98 @@
       <c r="X80" s="25"/>
       <c r="Y80" s="25"/>
       <c r="Z80" s="25"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="14">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C81" s="24"/>
+      <c r="D81" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J81" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K81" s="26">
+        <v>43290</v>
+      </c>
+      <c r="L81" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M81" s="24"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="25"/>
+      <c r="S81" s="25"/>
+      <c r="T81" s="25"/>
+      <c r="U81" s="25"/>
+      <c r="V81" s="25"/>
+      <c r="W81" s="25"/>
+      <c r="X81" s="25"/>
+      <c r="Y81" s="25"/>
+      <c r="Z81" s="25"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="14">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" s="24"/>
+      <c r="D82" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="F82" s="24"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J82" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K82" s="26">
+        <v>43290</v>
+      </c>
+      <c r="L82" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M82" s="24"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="25"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="25"/>
+      <c r="T82" s="25"/>
+      <c r="U82" s="25"/>
+      <c r="V82" s="25"/>
+      <c r="W82" s="25"/>
+      <c r="X82" s="25"/>
+      <c r="Y82" s="25"/>
+      <c r="Z82" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="232">
   <si>
     <t>STT</t>
   </si>
@@ -710,6 +710,12 @@
   </si>
   <si>
     <t>Kim Oanh</t>
+  </si>
+  <si>
+    <t>Văn Thị Quỳnh Chi</t>
+  </si>
+  <si>
+    <t>01282125469</t>
   </si>
 </sst>
 </file>
@@ -1086,16 +1092,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1104,25 +1104,31 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1472,86 +1478,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="62" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="60" t="s">
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="60" t="s">
+      <c r="V1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="60" t="s">
+      <c r="W1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="60" t="s">
+      <c r="X1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="60" t="s">
+      <c r="Y1" s="57" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1573,11 +1579,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2305,14 +2311,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2325,6 +2323,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2364,46 +2370,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="67" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2438,13 +2444,13 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="69"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="67"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
@@ -3464,12 +3470,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3478,6 +3478,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3485,11 +3491,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA82"/>
+  <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H52" sqref="H52"/>
+      <selection pane="topRight" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3516,43 +3522,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="70" t="s">
@@ -3586,20 +3592,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -6147,7 +6153,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
-        <f t="shared" ref="A58:A82" si="2">1+A57</f>
+        <f t="shared" ref="A58:A87" si="2">1+A57</f>
         <v>56</v>
       </c>
       <c r="B58" s="24" t="s">
@@ -7320,8 +7326,183 @@
       <c r="Y82" s="25"/>
       <c r="Z82" s="25"/>
     </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="14">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="C83" s="24"/>
+      <c r="D83" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="F83" s="24"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J83" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K83" s="26">
+        <v>43291</v>
+      </c>
+      <c r="L83" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M83" s="24"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="25"/>
+      <c r="S83" s="25"/>
+      <c r="T83" s="25"/>
+      <c r="U83" s="25"/>
+      <c r="V83" s="25"/>
+      <c r="W83" s="25"/>
+      <c r="X83" s="25"/>
+      <c r="Y83" s="25"/>
+      <c r="Z83" s="25"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="14">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
+      <c r="T84" s="25"/>
+      <c r="U84" s="25"/>
+      <c r="V84" s="25"/>
+      <c r="W84" s="25"/>
+      <c r="X84" s="25"/>
+      <c r="Y84" s="25"/>
+      <c r="Z84" s="25"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="14">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="25"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="25"/>
+      <c r="T85" s="25"/>
+      <c r="U85" s="25"/>
+      <c r="V85" s="25"/>
+      <c r="W85" s="25"/>
+      <c r="X85" s="25"/>
+      <c r="Y85" s="25"/>
+      <c r="Z85" s="25"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="14">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="25"/>
+      <c r="R86" s="25"/>
+      <c r="S86" s="25"/>
+      <c r="T86" s="25"/>
+      <c r="U86" s="25"/>
+      <c r="V86" s="25"/>
+      <c r="W86" s="25"/>
+      <c r="X86" s="25"/>
+      <c r="Y86" s="25"/>
+      <c r="Z86" s="25"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="14">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="25"/>
+      <c r="U87" s="25"/>
+      <c r="V87" s="25"/>
+      <c r="W87" s="25"/>
+      <c r="X87" s="25"/>
+      <c r="Y87" s="25"/>
+      <c r="Z87" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -7330,12 +7511,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="233">
   <si>
     <t>STT</t>
   </si>
@@ -716,6 +716,9 @@
   </si>
   <si>
     <t>01282125469</t>
+  </si>
+  <si>
+    <t>Hồng Anh</t>
   </si>
 </sst>
 </file>
@@ -1092,10 +1095,16 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1104,31 +1113,25 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1478,86 +1481,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="57" t="s">
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="57" t="s">
+      <c r="V1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="57" t="s">
+      <c r="W1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="57" t="s">
+      <c r="X1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="57" t="s">
+      <c r="Y1" s="60" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1579,11 +1582,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2311,6 +2314,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2323,14 +2334,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2370,46 +2373,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="63" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2444,13 +2447,13 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="66"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="69"/>
+      <c r="K2" s="67"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
@@ -3470,6 +3473,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3478,12 +3487,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3493,9 +3496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F84" sqref="F84"/>
+      <selection pane="topRight" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3522,43 +3525,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="70" t="s">
@@ -3592,20 +3595,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -7376,17 +7379,31 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B84" s="24"/>
+      <c r="B84" s="24" t="s">
+        <v>232</v>
+      </c>
       <c r="C84" s="24"/>
-      <c r="D84" s="25"/>
+      <c r="D84" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E84" s="33"/>
-      <c r="F84" s="24"/>
+      <c r="F84" s="24" t="s">
+        <v>232</v>
+      </c>
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
+      <c r="I84" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J84" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K84" s="26">
+        <v>43291</v>
+      </c>
+      <c r="L84" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M84" s="24"/>
       <c r="N84" s="25"/>
       <c r="O84" s="25"/>
@@ -7497,12 +7514,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -7511,6 +7522,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="236">
   <si>
     <t>STT</t>
   </si>
@@ -719,6 +719,15 @@
   </si>
   <si>
     <t>Hồng Anh</t>
+  </si>
+  <si>
+    <t>Sinh</t>
+  </si>
+  <si>
+    <t>Sinh Ku</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoài Thương</t>
   </si>
 </sst>
 </file>
@@ -1095,16 +1104,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1113,25 +1116,31 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1481,86 +1490,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="62" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="60" t="s">
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="60" t="s">
+      <c r="V1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="60" t="s">
+      <c r="W1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="60" t="s">
+      <c r="X1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="60" t="s">
+      <c r="Y1" s="57" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1582,11 +1591,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2314,14 +2323,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2334,6 +2335,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2373,46 +2382,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="67" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2447,13 +2456,13 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="69"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="67"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
@@ -3473,12 +3482,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3487,6 +3490,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3496,9 +3505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E82" sqref="E82"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3525,43 +3534,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="70" t="s">
@@ -3595,20 +3604,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -7424,17 +7433,31 @@
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B85" s="24"/>
+      <c r="B85" s="24" t="s">
+        <v>233</v>
+      </c>
       <c r="C85" s="24"/>
-      <c r="D85" s="25"/>
+      <c r="D85" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="E85" s="33"/>
-      <c r="F85" s="24"/>
+      <c r="F85" s="24" t="s">
+        <v>234</v>
+      </c>
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
+      <c r="I85" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J85" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K85" s="26">
+        <v>43295</v>
+      </c>
+      <c r="L85" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M85" s="24"/>
       <c r="N85" s="25"/>
       <c r="O85" s="25"/>
@@ -7455,17 +7478,31 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B86" s="24"/>
+      <c r="B86" s="24" t="s">
+        <v>235</v>
+      </c>
       <c r="C86" s="24"/>
-      <c r="D86" s="25"/>
+      <c r="D86" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E86" s="33"/>
-      <c r="F86" s="24"/>
+      <c r="F86" s="24" t="s">
+        <v>235</v>
+      </c>
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="25"/>
+      <c r="I86" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J86" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K86" s="26">
+        <v>43295</v>
+      </c>
+      <c r="L86" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M86" s="24"/>
       <c r="N86" s="25"/>
       <c r="O86" s="25"/>
@@ -7514,6 +7551,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -7522,12 +7565,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="238">
   <si>
     <t>STT</t>
   </si>
@@ -728,6 +728,12 @@
   </si>
   <si>
     <t>Nguyễn Thị Hoài Thương</t>
+  </si>
+  <si>
+    <t>Châu</t>
+  </si>
+  <si>
+    <t>Chau Tran</t>
   </si>
 </sst>
 </file>
@@ -1104,10 +1110,16 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1116,31 +1128,25 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1490,86 +1496,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="57" t="s">
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="57" t="s">
+      <c r="V1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="57" t="s">
+      <c r="W1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="57" t="s">
+      <c r="X1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="57" t="s">
+      <c r="Y1" s="60" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1591,11 +1597,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2323,6 +2329,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2335,14 +2349,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2382,46 +2388,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="63" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2456,13 +2462,13 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="66"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="69"/>
+      <c r="K2" s="67"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
@@ -3482,6 +3488,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3490,12 +3502,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3505,9 +3511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+      <selection pane="topRight" activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3534,43 +3540,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="70" t="s">
@@ -3604,20 +3610,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -7523,16 +7529,28 @@
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B87" s="24"/>
+      <c r="B87" s="24" t="s">
+        <v>236</v>
+      </c>
       <c r="C87" s="24"/>
-      <c r="D87" s="25"/>
+      <c r="D87" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E87" s="33"/>
-      <c r="F87" s="24"/>
+      <c r="F87" s="24" t="s">
+        <v>237</v>
+      </c>
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
+      <c r="I87" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J87" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K87" s="26">
+        <v>43295</v>
+      </c>
       <c r="L87" s="25"/>
       <c r="M87" s="24"/>
       <c r="N87" s="25"/>
@@ -7551,12 +7569,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -7565,6 +7577,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="241">
   <si>
     <t>STT</t>
   </si>
@@ -734,6 +734,15 @@
   </si>
   <si>
     <t>Chau Tran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phan Ngọc Minh Trí </t>
+  </si>
+  <si>
+    <t>0905159908</t>
+  </si>
+  <si>
+    <t>Thông báo khóa sau</t>
   </si>
 </sst>
 </file>
@@ -1110,16 +1119,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1128,25 +1131,31 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1496,86 +1505,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="62" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="60" t="s">
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="60" t="s">
+      <c r="V1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="60" t="s">
+      <c r="W1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="60" t="s">
+      <c r="X1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="60" t="s">
+      <c r="Y1" s="57" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,11 +1606,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2329,14 +2338,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2349,6 +2350,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2388,46 +2397,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="67" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2462,13 +2471,13 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="69"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="67"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
@@ -3488,12 +3497,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3502,6 +3505,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3509,11 +3518,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA87"/>
+  <dimension ref="A1:AA89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L87" sqref="L87"/>
+      <selection pane="topRight" activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3540,43 +3549,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="70" t="s">
@@ -3610,20 +3619,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -6171,7 +6180,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
-        <f t="shared" ref="A58:A87" si="2">1+A57</f>
+        <f t="shared" ref="A58:A88" si="2">1+A57</f>
         <v>56</v>
       </c>
       <c r="B58" s="24" t="s">
@@ -7252,7 +7261,7 @@
       <c r="Y80" s="25"/>
       <c r="Z80" s="25"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -7299,7 +7308,7 @@
       <c r="Y81" s="25"/>
       <c r="Z81" s="25"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -7344,7 +7353,7 @@
       <c r="Y82" s="25"/>
       <c r="Z82" s="25"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -7389,7 +7398,7 @@
       <c r="Y83" s="25"/>
       <c r="Z83" s="25"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -7434,7 +7443,7 @@
       <c r="Y84" s="25"/>
       <c r="Z84" s="25"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -7479,7 +7488,7 @@
       <c r="Y85" s="25"/>
       <c r="Z85" s="25"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -7509,7 +7518,9 @@
       <c r="L86" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="M86" s="24"/>
+      <c r="M86" s="24" t="s">
+        <v>240</v>
+      </c>
       <c r="N86" s="25"/>
       <c r="O86" s="25"/>
       <c r="P86" s="25"/>
@@ -7524,7 +7535,7 @@
       <c r="Y86" s="25"/>
       <c r="Z86" s="25"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -7567,8 +7578,89 @@
       <c r="Y87" s="25"/>
       <c r="Z87" s="25"/>
     </row>
+    <row r="88" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="14">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D88" s="25"/>
+      <c r="E88" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J88" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K88" s="26">
+        <v>43297</v>
+      </c>
+      <c r="L88" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M88" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="25"/>
+      <c r="U88" s="25"/>
+      <c r="V88" s="25"/>
+      <c r="W88" s="25"/>
+      <c r="X88" s="25"/>
+      <c r="Y88" s="25"/>
+      <c r="Z88" s="25"/>
+      <c r="AA88" s="50"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="25"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="25"/>
+      <c r="O89" s="25"/>
+      <c r="P89" s="25"/>
+      <c r="Q89" s="25"/>
+      <c r="R89" s="25"/>
+      <c r="S89" s="25"/>
+      <c r="T89" s="25"/>
+      <c r="U89" s="25"/>
+      <c r="V89" s="25"/>
+      <c r="W89" s="25"/>
+      <c r="X89" s="25"/>
+      <c r="Y89" s="25"/>
+      <c r="Z89" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -7577,12 +7669,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="243">
   <si>
     <t>STT</t>
   </si>
@@ -743,6 +743,12 @@
   </si>
   <si>
     <t>Thông báo khóa sau</t>
+  </si>
+  <si>
+    <t>Thùy</t>
+  </si>
+  <si>
+    <t>Phan Thùy</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1125,16 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1131,31 +1143,25 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1505,86 +1511,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="57" t="s">
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="57" t="s">
+      <c r="V1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="57" t="s">
+      <c r="W1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="57" t="s">
+      <c r="X1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="57" t="s">
+      <c r="Y1" s="60" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1606,11 +1612,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2338,6 +2344,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2350,14 +2364,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2397,46 +2403,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="63" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2471,13 +2477,13 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="66"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="69"/>
+      <c r="K2" s="67"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
@@ -3497,6 +3503,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3505,12 +3517,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3518,11 +3524,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA89"/>
+  <dimension ref="A1:AA92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N88" sqref="N88"/>
+      <selection pane="topRight" activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3549,43 +3555,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="70" t="s">
@@ -3619,20 +3625,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -6180,7 +6186,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
-        <f t="shared" ref="A58:A88" si="2">1+A57</f>
+        <f t="shared" ref="A58:A92" si="2">1+A57</f>
         <v>56</v>
       </c>
       <c r="B58" s="24" t="s">
@@ -7626,18 +7632,35 @@
       <c r="AA88" s="50"/>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
+      <c r="A89" s="14">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>241</v>
+      </c>
       <c r="C89" s="24"/>
-      <c r="D89" s="25"/>
+      <c r="D89" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E89" s="33"/>
-      <c r="F89" s="24"/>
+      <c r="F89" s="24" t="s">
+        <v>242</v>
+      </c>
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="25"/>
-      <c r="L89" s="25"/>
+      <c r="I89" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J89" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K89" s="26">
+        <v>43299</v>
+      </c>
+      <c r="L89" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="M89" s="24"/>
       <c r="N89" s="25"/>
       <c r="O89" s="25"/>
@@ -7653,14 +7676,101 @@
       <c r="Y89" s="25"/>
       <c r="Z89" s="25"/>
     </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A90" s="14">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="25"/>
+      <c r="R90" s="25"/>
+      <c r="S90" s="25"/>
+      <c r="T90" s="25"/>
+      <c r="U90" s="25"/>
+      <c r="V90" s="25"/>
+      <c r="W90" s="25"/>
+      <c r="X90" s="25"/>
+      <c r="Y90" s="25"/>
+      <c r="Z90" s="25"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A91" s="14">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="25"/>
+      <c r="R91" s="25"/>
+      <c r="S91" s="25"/>
+      <c r="T91" s="25"/>
+      <c r="U91" s="25"/>
+      <c r="V91" s="25"/>
+      <c r="W91" s="25"/>
+      <c r="X91" s="25"/>
+      <c r="Y91" s="25"/>
+      <c r="Z91" s="25"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A92" s="14">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="25"/>
+      <c r="Q92" s="25"/>
+      <c r="R92" s="25"/>
+      <c r="S92" s="25"/>
+      <c r="T92" s="25"/>
+      <c r="U92" s="25"/>
+      <c r="V92" s="25"/>
+      <c r="W92" s="25"/>
+      <c r="X92" s="25"/>
+      <c r="Y92" s="25"/>
+      <c r="Z92" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -7669,6 +7779,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="251">
   <si>
     <t>STT</t>
   </si>
@@ -749,6 +749,30 @@
   </si>
   <si>
     <t>Phan Thùy</t>
+  </si>
+  <si>
+    <t>Bích Ngọc</t>
+  </si>
+  <si>
+    <t>Võ Thế Anh Nhi</t>
+  </si>
+  <si>
+    <t>Nhi Võ</t>
+  </si>
+  <si>
+    <t>Hoàng</t>
+  </si>
+  <si>
+    <t>Phát</t>
+  </si>
+  <si>
+    <t>01668896024</t>
+  </si>
+  <si>
+    <t>0985298196</t>
+  </si>
+  <si>
+    <t>01222425175</t>
   </si>
 </sst>
 </file>
@@ -3524,11 +3548,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA92"/>
+  <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G88" sqref="G88"/>
+      <selection pane="topRight" activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4936,7 +4960,9 @@
       <c r="D30" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="33"/>
+      <c r="E30" s="33" t="s">
+        <v>250</v>
+      </c>
       <c r="F30" s="24" t="s">
         <v>145</v>
       </c>
@@ -4954,18 +4980,42 @@
       <c r="L30" s="25"/>
       <c r="M30" s="24"/>
       <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
+      <c r="O30" s="25">
+        <v>5</v>
+      </c>
+      <c r="P30" s="25">
+        <v>13</v>
+      </c>
+      <c r="Q30" s="25">
+        <v>12</v>
+      </c>
+      <c r="R30" s="25">
+        <v>8</v>
+      </c>
+      <c r="S30" s="25">
+        <v>26</v>
+      </c>
+      <c r="T30" s="25">
+        <v>4</v>
+      </c>
+      <c r="U30" s="25">
+        <v>19</v>
+      </c>
+      <c r="V30" s="25">
+        <v>38</v>
+      </c>
+      <c r="W30" s="25">
+        <v>49</v>
+      </c>
+      <c r="X30" s="25">
+        <v>175</v>
+      </c>
+      <c r="Y30" s="25">
+        <v>210</v>
+      </c>
+      <c r="Z30" s="25">
+        <v>385</v>
+      </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
@@ -6186,7 +6236,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
-        <f t="shared" ref="A58:A92" si="2">1+A57</f>
+        <f t="shared" ref="A58:A91" si="2">1+A57</f>
         <v>56</v>
       </c>
       <c r="B58" s="24" t="s">
@@ -7681,17 +7731,29 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="B90" s="24"/>
+      <c r="B90" s="24" t="s">
+        <v>243</v>
+      </c>
       <c r="C90" s="24"/>
-      <c r="D90" s="25"/>
+      <c r="D90" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E90" s="33"/>
       <c r="F90" s="24"/>
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
-      <c r="I90" s="25"/>
-      <c r="J90" s="25"/>
-      <c r="K90" s="25"/>
-      <c r="L90" s="25"/>
+      <c r="I90" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J90" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K90" s="26">
+        <v>43300</v>
+      </c>
+      <c r="L90" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="M90" s="24"/>
       <c r="N90" s="25"/>
       <c r="O90" s="25"/>
@@ -7712,62 +7774,207 @@
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="B91" s="24"/>
+      <c r="B91" s="24" t="s">
+        <v>244</v>
+      </c>
       <c r="C91" s="24"/>
-      <c r="D91" s="25"/>
+      <c r="D91" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E91" s="33"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="25"/>
-      <c r="K91" s="25"/>
-      <c r="L91" s="25"/>
+      <c r="F91" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="G91" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H91" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I91" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J91" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K91" s="26">
+        <v>43302</v>
+      </c>
+      <c r="L91" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M91" s="24"/>
       <c r="N91" s="25"/>
-      <c r="O91" s="25"/>
-      <c r="P91" s="25"/>
-      <c r="Q91" s="25"/>
-      <c r="R91" s="25"/>
-      <c r="S91" s="25"/>
-      <c r="T91" s="25"/>
-      <c r="U91" s="25"/>
-      <c r="V91" s="25"/>
-      <c r="W91" s="25"/>
-      <c r="X91" s="25"/>
-      <c r="Y91" s="25"/>
-      <c r="Z91" s="25"/>
+      <c r="O91" s="25">
+        <v>0</v>
+      </c>
+      <c r="P91" s="25">
+        <v>14</v>
+      </c>
+      <c r="Q91" s="25">
+        <v>10</v>
+      </c>
+      <c r="R91" s="25">
+        <v>10</v>
+      </c>
+      <c r="S91" s="25">
+        <v>17</v>
+      </c>
+      <c r="T91" s="25">
+        <v>3</v>
+      </c>
+      <c r="U91" s="25">
+        <v>16</v>
+      </c>
+      <c r="V91" s="25">
+        <v>34</v>
+      </c>
+      <c r="W91" s="25">
+        <v>36</v>
+      </c>
+      <c r="X91" s="25">
+        <v>150</v>
+      </c>
+      <c r="Y91" s="25">
+        <v>125</v>
+      </c>
+      <c r="Z91" s="25">
+        <v>275</v>
+      </c>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
-        <f t="shared" si="2"/>
+        <f>1+A91</f>
         <v>90</v>
       </c>
-      <c r="B92" s="24"/>
+      <c r="B92" s="24" t="s">
+        <v>246</v>
+      </c>
       <c r="C92" s="24"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="33"/>
+      <c r="D92" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E92" s="33" t="s">
+        <v>248</v>
+      </c>
       <c r="F92" s="24"/>
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="25"/>
-      <c r="K92" s="25"/>
+      <c r="I92" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J92" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K92" s="26">
+        <v>43302</v>
+      </c>
       <c r="L92" s="25"/>
       <c r="M92" s="24"/>
       <c r="N92" s="25"/>
-      <c r="O92" s="25"/>
-      <c r="P92" s="25"/>
-      <c r="Q92" s="25"/>
-      <c r="R92" s="25"/>
-      <c r="S92" s="25"/>
-      <c r="T92" s="25"/>
-      <c r="U92" s="25"/>
-      <c r="V92" s="25"/>
-      <c r="W92" s="25"/>
-      <c r="X92" s="25"/>
-      <c r="Y92" s="25"/>
-      <c r="Z92" s="25"/>
+      <c r="O92" s="25">
+        <v>2</v>
+      </c>
+      <c r="P92" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q92" s="25">
+        <v>3</v>
+      </c>
+      <c r="R92" s="25">
+        <v>3</v>
+      </c>
+      <c r="S92" s="25">
+        <v>17</v>
+      </c>
+      <c r="T92" s="25">
+        <v>5</v>
+      </c>
+      <c r="U92" s="25">
+        <v>1</v>
+      </c>
+      <c r="V92" s="25">
+        <v>13</v>
+      </c>
+      <c r="W92" s="25">
+        <v>23</v>
+      </c>
+      <c r="X92" s="25">
+        <v>40</v>
+      </c>
+      <c r="Y92" s="25">
+        <v>45</v>
+      </c>
+      <c r="Z92" s="25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A93" s="14">
+        <f>1+A92</f>
+        <v>91</v>
+      </c>
+      <c r="B93" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="C93" s="24"/>
+      <c r="D93" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E93" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="F93" s="24"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J93" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K93" s="26">
+        <v>43302</v>
+      </c>
+      <c r="L93" s="25"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="25">
+        <v>5</v>
+      </c>
+      <c r="P93" s="25">
+        <v>10</v>
+      </c>
+      <c r="Q93" s="25">
+        <v>4</v>
+      </c>
+      <c r="R93" s="25">
+        <v>1</v>
+      </c>
+      <c r="S93" s="25">
+        <v>13</v>
+      </c>
+      <c r="T93" s="25">
+        <v>2</v>
+      </c>
+      <c r="U93" s="25">
+        <v>0</v>
+      </c>
+      <c r="V93" s="25">
+        <v>20</v>
+      </c>
+      <c r="W93" s="25">
+        <v>15</v>
+      </c>
+      <c r="X93" s="25">
+        <v>75</v>
+      </c>
+      <c r="Y93" s="25">
+        <v>5</v>
+      </c>
+      <c r="Z93" s="25">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="257">
   <si>
     <t>STT</t>
   </si>
@@ -773,6 +773,24 @@
   </si>
   <si>
     <t>01222425175</t>
+  </si>
+  <si>
+    <t>Công Phúc</t>
+  </si>
+  <si>
+    <t>01289164932</t>
+  </si>
+  <si>
+    <t>Cá nhân</t>
+  </si>
+  <si>
+    <t>01216837207</t>
+  </si>
+  <si>
+    <t>Trần Thị Thanh Thủy</t>
+  </si>
+  <si>
+    <t>0935434824</t>
   </si>
 </sst>
 </file>
@@ -1149,16 +1167,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1167,25 +1179,31 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1535,86 +1553,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="62" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="60" t="s">
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="60" t="s">
+      <c r="V1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="60" t="s">
+      <c r="W1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="60" t="s">
+      <c r="X1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="60" t="s">
+      <c r="Y1" s="57" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1636,11 +1654,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2368,14 +2386,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2388,6 +2398,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2427,46 +2445,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="67" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2501,13 +2519,13 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="69"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="67"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
@@ -3527,12 +3545,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3541,6 +3553,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3548,11 +3566,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA93"/>
+  <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I91" sqref="I91"/>
+      <selection pane="topRight" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3579,43 +3597,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="70" t="s">
@@ -3649,20 +3667,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -7976,8 +7994,180 @@
         <v>80</v>
       </c>
     </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A94" s="14">
+        <f t="shared" ref="A94:A97" si="3">1+A93</f>
+        <v>92</v>
+      </c>
+      <c r="B94" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C94" s="24"/>
+      <c r="D94" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E94" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="F94" s="24"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="J94" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K94" s="26">
+        <v>43302</v>
+      </c>
+      <c r="L94" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M94" s="24"/>
+      <c r="N94" s="25"/>
+      <c r="O94" s="25"/>
+      <c r="P94" s="25"/>
+      <c r="Q94" s="25"/>
+      <c r="R94" s="25"/>
+      <c r="S94" s="25"/>
+      <c r="T94" s="25"/>
+      <c r="U94" s="25"/>
+      <c r="V94" s="25"/>
+      <c r="W94" s="25"/>
+      <c r="X94" s="25"/>
+      <c r="Y94" s="25"/>
+      <c r="Z94" s="25"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A95" s="14">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" s="24"/>
+      <c r="D95" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="F95" s="24"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="J95" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K95" s="26">
+        <v>43305</v>
+      </c>
+      <c r="L95" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M95" s="24"/>
+      <c r="N95" s="25"/>
+      <c r="O95" s="25"/>
+      <c r="P95" s="25"/>
+      <c r="Q95" s="25"/>
+      <c r="R95" s="25"/>
+      <c r="S95" s="25"/>
+      <c r="T95" s="25"/>
+      <c r="U95" s="25"/>
+      <c r="V95" s="25"/>
+      <c r="W95" s="25"/>
+      <c r="X95" s="25"/>
+      <c r="Y95" s="25"/>
+      <c r="Z95" s="25"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A96" s="14">
+        <f>1+A95</f>
+        <v>94</v>
+      </c>
+      <c r="B96" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="C96" s="24"/>
+      <c r="D96" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="F96" s="24"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J96" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K96" s="26">
+        <v>43305</v>
+      </c>
+      <c r="L96" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M96" s="24"/>
+      <c r="N96" s="25"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="25"/>
+      <c r="Q96" s="25"/>
+      <c r="R96" s="25"/>
+      <c r="S96" s="25"/>
+      <c r="T96" s="25"/>
+      <c r="U96" s="25"/>
+      <c r="V96" s="25"/>
+      <c r="W96" s="25"/>
+      <c r="X96" s="25"/>
+      <c r="Y96" s="25"/>
+      <c r="Z96" s="25"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" s="14">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="25"/>
+      <c r="O97" s="25"/>
+      <c r="P97" s="25"/>
+      <c r="Q97" s="25"/>
+      <c r="R97" s="25"/>
+      <c r="S97" s="25"/>
+      <c r="T97" s="25"/>
+      <c r="U97" s="25"/>
+      <c r="V97" s="25"/>
+      <c r="W97" s="25"/>
+      <c r="X97" s="25"/>
+      <c r="Y97" s="25"/>
+      <c r="Z97" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -7986,12 +8176,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="257">
   <si>
     <t>STT</t>
   </si>
@@ -1167,10 +1167,16 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1179,31 +1185,25 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1553,86 +1553,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="57" t="s">
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="57" t="s">
+      <c r="V1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="57" t="s">
+      <c r="W1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="57" t="s">
+      <c r="X1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="57" t="s">
+      <c r="Y1" s="60" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1654,11 +1654,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2386,6 +2386,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2398,14 +2406,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2445,46 +2445,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="63" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2519,13 +2519,13 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="66"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="69"/>
+      <c r="K2" s="67"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
@@ -3545,6 +3545,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3553,12 +3559,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3568,9 +3568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D98" sqref="D98"/>
+      <selection pane="topRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3597,43 +3597,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="70" t="s">
@@ -3667,20 +3667,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -4984,8 +4984,12 @@
       <c r="F30" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
+      <c r="G30" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I30" s="25" t="s">
         <v>27</v>
       </c>
@@ -4995,7 +4999,9 @@
       <c r="K30" s="26">
         <v>43276</v>
       </c>
-      <c r="L30" s="25"/>
+      <c r="L30" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="M30" s="24"/>
       <c r="N30" s="25"/>
       <c r="O30" s="25">
@@ -8100,8 +8106,12 @@
         <v>256</v>
       </c>
       <c r="F96" s="24"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
+      <c r="G96" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H96" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I96" s="25" t="s">
         <v>42</v>
       </c>
@@ -8162,12 +8172,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -8176,6 +8180,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="258">
   <si>
     <t>STT</t>
   </si>
@@ -791,6 +791,9 @@
   </si>
   <si>
     <t>0935434824</t>
+  </si>
+  <si>
+    <t>Cu Bôn</t>
   </si>
 </sst>
 </file>
@@ -1167,16 +1170,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1185,25 +1182,31 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1553,86 +1556,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="62" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="60" t="s">
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="60" t="s">
+      <c r="V1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="60" t="s">
+      <c r="W1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="60" t="s">
+      <c r="X1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="60" t="s">
+      <c r="Y1" s="57" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1654,11 +1657,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2386,14 +2389,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2406,6 +2401,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2445,46 +2448,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="67" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2519,13 +2522,13 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="69"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="67"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
@@ -3545,12 +3548,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3559,6 +3556,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3568,9 +3571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I30" sqref="I30"/>
+      <selection pane="topRight" activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3597,43 +3600,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="70" t="s">
@@ -3667,20 +3670,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -8144,17 +8147,31 @@
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="B97" s="24"/>
+      <c r="B97" s="24" t="s">
+        <v>257</v>
+      </c>
       <c r="C97" s="24"/>
-      <c r="D97" s="25"/>
+      <c r="D97" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="E97" s="33"/>
-      <c r="F97" s="24"/>
+      <c r="F97" s="24" t="s">
+        <v>257</v>
+      </c>
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="25"/>
-      <c r="K97" s="25"/>
-      <c r="L97" s="25"/>
+      <c r="I97" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J97" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K97" s="26">
+        <v>43305</v>
+      </c>
+      <c r="L97" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M97" s="24"/>
       <c r="N97" s="25"/>
       <c r="O97" s="25"/>
@@ -8172,6 +8189,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -8180,12 +8203,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="259">
   <si>
     <t>STT</t>
   </si>
@@ -794,6 +794,9 @@
   </si>
   <si>
     <t>Cu Bôn</t>
+  </si>
+  <si>
+    <t>Trương Thị Thảo Uyên</t>
   </si>
 </sst>
 </file>
@@ -1170,10 +1173,16 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1182,31 +1191,25 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1556,86 +1559,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="57" t="s">
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="57" t="s">
+      <c r="V1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="57" t="s">
+      <c r="W1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="57" t="s">
+      <c r="X1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="57" t="s">
+      <c r="Y1" s="60" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1657,11 +1660,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2389,6 +2392,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2401,14 +2412,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2448,46 +2451,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="63" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2522,13 +2525,13 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="66"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="69"/>
+      <c r="K2" s="67"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
@@ -3548,6 +3551,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3556,12 +3565,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3569,11 +3572,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA97"/>
+  <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L97" sqref="L97"/>
+      <selection pane="topRight" activeCell="AA88" sqref="AA88:EO88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3600,43 +3603,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="70" t="s">
@@ -3670,20 +3673,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -8005,7 +8008,7 @@
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
-        <f t="shared" ref="A94:A97" si="3">1+A93</f>
+        <f t="shared" ref="A94:A98" si="3">1+A93</f>
         <v>92</v>
       </c>
       <c r="B94" s="53" t="s">
@@ -8187,14 +8190,51 @@
       <c r="Y97" s="25"/>
       <c r="Z97" s="25"/>
     </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" s="14">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="C98" s="24"/>
+      <c r="D98" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="33"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H98" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K98" s="26">
+        <v>43309</v>
+      </c>
+      <c r="L98" s="25"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="25"/>
+      <c r="O98" s="25"/>
+      <c r="P98" s="25"/>
+      <c r="Q98" s="25"/>
+      <c r="R98" s="25"/>
+      <c r="S98" s="25"/>
+      <c r="T98" s="25"/>
+      <c r="U98" s="25"/>
+      <c r="V98" s="25"/>
+      <c r="W98" s="25"/>
+      <c r="X98" s="25"/>
+      <c r="Y98" s="25"/>
+      <c r="Z98" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -8203,6 +8243,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="262">
   <si>
     <t>STT</t>
   </si>
@@ -643,9 +643,6 @@
     <t>Trần Sung Ngọc</t>
   </si>
   <si>
-    <t>Cao Thị Ly Na</t>
-  </si>
-  <si>
     <t>Khánh Hạnh</t>
   </si>
   <si>
@@ -793,17 +790,29 @@
     <t>0935434824</t>
   </si>
   <si>
-    <t>Cu Bôn</t>
-  </si>
-  <si>
     <t>Trương Thị Thảo Uyên</t>
+  </si>
+  <si>
+    <t>Traần Quang Đức</t>
+  </si>
+  <si>
+    <t>Quang Ducc Tran</t>
+  </si>
+  <si>
+    <t>Yến July</t>
+  </si>
+  <si>
+    <t>Yến</t>
+  </si>
+  <si>
+    <t>Châu Thị Ly Na</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -873,6 +882,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D2129"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1021,7 +1036,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1173,16 +1188,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1191,19 +1200,16 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1212,9 +1218,19 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1559,86 +1575,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="62" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="60" t="s">
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="60" t="s">
+      <c r="V1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="60" t="s">
+      <c r="W1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="60" t="s">
+      <c r="X1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="60" t="s">
+      <c r="Y1" s="57" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1660,11 +1676,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2392,14 +2408,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2412,6 +2420,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2451,46 +2467,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="67" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2525,13 +2541,13 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="69"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="67"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
@@ -3551,12 +3567,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3565,6 +3575,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3572,11 +3588,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA98"/>
+  <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA88" sqref="AA88:EO88"/>
+      <selection pane="topRight" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3603,43 +3619,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="70" t="s">
@@ -3673,20 +3689,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -4985,7 +5001,7 @@
         <v>69</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>145</v>
@@ -6221,7 +6237,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="25" t="s">
@@ -6546,7 +6562,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="25" t="s">
@@ -6761,7 +6777,7 @@
         <v>69</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F68" s="24" t="s">
         <v>204</v>
@@ -6812,7 +6828,7 @@
         <v>76</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F69" s="24" t="s">
         <v>206</v>
@@ -6856,7 +6872,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="25" t="s">
@@ -6864,7 +6880,7 @@
       </c>
       <c r="E70" s="33"/>
       <c r="F70" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
@@ -6901,7 +6917,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="25" t="s">
@@ -6909,7 +6925,7 @@
       </c>
       <c r="E71" s="33"/>
       <c r="F71" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
@@ -6946,7 +6962,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C72" s="24"/>
       <c r="D72" s="25" t="s">
@@ -6993,7 +7009,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C73" s="24"/>
       <c r="D73" s="25" t="s">
@@ -7040,14 +7056,14 @@
         <v>72</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C74" s="24"/>
       <c r="D74" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F74" s="24"/>
       <c r="G74" s="25" t="s">
@@ -7089,13 +7105,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C75" s="24"/>
       <c r="D75" s="25"/>
       <c r="E75" s="33"/>
       <c r="F75" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
@@ -7132,7 +7148,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C76" s="24"/>
       <c r="D76" s="25" t="s">
@@ -7140,7 +7156,7 @@
       </c>
       <c r="E76" s="33"/>
       <c r="F76" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
@@ -7177,7 +7193,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C77" s="24"/>
       <c r="D77" s="25" t="s">
@@ -7185,7 +7201,7 @@
       </c>
       <c r="E77" s="33"/>
       <c r="F77" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
@@ -7222,7 +7238,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C78" s="24"/>
       <c r="D78" s="25" t="s">
@@ -7230,7 +7246,7 @@
       </c>
       <c r="E78" s="33"/>
       <c r="F78" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
@@ -7267,7 +7283,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="25" t="s">
@@ -7308,7 +7324,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="25" t="s">
@@ -7316,7 +7332,7 @@
       </c>
       <c r="E80" s="33"/>
       <c r="F80" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
@@ -7353,17 +7369,17 @@
         <v>79</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
@@ -7400,14 +7416,14 @@
         <v>80</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="25" t="s">
         <v>76</v>
       </c>
       <c r="E82" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F82" s="24"/>
       <c r="G82" s="25"/>
@@ -7445,14 +7461,14 @@
         <v>81</v>
       </c>
       <c r="B83" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C83" s="24"/>
       <c r="D83" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E83" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F83" s="24"/>
       <c r="G83" s="25"/>
@@ -7490,7 +7506,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C84" s="24"/>
       <c r="D84" s="25" t="s">
@@ -7498,7 +7514,7 @@
       </c>
       <c r="E84" s="33"/>
       <c r="F84" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
@@ -7535,7 +7551,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C85" s="24"/>
       <c r="D85" s="25" t="s">
@@ -7543,7 +7559,7 @@
       </c>
       <c r="E85" s="33"/>
       <c r="F85" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
@@ -7580,7 +7596,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="25" t="s">
@@ -7588,7 +7604,7 @@
       </c>
       <c r="E86" s="33"/>
       <c r="F86" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
@@ -7605,7 +7621,7 @@
         <v>60</v>
       </c>
       <c r="M86" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N86" s="25"/>
       <c r="O86" s="25"/>
@@ -7627,7 +7643,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C87" s="24"/>
       <c r="D87" s="25" t="s">
@@ -7635,7 +7651,7 @@
       </c>
       <c r="E87" s="33"/>
       <c r="F87" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
@@ -7670,14 +7686,14 @@
         <v>86</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D88" s="25"/>
       <c r="E88" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
@@ -7694,7 +7710,7 @@
         <v>58</v>
       </c>
       <c r="M88" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N88" s="25"/>
       <c r="O88" s="25"/>
@@ -7717,7 +7733,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C89" s="24"/>
       <c r="D89" s="25" t="s">
@@ -7725,7 +7741,7 @@
       </c>
       <c r="E89" s="33"/>
       <c r="F89" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
@@ -7762,7 +7778,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C90" s="24"/>
       <c r="D90" s="25" t="s">
@@ -7805,7 +7821,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C91" s="24"/>
       <c r="D91" s="25" t="s">
@@ -7813,7 +7829,7 @@
       </c>
       <c r="E91" s="33"/>
       <c r="F91" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G91" s="25" t="s">
         <v>39</v>
@@ -7878,14 +7894,14 @@
         <v>90</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C92" s="24"/>
       <c r="D92" s="25" t="s">
         <v>76</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F92" s="24"/>
       <c r="G92" s="25"/>
@@ -7945,14 +7961,14 @@
         <v>91</v>
       </c>
       <c r="B93" s="53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C93" s="24"/>
       <c r="D93" s="25" t="s">
         <v>76</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F93" s="24"/>
       <c r="G93" s="25"/>
@@ -8008,24 +8024,24 @@
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
-        <f t="shared" ref="A94:A98" si="3">1+A93</f>
+        <f t="shared" ref="A94:A102" si="3">1+A93</f>
         <v>92</v>
       </c>
       <c r="B94" s="53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C94" s="24"/>
       <c r="D94" s="25" t="s">
         <v>76</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F94" s="24"/>
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
       <c r="I94" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J94" s="25" t="s">
         <v>111</v>
@@ -8064,13 +8080,13 @@
         <v>69</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F95" s="24"/>
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J95" s="25" t="s">
         <v>111</v>
@@ -8102,14 +8118,14 @@
         <v>94</v>
       </c>
       <c r="B96" s="53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C96" s="24"/>
       <c r="D96" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F96" s="24"/>
       <c r="G96" s="25" t="s">
@@ -8159,7 +8175,7 @@
       </c>
       <c r="E97" s="33"/>
       <c r="F97" s="24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
@@ -8196,7 +8212,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="53" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C98" s="24"/>
       <c r="D98" s="25" t="s">
@@ -8233,8 +8249,150 @@
       <c r="Y98" s="25"/>
       <c r="Z98" s="25"/>
     </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" s="14">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="B99" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="C99" s="24"/>
+      <c r="D99" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="33"/>
+      <c r="F99" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J99" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K99" s="26">
+        <v>43310</v>
+      </c>
+      <c r="L99" s="25"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="25"/>
+      <c r="O99" s="25"/>
+      <c r="P99" s="25"/>
+      <c r="Q99" s="25"/>
+      <c r="R99" s="25"/>
+      <c r="S99" s="25"/>
+      <c r="T99" s="25"/>
+      <c r="U99" s="25"/>
+      <c r="V99" s="25"/>
+      <c r="W99" s="25"/>
+      <c r="X99" s="25"/>
+      <c r="Y99" s="25"/>
+      <c r="Z99" s="25"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A100" s="14">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="25"/>
+      <c r="L100" s="25"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="25"/>
+      <c r="O100" s="25"/>
+      <c r="P100" s="25"/>
+      <c r="Q100" s="25"/>
+      <c r="R100" s="25"/>
+      <c r="S100" s="25"/>
+      <c r="T100" s="25"/>
+      <c r="U100" s="25"/>
+      <c r="V100" s="25"/>
+      <c r="W100" s="25"/>
+      <c r="X100" s="25"/>
+      <c r="Y100" s="25"/>
+      <c r="Z100" s="25"/>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A101" s="14">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="25"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="25"/>
+      <c r="O101" s="25"/>
+      <c r="P101" s="25"/>
+      <c r="Q101" s="25"/>
+      <c r="R101" s="25"/>
+      <c r="S101" s="25"/>
+      <c r="T101" s="25"/>
+      <c r="U101" s="25"/>
+      <c r="V101" s="25"/>
+      <c r="W101" s="25"/>
+      <c r="X101" s="25"/>
+      <c r="Y101" s="25"/>
+      <c r="Z101" s="25"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A102" s="14">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="25"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="25"/>
+      <c r="P102" s="25"/>
+      <c r="Q102" s="25"/>
+      <c r="R102" s="25"/>
+      <c r="S102" s="25"/>
+      <c r="T102" s="25"/>
+      <c r="U102" s="25"/>
+      <c r="V102" s="25"/>
+      <c r="W102" s="25"/>
+      <c r="X102" s="25"/>
+      <c r="Y102" s="25"/>
+      <c r="Z102" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -8243,12 +8401,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC tháng 3" sheetId="2" r:id="rId1"/>
     <sheet name="TOEIC tháng 5" sheetId="3" r:id="rId2"/>
     <sheet name="TOEIC tháng 7" sheetId="4" r:id="rId3"/>
+    <sheet name="TOEIC tháng 7 (2)" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TOEIC tháng 3'!$A$1:$Y$3</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="269">
   <si>
     <t>STT</t>
   </si>
@@ -806,6 +807,27 @@
   </si>
   <si>
     <t>Châu Thị Ly Na</t>
+  </si>
+  <si>
+    <t>Thảo Phương</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Pháp</t>
+  </si>
+  <si>
+    <t>0933803540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Thanh Minh </t>
+  </si>
+  <si>
+    <t>0989229603</t>
+  </si>
+  <si>
+    <t>Dâu Tây</t>
+  </si>
+  <si>
+    <t>Gọi khóa mới</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1058,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1188,6 +1210,16 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1230,7 +1262,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1575,86 +1606,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60" t="s">
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="57" t="s">
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="57" t="s">
+      <c r="V1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="57" t="s">
+      <c r="W1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="57" t="s">
+      <c r="X1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="57" t="s">
+      <c r="Y1" s="61" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1676,11 +1707,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2438,7 +2469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
@@ -2467,46 +2498,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="71" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2537,20 +2568,20 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,9 +3621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+    <sheetView topLeftCell="A78" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B65" sqref="B65"/>
+      <selection pane="topRight" activeCell="M95" sqref="M95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3619,46 +3650,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="70" t="s">
+      <c r="N1" s="74" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="55" t="s">
@@ -3689,20 +3720,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -8052,7 +8083,9 @@
       <c r="L94" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M94" s="24"/>
+      <c r="M94" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="N94" s="25"/>
       <c r="O94" s="25"/>
       <c r="P94" s="25"/>
@@ -8097,7 +8130,9 @@
       <c r="L95" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M95" s="24"/>
+      <c r="M95" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="N95" s="25"/>
       <c r="O95" s="25"/>
       <c r="P95" s="25"/>
@@ -8262,7 +8297,7 @@
         <v>69</v>
       </c>
       <c r="E99" s="33"/>
-      <c r="F99" s="71" t="s">
+      <c r="F99" s="57" t="s">
         <v>259</v>
       </c>
       <c r="G99" s="25"/>
@@ -8405,4 +8440,522 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="29" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="29" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" style="29" customWidth="1"/>
+    <col min="15" max="21" width="9.140625" style="29"/>
+    <col min="22" max="22" width="17.7109375" style="29" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" style="29" customWidth="1"/>
+    <col min="24" max="25" width="9.140625" style="29"/>
+    <col min="26" max="26" width="13.140625" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+    </row>
+    <row r="3" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26">
+        <v>43314</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="50"/>
+    </row>
+    <row r="4" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <f>1+A3</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26">
+        <v>43314</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="50"/>
+    </row>
+    <row r="5" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <f t="shared" ref="A5:A12" si="0">1+A4</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26">
+        <v>43314</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="50"/>
+    </row>
+    <row r="6" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26">
+        <v>43314</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="50"/>
+    </row>
+    <row r="7" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="33"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26">
+        <v>43330</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="50"/>
+    </row>
+    <row r="8" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="33"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26">
+        <v>43331</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="50"/>
+    </row>
+    <row r="9" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="50"/>
+    </row>
+    <row r="10" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="33"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="50"/>
+    </row>
+    <row r="11" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="33"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="50"/>
+    </row>
+    <row r="12" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="33"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="274">
   <si>
     <t>STT</t>
   </si>
@@ -828,6 +828,21 @@
   </si>
   <si>
     <t>Gọi khóa mới</t>
+  </si>
+  <si>
+    <t>Trần Thị Kiều Loan</t>
+  </si>
+  <si>
+    <t>Đặng Thị Như Yến</t>
+  </si>
+  <si>
+    <t>0917370950</t>
+  </si>
+  <si>
+    <t>01262519652</t>
+  </si>
+  <si>
+    <t>Lập</t>
   </si>
 </sst>
 </file>
@@ -1220,10 +1235,16 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1232,31 +1253,25 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1606,86 +1621,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="64" t="s">
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="61" t="s">
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="61" t="s">
+      <c r="V1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="61" t="s">
+      <c r="W1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="61" t="s">
+      <c r="X1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="61" t="s">
+      <c r="Y1" s="64" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1707,11 +1722,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2439,6 +2454,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2451,14 +2474,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2498,46 +2513,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="71" t="s">
+      <c r="N1" s="67" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2572,13 +2587,13 @@
       <c r="B2" s="68"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
-      <c r="E2" s="70"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
       <c r="J2" s="68"/>
-      <c r="K2" s="73"/>
+      <c r="K2" s="71"/>
       <c r="L2" s="68"/>
       <c r="M2" s="68"/>
       <c r="N2" s="68"/>
@@ -3598,6 +3613,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3606,12 +3627,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3650,43 +3665,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="61" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="74" t="s">
@@ -3720,20 +3735,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -8422,12 +8437,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -8436,6 +8445,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8448,7 +8463,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M6" sqref="M6"/>
+      <selection pane="topRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8475,43 +8490,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="61" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="74" t="s">
@@ -8545,20 +8560,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -8765,16 +8780,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="33"/>
+      <c r="B7" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>271</v>
+      </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="I7" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="J7" s="25"/>
       <c r="K7" s="26">
-        <v>43330</v>
-      </c>
-      <c r="L7" s="25"/>
+        <v>43316</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>273</v>
+      </c>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
@@ -8795,16 +8821,27 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="33"/>
+      <c r="B8" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>272</v>
+      </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="I8" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="J8" s="25"/>
       <c r="K8" s="26">
-        <v>43331</v>
-      </c>
-      <c r="L8" s="25"/>
+        <v>43316</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>273</v>
+      </c>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
@@ -8940,6 +8977,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -8948,12 +8991,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="279">
   <si>
     <t>STT</t>
   </si>
@@ -843,6 +843,21 @@
   </si>
   <si>
     <t>Lập</t>
+  </si>
+  <si>
+    <t>Minh Thu Vo</t>
+  </si>
+  <si>
+    <t>0935749822</t>
+  </si>
+  <si>
+    <t>Võ Thị Minh Thư</t>
+  </si>
+  <si>
+    <t>Test đầu vào</t>
+  </si>
+  <si>
+    <t>Teest đầu vào</t>
   </si>
 </sst>
 </file>
@@ -1235,16 +1250,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1253,25 +1262,31 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1621,86 +1636,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="66" t="s">
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="64" t="s">
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="64" t="s">
+      <c r="V1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="64" t="s">
+      <c r="W1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="64" t="s">
+      <c r="X1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="64" t="s">
+      <c r="Y1" s="61" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1722,11 +1737,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2454,14 +2469,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2474,6 +2481,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2513,46 +2528,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="71" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2587,13 +2602,13 @@
       <c r="B2" s="68"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
-      <c r="E2" s="73"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
       <c r="J2" s="68"/>
-      <c r="K2" s="71"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="68"/>
       <c r="M2" s="68"/>
       <c r="N2" s="68"/>
@@ -3613,12 +3628,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3627,6 +3636,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3665,43 +3680,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="62" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="74" t="s">
@@ -3735,20 +3750,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -8437,6 +8452,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -8445,12 +8466,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8463,7 +8478,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K8" sqref="K8"/>
+      <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8490,43 +8505,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="62" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="74" t="s">
@@ -8560,20 +8575,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -8801,6 +8816,9 @@
       <c r="L7" s="25" t="s">
         <v>273</v>
       </c>
+      <c r="M7" s="24" t="s">
+        <v>277</v>
+      </c>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
@@ -8842,6 +8860,9 @@
       <c r="L8" s="25" t="s">
         <v>273</v>
       </c>
+      <c r="M8" s="24" t="s">
+        <v>278</v>
+      </c>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
@@ -8862,14 +8883,33 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="B9" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>274</v>
+      </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="I9" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="25"/>
+      <c r="K9" s="26">
+        <v>43318</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>268</v>
+      </c>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
@@ -8977,12 +9017,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -8991,6 +9025,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="282">
   <si>
     <t>STT</t>
   </si>
@@ -858,6 +858,15 @@
   </si>
   <si>
     <t>Teest đầu vào</t>
+  </si>
+  <si>
+    <t>Trần Thị Ánh Thư</t>
+  </si>
+  <si>
+    <t>01215715152</t>
+  </si>
+  <si>
+    <t>Ánh Thư</t>
   </si>
 </sst>
 </file>
@@ -1250,10 +1259,16 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1262,31 +1277,25 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1636,86 +1645,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="64" t="s">
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="61" t="s">
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="61" t="s">
+      <c r="V1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="61" t="s">
+      <c r="W1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="61" t="s">
+      <c r="X1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="61" t="s">
+      <c r="Y1" s="64" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1737,11 +1746,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2469,6 +2478,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2481,14 +2498,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2528,46 +2537,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="71" t="s">
+      <c r="N1" s="67" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2602,13 +2611,13 @@
       <c r="B2" s="68"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
-      <c r="E2" s="70"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
       <c r="J2" s="68"/>
-      <c r="K2" s="73"/>
+      <c r="K2" s="71"/>
       <c r="L2" s="68"/>
       <c r="M2" s="68"/>
       <c r="N2" s="68"/>
@@ -3628,6 +3637,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3636,12 +3651,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3680,43 +3689,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="61" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="74" t="s">
@@ -3750,20 +3759,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -8452,12 +8461,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -8466,6 +8469,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8478,7 +8487,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M9" sqref="M9"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8505,43 +8514,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="61" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="74" t="s">
@@ -8575,20 +8584,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -8930,16 +8939,33 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="33"/>
+      <c r="B10" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>281</v>
+      </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="25"/>
+      <c r="K10" s="26">
+        <v>43320</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>268</v>
+      </c>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
@@ -9017,6 +9043,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -9025,12 +9057,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="293">
   <si>
     <t>STT</t>
   </si>
@@ -857,9 +857,6 @@
     <t>Test đầu vào</t>
   </si>
   <si>
-    <t>Teest đầu vào</t>
-  </si>
-  <si>
     <t>Trần Thị Ánh Thư</t>
   </si>
   <si>
@@ -867,6 +864,42 @@
   </si>
   <si>
     <t>Ánh Thư</t>
+  </si>
+  <si>
+    <t>Nguyễn Phan Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Hồ Thị Diệu Hòa</t>
+  </si>
+  <si>
+    <t>Cương</t>
+  </si>
+  <si>
+    <t>0935411049</t>
+  </si>
+  <si>
+    <t>01242090791</t>
+  </si>
+  <si>
+    <t>Cuong Pham</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Mỹ Dung</t>
+  </si>
+  <si>
+    <t>0973882400</t>
+  </si>
+  <si>
+    <t>Gọi hóa mới</t>
+  </si>
+  <si>
+    <t>Nguyễn Mỹ Huyền</t>
+  </si>
+  <si>
+    <t>Huyền Mỹ Nguyễn</t>
+  </si>
+  <si>
+    <t>016574894017</t>
   </si>
 </sst>
 </file>
@@ -1259,16 +1292,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1277,25 +1304,31 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1645,86 +1678,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="66" t="s">
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="64" t="s">
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="64" t="s">
+      <c r="V1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="64" t="s">
+      <c r="W1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="64" t="s">
+      <c r="X1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="64" t="s">
+      <c r="Y1" s="61" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1746,11 +1779,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2478,14 +2511,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2498,6 +2523,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2537,46 +2570,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="71" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2611,13 +2644,13 @@
       <c r="B2" s="68"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
-      <c r="E2" s="73"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
       <c r="J2" s="68"/>
-      <c r="K2" s="71"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="68"/>
       <c r="M2" s="68"/>
       <c r="N2" s="68"/>
@@ -3637,12 +3670,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3651,6 +3678,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3689,43 +3722,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="62" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="74" t="s">
@@ -3759,20 +3792,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -8461,6 +8494,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -8469,12 +8508,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8483,11 +8516,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8514,43 +8547,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="62" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="74" t="s">
@@ -8584,20 +8617,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -8715,7 +8748,7 @@
     </row>
     <row r="5" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <f t="shared" ref="A5:A12" si="0">1+A4</f>
+        <f t="shared" ref="A5:A17" si="0">1+A4</f>
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -8813,7 +8846,9 @@
       <c r="E7" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>110</v>
+      </c>
       <c r="H7" s="25"/>
       <c r="I7" s="25" t="s">
         <v>42</v>
@@ -8857,7 +8892,9 @@
       <c r="E8" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>110</v>
+      </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25" t="s">
         <v>42</v>
@@ -8870,7 +8907,7 @@
         <v>273</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
@@ -8940,18 +8977,20 @@
         <v>8</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="25" t="s">
+        <v>110</v>
+      </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25" t="s">
         <v>27</v>
@@ -8986,16 +9025,30 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="33"/>
+      <c r="B11" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>284</v>
+      </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="25"/>
+      <c r="K11" s="26">
+        <v>43322</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>268</v>
+      </c>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
@@ -9016,16 +9069,30 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>284</v>
+      </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="25"/>
+      <c r="K12" s="26">
+        <v>43322</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>289</v>
+      </c>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
@@ -9041,14 +9108,221 @@
       <c r="Z12" s="25"/>
       <c r="AA12" s="50"/>
     </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26">
+        <v>43323</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26">
+        <v>43325</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26">
+        <v>43326</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26">
+        <v>43328</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -9057,6 +9331,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -10,7 +10,7 @@
     <sheet name="TOEIC tháng 3" sheetId="2" r:id="rId1"/>
     <sheet name="TOEIC tháng 5" sheetId="3" r:id="rId2"/>
     <sheet name="TOEIC tháng 7" sheetId="4" r:id="rId3"/>
-    <sheet name="TOEIC tháng 7 (2)" sheetId="5" r:id="rId4"/>
+    <sheet name="TOEIC tháng 9" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TOEIC tháng 3'!$A$1:$Y$3</definedName>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="306">
   <si>
     <t>STT</t>
   </si>
@@ -824,9 +824,6 @@
     <t>0989229603</t>
   </si>
   <si>
-    <t>Dâu Tây</t>
-  </si>
-  <si>
     <t>Gọi khóa mới</t>
   </si>
   <si>
@@ -881,9 +878,6 @@
     <t>01242090791</t>
   </si>
   <si>
-    <t>Cuong Pham</t>
-  </si>
-  <si>
     <t>Đỗ Thị Mỹ Dung</t>
   </si>
   <si>
@@ -899,7 +893,52 @@
     <t>Huyền Mỹ Nguyễn</t>
   </si>
   <si>
-    <t>016574894017</t>
+    <t>Test đầu vào X</t>
+  </si>
+  <si>
+    <t>Gọi khóa mới X</t>
+  </si>
+  <si>
+    <t>01214202953</t>
+  </si>
+  <si>
+    <t>01674894017</t>
+  </si>
+  <si>
+    <t>Dâu Tây X</t>
+  </si>
+  <si>
+    <t>Cuong Pham X</t>
+  </si>
+  <si>
+    <t>Toeic A</t>
+  </si>
+  <si>
+    <t>TOEIC Tháng 9</t>
+  </si>
+  <si>
+    <t>Phan Ngọc Minh Trí</t>
+  </si>
+  <si>
+    <t>Hồ Xuân Lãm</t>
+  </si>
+  <si>
+    <t>Nguyễn Phương Thảo</t>
+  </si>
+  <si>
+    <t>Như Tú</t>
+  </si>
+  <si>
+    <t>Yến Nhi</t>
+  </si>
+  <si>
+    <t>Công Tiến</t>
+  </si>
+  <si>
+    <t>Thùy Trang</t>
+  </si>
+  <si>
+    <t>Công tiến</t>
   </si>
 </sst>
 </file>
@@ -1292,10 +1331,16 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1304,31 +1349,25 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1678,86 +1717,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="64" t="s">
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="61" t="s">
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="61" t="s">
+      <c r="V1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="61" t="s">
+      <c r="W1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="61" t="s">
+      <c r="X1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="61" t="s">
+      <c r="Y1" s="64" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1779,11 +1818,11 @@
       <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2511,6 +2550,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2523,14 +2570,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2541,9 +2580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A17" sqref="A17:XFD17"/>
+      <selection pane="topRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2570,46 +2609,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="71" t="s">
+      <c r="N1" s="67" t="s">
         <v>86</v>
       </c>
       <c r="O1" s="41" t="s">
@@ -2644,13 +2683,13 @@
       <c r="B2" s="68"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
-      <c r="E2" s="70"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
       <c r="J2" s="68"/>
-      <c r="K2" s="73"/>
+      <c r="K2" s="71"/>
       <c r="L2" s="68"/>
       <c r="M2" s="68"/>
       <c r="N2" s="68"/>
@@ -3670,6 +3709,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
@@ -3678,12 +3723,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3693,9 +3732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
+    <sheetView topLeftCell="A74" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M95" sqref="M95"/>
+      <selection pane="topRight" activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3722,43 +3761,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="61" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="74" t="s">
@@ -3792,20 +3831,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -8494,12 +8533,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -8508,6 +8541,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8516,11 +8555,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L6" sqref="L6"/>
+      <selection pane="topRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8547,43 +8586,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="61" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="74" t="s">
@@ -8617,20 +8656,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -8714,7 +8753,7 @@
         <v>264</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -8729,7 +8768,7 @@
         <v>58</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
@@ -8748,7 +8787,7 @@
     </row>
     <row r="5" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <f t="shared" ref="A5:A17" si="0">1+A4</f>
+        <f t="shared" ref="A5:A30" si="0">1+A4</f>
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -8759,6 +8798,9 @@
       </c>
       <c r="E5" s="33" t="s">
         <v>230</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -8773,7 +8815,7 @@
         <v>58</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
@@ -8815,7 +8857,7 @@
       </c>
       <c r="L6" s="35"/>
       <c r="M6" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
@@ -8838,13 +8880,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>110</v>
@@ -8858,10 +8900,10 @@
         <v>43316</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
@@ -8884,13 +8926,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>110</v>
@@ -8904,10 +8946,10 @@
         <v>43316</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
@@ -8930,19 +8972,23 @@
         <v>7</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+        <v>273</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I9" s="25" t="s">
         <v>27</v>
       </c>
@@ -8954,7 +9000,7 @@
         <v>58</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
@@ -8977,16 +9023,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>279</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>280</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>110</v>
@@ -9003,7 +9049,7 @@
         <v>60</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
@@ -9026,16 +9072,23 @@
         <v>9</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+        <v>292</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I11" s="25" t="s">
         <v>27</v>
       </c>
@@ -9047,7 +9100,7 @@
         <v>58</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
@@ -9070,16 +9123,23 @@
         <v>10</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+        <v>283</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I12" s="25" t="s">
         <v>27</v>
       </c>
@@ -9091,7 +9151,7 @@
         <v>58</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
@@ -9114,17 +9174,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="25" t="s">
         <v>76</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -9139,7 +9199,7 @@
         <v>28</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -9168,12 +9228,14 @@
         <v>69</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="25" t="s">
+        <v>296</v>
+      </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25" t="s">
         <v>27</v>
@@ -9186,7 +9248,7 @@
         <v>60</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
@@ -9208,7 +9270,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="25" t="s">
@@ -9216,7 +9278,7 @@
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -9251,14 +9313,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
@@ -9274,7 +9336,7 @@
         <v>60</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
@@ -9295,17 +9357,31 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="24" t="s">
+        <v>136</v>
+      </c>
       <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
+      <c r="D17" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="E17" s="33"/>
-      <c r="F17" s="24"/>
+      <c r="F17" s="24" t="s">
+        <v>136</v>
+      </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="I17" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="K17" s="26">
+        <v>43333</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M17" s="24"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
@@ -9321,8 +9397,547 @@
       <c r="Y17" s="25"/>
       <c r="Z17" s="25"/>
     </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="K18" s="26">
+        <v>43333</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" s="24"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="K19" s="26">
+        <v>43333</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="24"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="K20" s="26">
+        <v>43333</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="K21" s="26">
+        <v>43333</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" s="24"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="K22" s="26">
+        <v>43333</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" s="24"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="53" t="s">
+        <v>302</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="K23" s="26">
+        <v>43333</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="24"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="K24" s="26">
+        <v>43334</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="24"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="K25" s="26">
+        <v>43334</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="24"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="26">
+        <v>43334</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="24"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
@@ -9331,12 +9946,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi 2018.xlsx
+++ b/Danh Sach Lop/Danh sach hoi 2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="323">
   <si>
     <t>STT</t>
   </si>
@@ -893,24 +893,12 @@
     <t>Huyền Mỹ Nguyễn</t>
   </si>
   <si>
-    <t>Test đầu vào X</t>
-  </si>
-  <si>
-    <t>Gọi khóa mới X</t>
-  </si>
-  <si>
     <t>01214202953</t>
   </si>
   <si>
     <t>01674894017</t>
   </si>
   <si>
-    <t>Dâu Tây X</t>
-  </si>
-  <si>
-    <t>Cuong Pham X</t>
-  </si>
-  <si>
     <t>Toeic A</t>
   </si>
   <si>
@@ -932,13 +920,76 @@
     <t>Yến Nhi</t>
   </si>
   <si>
-    <t>Công Tiến</t>
-  </si>
-  <si>
     <t>Thùy Trang</t>
   </si>
   <si>
     <t>Công tiến</t>
+  </si>
+  <si>
+    <t>Thu Thảo</t>
+  </si>
+  <si>
+    <t>Trần Xuân Thành</t>
+  </si>
+  <si>
+    <t>Phan Thị Diệu Hiền</t>
+  </si>
+  <si>
+    <t>Hoàng Bá</t>
+  </si>
+  <si>
+    <t>Tâm An</t>
+  </si>
+  <si>
+    <t>Duyên</t>
+  </si>
+  <si>
+    <t>Việt Vân</t>
+  </si>
+  <si>
+    <t>Lê Kiều Vân</t>
+  </si>
+  <si>
+    <t>Minh Tâm</t>
+  </si>
+  <si>
+    <t>Duyên Nguyễn</t>
+  </si>
+  <si>
+    <t>Lâ Kiều Vân</t>
+  </si>
+  <si>
+    <t>Ste LLazies</t>
+  </si>
+  <si>
+    <t>Hồ Thị Mỹ Linh</t>
+  </si>
+  <si>
+    <t>Trần Hữu Hoài Nguyên</t>
+  </si>
+  <si>
+    <t>Đào Quang Hàng</t>
+  </si>
+  <si>
+    <t>Hồ Công Tiến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dâu Tây </t>
+  </si>
+  <si>
+    <t>Cuong Pham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test đầu vào </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gọi khóa mới </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>0965007118</t>
   </si>
 </sst>
 </file>
@@ -3732,9 +3783,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E94" sqref="E94"/>
+      <selection pane="topRight" activeCell="A92" sqref="A92:XFD92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8555,11 +8606,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:Z42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8753,7 +8804,7 @@
         <v>264</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -8787,7 +8838,7 @@
     </row>
     <row r="5" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <f t="shared" ref="A5:A30" si="0">1+A4</f>
+        <f t="shared" ref="A5:A42" si="0">1+A4</f>
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -8798,9 +8849,6 @@
       </c>
       <c r="E5" s="33" t="s">
         <v>230</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>44</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -8846,6 +8894,9 @@
       <c r="E6" s="33" t="s">
         <v>266</v>
       </c>
+      <c r="F6" s="24" t="s">
+        <v>321</v>
+      </c>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25" t="s">
@@ -8906,18 +8957,42 @@
         <v>276</v>
       </c>
       <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
+      <c r="O7" s="25">
+        <v>5</v>
+      </c>
+      <c r="P7" s="25">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>8</v>
+      </c>
+      <c r="R7" s="25">
+        <v>10</v>
+      </c>
+      <c r="S7" s="25">
+        <v>25</v>
+      </c>
+      <c r="T7" s="25">
+        <v>6</v>
+      </c>
+      <c r="U7" s="25">
+        <v>21</v>
+      </c>
+      <c r="V7" s="25">
+        <v>41</v>
+      </c>
+      <c r="W7" s="25">
+        <v>52</v>
+      </c>
+      <c r="X7" s="25">
+        <v>190</v>
+      </c>
+      <c r="Y7" s="25">
+        <v>225</v>
+      </c>
+      <c r="Z7" s="25">
+        <v>415</v>
+      </c>
       <c r="AA7" s="50"/>
     </row>
     <row r="8" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -8949,21 +9024,45 @@
         <v>272</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
+      <c r="O8" s="25">
+        <v>8</v>
+      </c>
+      <c r="P8" s="25">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>12</v>
+      </c>
+      <c r="R8" s="25">
+        <v>16</v>
+      </c>
+      <c r="S8" s="25">
+        <v>26</v>
+      </c>
+      <c r="T8" s="25">
+        <v>5</v>
+      </c>
+      <c r="U8" s="25">
+        <v>20</v>
+      </c>
+      <c r="V8" s="25">
+        <v>55</v>
+      </c>
+      <c r="W8" s="25">
+        <v>51</v>
+      </c>
+      <c r="X8" s="25">
+        <v>280</v>
+      </c>
+      <c r="Y8" s="25">
+        <v>220</v>
+      </c>
+      <c r="Z8" s="25">
+        <v>500</v>
+      </c>
       <c r="AA8" s="50"/>
     </row>
     <row r="9" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -8984,7 +9083,7 @@
         <v>273</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>44</v>
@@ -9000,7 +9099,7 @@
         <v>58</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
@@ -9049,7 +9148,7 @@
         <v>60</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
@@ -9078,10 +9177,7 @@
         <v>69</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>110</v>
@@ -9131,9 +9227,6 @@
       <c r="E12" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>44</v>
-      </c>
       <c r="G12" s="25" t="s">
         <v>110</v>
       </c>
@@ -9184,7 +9277,7 @@
         <v>284</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -9228,13 +9321,13 @@
         <v>69</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>234</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25" t="s">
@@ -9248,7 +9341,7 @@
         <v>60</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
@@ -9322,7 +9415,9 @@
       <c r="E16" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="F16" s="24"/>
+      <c r="F16" s="24" t="s">
+        <v>321</v>
+      </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25" t="s">
@@ -9358,7 +9453,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>136</v>
+        <v>315</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="25" t="s">
@@ -9369,12 +9464,14 @@
         <v>136</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="H17" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I17" s="25" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K17" s="26">
         <v>43333</v>
@@ -9384,18 +9481,42 @@
       </c>
       <c r="M17" s="24"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
+      <c r="O17" s="25">
+        <v>3</v>
+      </c>
+      <c r="P17" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>2</v>
+      </c>
+      <c r="R17" s="25">
+        <v>7</v>
+      </c>
+      <c r="S17" s="25">
+        <v>10</v>
+      </c>
+      <c r="T17" s="25">
+        <v>1</v>
+      </c>
+      <c r="U17" s="25">
+        <v>2</v>
+      </c>
+      <c r="V17" s="25">
+        <v>16</v>
+      </c>
+      <c r="W17" s="25">
+        <v>13</v>
+      </c>
+      <c r="X17" s="25">
+        <v>55</v>
+      </c>
+      <c r="Y17" s="25">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="25">
+        <v>60</v>
+      </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
@@ -9403,7 +9524,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="25" t="s">
@@ -9411,7 +9532,7 @@
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="24" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
@@ -9419,7 +9540,7 @@
         <v>27</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K18" s="26">
         <v>43333</v>
@@ -9448,7 +9569,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="25" t="s">
@@ -9456,7 +9577,7 @@
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="53" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
@@ -9464,7 +9585,7 @@
         <v>27</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K19" s="26">
         <v>43333</v>
@@ -9493,7 +9614,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="25" t="s">
@@ -9501,7 +9622,7 @@
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="53" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -9509,7 +9630,7 @@
         <v>27</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K20" s="26">
         <v>43333</v>
@@ -9538,7 +9659,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="25" t="s">
@@ -9546,7 +9667,7 @@
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="53" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -9554,7 +9675,7 @@
         <v>27</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K21" s="26">
         <v>43333</v>
@@ -9599,7 +9720,7 @@
         <v>27</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K22" s="26">
         <v>43333</v>
@@ -9628,7 +9749,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="25" t="s">
@@ -9636,7 +9757,7 @@
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="53" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
@@ -9644,7 +9765,7 @@
         <v>27</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K23" s="26">
         <v>43333</v>
@@ -9673,7 +9794,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="25" t="s">
@@ -9681,15 +9802,17 @@
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="24" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="H24" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I24" s="25" t="s">
         <v>27</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K24" s="26">
         <v>43334</v>
@@ -9699,26 +9822,50 @@
       </c>
       <c r="M24" s="24"/>
       <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
+      <c r="O24" s="25">
+        <v>2</v>
+      </c>
+      <c r="P24" s="25">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>2</v>
+      </c>
+      <c r="R24" s="25">
+        <v>4</v>
+      </c>
+      <c r="S24" s="25">
+        <v>9</v>
+      </c>
+      <c r="T24" s="25">
+        <v>2</v>
+      </c>
+      <c r="U24" s="25">
+        <v>1</v>
+      </c>
+      <c r="V24" s="25">
+        <v>14</v>
+      </c>
+      <c r="W24" s="25">
+        <v>12</v>
+      </c>
+      <c r="X24" s="25">
+        <v>45</v>
+      </c>
+      <c r="Y24" s="25">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="25">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
-        <f t="shared" si="0"/>
+        <f>1+A24</f>
         <v>23</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="25" t="s">
@@ -9726,7 +9873,7 @@
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="24" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
@@ -9734,7 +9881,7 @@
         <v>27</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K25" s="26">
         <v>43334</v>
@@ -9759,26 +9906,32 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A26:A42" si="1">1+A25</f>
         <v>24</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="24" t="s">
+        <v>313</v>
+      </c>
       <c r="C26" s="24"/>
       <c r="D26" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="33"/>
+      <c r="E26" s="33" t="s">
+        <v>322</v>
+      </c>
       <c r="F26" s="24"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+      <c r="H26" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I26" s="25" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K26" s="26">
-        <v>43334</v>
+        <v>43335</v>
       </c>
       <c r="L26" s="25" t="s">
         <v>60</v>
@@ -9800,22 +9953,34 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="53" t="s">
+        <v>302</v>
+      </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
+      <c r="D27" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="E27" s="33"/>
-      <c r="F27" s="24"/>
+      <c r="F27" s="53" t="s">
+        <v>302</v>
+      </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
+      <c r="I27" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="J27" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
+        <v>293</v>
+      </c>
+      <c r="K27" s="26">
+        <v>43335</v>
+      </c>
+      <c r="L27" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="M27" s="24"/>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
@@ -9833,55 +9998,103 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="53" t="s">
+        <v>314</v>
+      </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
+      <c r="D28" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="E28" s="33"/>
-      <c r="F28" s="24"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="H28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="J28" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
+        <v>293</v>
+      </c>
+      <c r="K28" s="26">
+        <v>43336</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M28" s="24"/>
       <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
+      <c r="O28" s="25">
+        <v>1</v>
+      </c>
+      <c r="P28" s="25">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="25">
+        <v>5</v>
+      </c>
+      <c r="R28" s="25">
+        <v>5</v>
+      </c>
+      <c r="S28" s="25">
+        <v>10</v>
+      </c>
+      <c r="T28" s="25">
+        <v>2</v>
+      </c>
+      <c r="U28" s="25">
+        <v>1</v>
+      </c>
+      <c r="V28" s="25">
+        <v>13</v>
+      </c>
+      <c r="W28" s="25">
+        <v>13</v>
+      </c>
+      <c r="X28" s="25">
+        <v>40</v>
+      </c>
+      <c r="Y28" s="25">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="25">
+        <v>45</v>
+      </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="24"/>
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>303</v>
+      </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
+      <c r="D29" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E29" s="33"/>
-      <c r="F29" s="24"/>
+      <c r="F29" s="24" t="s">
+        <v>303</v>
+      </c>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
+      <c r="I29" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="J29" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
+        <v>293</v>
+      </c>
+      <c r="K29" s="26">
+        <v>43336</v>
+      </c>
+      <c r="L29" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M29" s="24"/>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
@@ -9899,22 +10112,34 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="24" t="s">
+        <v>301</v>
+      </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
+      <c r="D30" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="E30" s="33"/>
-      <c r="F30" s="24"/>
+      <c r="F30" s="24" t="s">
+        <v>301</v>
+      </c>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
+      <c r="I30" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="J30" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
+        <v>293</v>
+      </c>
+      <c r="K30" s="26">
+        <v>43336</v>
+      </c>
+      <c r="L30" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="M30" s="24"/>
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
@@ -9929,6 +10154,476 @@
       <c r="X30" s="25"/>
       <c r="Y30" s="25"/>
       <c r="Z30" s="25"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="K31" s="26">
+        <v>43338</v>
+      </c>
+      <c r="L31" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M31" s="24"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="K32" s="26">
+        <v>43339</v>
+      </c>
+      <c r="L32" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" s="24"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="K33" s="26">
+        <v>43339</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="24"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="33"/>
+      <c r="F34" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="K34" s="26">
+        <v>43340</v>
+      </c>
+      <c r="L34" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M34" s="24"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="53" t="s">
+        <v>307</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="53" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="K35" s="26">
+        <v>43340</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M35" s="24"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="K36" s="26">
+        <v>43341</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36" s="24"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="33"/>
+      <c r="F37" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="K37" s="26">
+        <v>43341</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M37" s="24"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="14">
